--- a/verification/Verify.xlsx
+++ b/verification/Verify.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ChargeDistribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ChargeDistribution\verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27827B41-D6DD-499D-AFE7-EF62C3A5555B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92889F81-ABE5-44E4-9459-6BF94A1CB62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="3" xr2:uid="{9E2554C6-F1FA-4E84-AA2F-1B670389EA7A}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" firstSheet="1" activeTab="2" xr2:uid="{9E2554C6-F1FA-4E84-AA2F-1B670389EA7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3 (3)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,13 +35,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>nan</t>
   </si>
   <si>
     <t>18x tick</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tick 34 statistics: </t>
+  </si>
+  <si>
+    <t>dt, elapsed = 0.00108991, 0.092081</t>
+  </si>
+  <si>
+    <t>dxEstm, dxElim = 0.00446823, 0.00435915</t>
+  </si>
+  <si>
+    <t>vel, acc = 4.10354, 875.638</t>
+  </si>
+  <si>
+    <t>elim, brute = 0.826053, 0.00564463</t>
+  </si>
+  <si>
+    <t>stay, superforce = 0, 0.00409031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tick 34 finished in 18.196 seconds. </t>
+  </si>
+  <si>
+    <t>Group finished</t>
+  </si>
+  <si>
+    <t>Exporting point set... done</t>
+  </si>
+  <si>
+    <t>Distribution statistics:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nan 1.30166e-17 1.3076e-17 1.30206e-17 1.29704e-17 1.29522e-17 1.29558e-17 1.29581e-17 1.28551e-17 1.27542e-17 1.26385e-17 1.24934e-17 1.24201e-17 1.23303e-17 1.22531e-17 1.21736e-17 1.20634e-17 1.19104e-17 1.17409e-17 1.15409e-17 1.13229e-17 1.12065e-17 1.11486e-17 1.10195e-17 1.08601e-17 1.06711e-17 1.04459e-17 1.01993e-17 9.97111e-18 9.79463e-18 9.63864e-18 9.46291e-18 9.28657e-18 9.10404e-18 8.87836e-18 8.66871e-18 </t>
+  </si>
+  <si>
+    <t>8.49963e-18 8.31424e-18 8.16134e-18 8.01747e-18 7.87421e-18 7.74964e-18 7.5835e-18 7.37334e-18 7.28645e-18 7.20958e-18 7.06207e-18 6.91069e-18 6.81617e-18 6.77259e-18 6.68747e-18 6.57565e-18 6.50144e-18 6.43352e-18 6.37148e-18 6.30767e-18 6.16357e-18 6.07604e-18 5.98231e-18 5.93476e-18 5.87647e-18 5.86649e-18 5.80005e-18 5.74771e-18</t>
   </si>
 </sst>
 </file>
@@ -600,193 +637,193 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="1">
-                  <c:v>5.1582987301587323E-18</c:v>
+                  <c:v>6.1178574603174603E-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2103987301587322E-18</c:v>
+                  <c:v>5.99385746031746E-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2884987301587318E-18</c:v>
+                  <c:v>5.9805574603174603E-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1115987301587308E-18</c:v>
+                  <c:v>5.9212574603174624E-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0024987301587319E-18</c:v>
+                  <c:v>5.8909574603174604E-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.050198730158732E-18</c:v>
+                  <c:v>5.7784574603174604E-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9890987301587316E-18</c:v>
+                  <c:v>5.6741574603174601E-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7793987301587319E-18</c:v>
+                  <c:v>5.5541574603174608E-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.645098730158731E-18</c:v>
+                  <c:v>5.4227574603174616E-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5778987301587319E-18</c:v>
+                  <c:v>5.2513574603174626E-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5189987301587298E-18</c:v>
+                  <c:v>5.0299574603174616E-18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3958987301587308E-18</c:v>
+                  <c:v>4.8673574603174622E-18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0762987301587314E-18</c:v>
+                  <c:v>4.7319574603174622E-18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8166987301587301E-18</c:v>
+                  <c:v>4.5441574603174607E-18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6220987301587311E-18</c:v>
+                  <c:v>4.3441574603174618E-18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4840987301587308E-18</c:v>
+                  <c:v>4.1252574603174606E-18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4102987301587305E-18</c:v>
+                  <c:v>3.8346574603174615E-18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.131698730158731E-18</c:v>
+                  <c:v>3.5573574603174607E-18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8013987301587306E-18</c:v>
+                  <c:v>3.3127574603174613E-18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6750987301587315E-18</c:v>
+                  <c:v>3.0698574603174608E-18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5985987301587304E-18</c:v>
+                  <c:v>2.817557460317461E-18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3469987301587309E-18</c:v>
+                  <c:v>2.5507574603174618E-18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9783987301587312E-18</c:v>
+                  <c:v>2.2632574603174608E-18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7176987301587307E-18</c:v>
+                  <c:v>1.9782574603174612E-18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.541698730158731E-18</c:v>
+                  <c:v>1.688057460317461E-18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2641987301587308E-18</c:v>
+                  <c:v>1.3928574603174612E-18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.5349873015873133E-19</c:v>
+                  <c:v>1.1158574603174618E-18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.9859873015873072E-19</c:v>
+                  <c:v>8.3185746031746085E-19</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.4859873015873074E-19</c:v>
+                  <c:v>5.2975746031746151E-19</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.036187301587309E-19</c:v>
+                  <c:v>2.1109746031746077E-19</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1978873015873117E-19</c:v>
+                  <c:v>-8.5052539682538997E-20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.7873015873026502E-22</c:v>
+                  <c:v>-3.8591253968253818E-19</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.1927126984126933E-19</c:v>
+                  <c:v>-7.2256253968253862E-19</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6.9444126984126947E-19</c:v>
+                  <c:v>-1.0313625396825381E-18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-9.0138126984126846E-19</c:v>
+                  <c:v>-1.315522539682538E-18</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.1315312698412687E-18</c:v>
+                  <c:v>-1.5906225396825389E-18</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.4747412698412699E-18</c:v>
+                  <c:v>-1.8706425396825384E-18</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.71166126984127E-18</c:v>
+                  <c:v>-2.129202539682539E-18</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.8597612698412684E-18</c:v>
+                  <c:v>-2.3594725396825393E-18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.1361912698412687E-18</c:v>
+                  <c:v>-2.594272539682539E-18</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.4152712698412696E-18</c:v>
+                  <c:v>-2.8301625396825389E-18</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.5308612698412694E-18</c:v>
+                  <c:v>-3.0417725396825383E-18</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.5442312698412689E-18</c:v>
+                  <c:v>-3.2427625396825385E-18</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.7784512698412691E-18</c:v>
+                  <c:v>-3.4375725396825389E-18</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.1152612698412692E-18</c:v>
+                  <c:v>-3.6094825396825385E-18</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.317661269841269E-18</c:v>
+                  <c:v>-3.778982539682539E-18</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.3923812698412693E-18</c:v>
+                  <c:v>-3.939632539682539E-18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.5374612698412692E-18</c:v>
+                  <c:v>-4.0897125396825385E-18</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.662811269841269E-18</c:v>
+                  <c:v>-4.2300425396825384E-18</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.9011412698412695E-18</c:v>
+                  <c:v>-4.354532539682539E-18</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.0844212698412689E-18</c:v>
+                  <c:v>-4.4680325396825385E-18</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-4.0727512698412692E-18</c:v>
+                  <c:v>-4.5702325396825386E-18</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3.9766112698412689E-18</c:v>
+                  <c:v>-4.6704525396825385E-18</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.0385612698412695E-18</c:v>
+                  <c:v>-4.7603425396825386E-18</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.2569312698412691E-18</c:v>
+                  <c:v>-4.8366825396825384E-18</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-4.4162812698412689E-18</c:v>
+                  <c:v>-4.9014725396825385E-18</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-4.5089812698412692E-18</c:v>
+                  <c:v>-4.9625525396825387E-18</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-4.5816712698412691E-18</c:v>
+                  <c:v>-5.0102325396825385E-18</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-4.7272112698412693E-18</c:v>
+                  <c:v>-5.0546425396825386E-18</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-4.8123212698412695E-18</c:v>
+                  <c:v>-5.0955425396825389E-18</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-4.9033712698412695E-18</c:v>
+                  <c:v>-5.1142725396825386E-18</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-5.0392612698412691E-18</c:v>
+                  <c:v>-5.1435025396825385E-18</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-5.1750612698412696E-18</c:v>
+                  <c:v>-5.1549225396825385E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,196 +857,196 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>5.1666800000000009E-18</c:v>
+                  <c:v>5.636389999999999E-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1604565076661411E-18</c:v>
+                  <c:v>5.6296007214002705E-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1418010236027076E-18</c:v>
+                  <c:v>5.6092492415679032E-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1107584905048357E-18</c:v>
+                  <c:v>5.5753845890003908E-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0674036925537636E-18</c:v>
+                  <c:v>5.5280883466119628E-18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.011841075255187E-18</c:v>
+                  <c:v>5.4674744551931949E-18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9442044938208899E-18</c:v>
+                  <c:v>5.3936889389176635E-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8646568906998104E-18</c:v>
+                  <c:v>5.3069095535569253E-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.773389903035416E-18</c:v>
+                  <c:v>5.2073453582512905E-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6706234009950333E-18</c:v>
+                  <c:v>5.0952362118680439E-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5566049580833596E-18</c:v>
+                  <c:v>4.9708521951604237E-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4316092547162065E-18</c:v>
+                  <c:v>4.8344929601194331E-18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2959374164913153E-18</c:v>
+                  <c:v>4.686487008085942E-18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1499162887504192E-18</c:v>
+                  <c:v>4.5271908983621917E-18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9938976491801866E-18</c:v>
+                  <c:v>4.3569883892291965E-18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8282573603489607E-18</c:v>
+                  <c:v>4.1762895134394369E-18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6533944642209122E-18</c:v>
+                  <c:v>3.9855295904120443E-18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4697302208289934E-18</c:v>
+                  <c:v>3.7851681775101849E-18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2777070934226245E-18</c:v>
+                  <c:v>3.5756879629271288E-18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0777876825349665E-18</c:v>
+                  <c:v>3.3575936028481067E-18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8704536115377192E-18</c:v>
+                  <c:v>3.1314105056893558E-18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.6562043663682348E-18</c:v>
+                  <c:v>2.8976835663432321E-18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.4355560922241467E-18</c:v>
+                  <c:v>2.6569758534786853E-18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2090403501243708E-18</c:v>
+                  <c:v>2.409867253059508E-18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9772028363320627E-18</c:v>
+                  <c:v>2.1569530713482684E-18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7406020677245157E-18</c:v>
+                  <c:v>1.8988426007613747E-18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4998080362770857E-18</c:v>
+                  <c:v>1.6361576520302786E-18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2554008359025962E-18</c:v>
+                  <c:v>1.3695310562049578E-18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0079692649542901E-18</c:v>
+                  <c:v>1.0996051401084855E-18</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5810940775902853E-19</c:v>
+                  <c:v>8.2703017891545626E-19</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.0642319859793509E-19</c:v>
+                  <c:v>5.524628295821329E-19</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.5351697159398472E-19</c:v>
+                  <c:v>2.7656454890231623E-19</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1649750095036349E-34</c:v>
+                  <c:v>3.4527072498811977E-34</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.535169715939841E-19</c:v>
+                  <c:v>-2.7656454890231555E-19</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-5.0642319859793451E-19</c:v>
+                  <c:v>-5.5246282958213223E-19</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-7.5810940775902795E-19</c:v>
+                  <c:v>-8.2703017891545559E-19</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.0079692649542894E-18</c:v>
+                  <c:v>-1.0996051401084847E-18</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.2554008359025956E-18</c:v>
+                  <c:v>-1.3695310562049573E-18</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.4998080362770848E-18</c:v>
+                  <c:v>-1.6361576520302778E-18</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.7406020677245153E-18</c:v>
+                  <c:v>-1.8988426007613744E-18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.9772028363320623E-18</c:v>
+                  <c:v>-2.1569530713482676E-18</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.2090403501243692E-18</c:v>
+                  <c:v>-2.4098672530595061E-18</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.4355560922241463E-18</c:v>
+                  <c:v>-2.6569758534786849E-18</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.6562043663682348E-18</c:v>
+                  <c:v>-2.8976835663432321E-18</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.8704536115377177E-18</c:v>
+                  <c:v>-3.1314105056893539E-18</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.0777876825349661E-18</c:v>
+                  <c:v>-3.3575936028481059E-18</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.2777070934226237E-18</c:v>
+                  <c:v>-3.5756879629271288E-18</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.4697302208289941E-18</c:v>
+                  <c:v>-3.7851681775101857E-18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.6533944642209114E-18</c:v>
+                  <c:v>-3.9855295904120436E-18</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.8282573603489599E-18</c:v>
+                  <c:v>-4.1762895134394361E-18</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.9938976491801866E-18</c:v>
+                  <c:v>-4.3569883892291965E-18</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.1499162887504192E-18</c:v>
+                  <c:v>-4.5271908983621909E-18</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-4.2959374164913161E-18</c:v>
+                  <c:v>-4.6864870080859428E-18</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-4.4316092547162065E-18</c:v>
+                  <c:v>-4.8344929601194323E-18</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.5566049580833596E-18</c:v>
+                  <c:v>-4.9708521951604237E-18</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.6706234009950333E-18</c:v>
+                  <c:v>-5.0952362118680439E-18</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-4.773389903035416E-18</c:v>
+                  <c:v>-5.2073453582512905E-18</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-4.8646568906998104E-18</c:v>
+                  <c:v>-5.3069095535569253E-18</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-4.9442044938208899E-18</c:v>
+                  <c:v>-5.3936889389176635E-18</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-5.011841075255187E-18</c:v>
+                  <c:v>-5.4674744551931949E-18</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-5.0674036925537636E-18</c:v>
+                  <c:v>-5.5280883466119628E-18</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-5.1107584905048357E-18</c:v>
+                  <c:v>-5.5753845890003908E-18</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-5.1418010236027069E-18</c:v>
+                  <c:v>-5.6092492415679024E-18</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-5.1604565076661411E-18</c:v>
+                  <c:v>-5.6296007214002705E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,7 +1125,6 @@
         <c:axId val="1785928464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6.0000000000000066E-18"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1258,193 +1294,193 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3.2558599999999999E-17</c:v>
+                  <c:v>3.3901800000000002E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1337899999999997E-17</c:v>
+                  <c:v>3.4287100000000003E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0020700000000002E-17</c:v>
+                  <c:v>3.4005399999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9007999999999998E-17</c:v>
+                  <c:v>3.3858200000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.83638E-17</c:v>
+                  <c:v>3.3014100000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8007699999999999E-17</c:v>
+                  <c:v>3.2152200000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7727100000000001E-17</c:v>
+                  <c:v>3.1341799999999998E-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7244799999999999E-17</c:v>
+                  <c:v>3.0204399999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.65675E-17</c:v>
+                  <c:v>2.9132399999999998E-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.58944E-17</c:v>
+                  <c:v>2.8758500000000003E-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5278100000000001E-17</c:v>
+                  <c:v>2.7845799999999997E-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.45991E-17</c:v>
+                  <c:v>2.70081E-17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3792600000000001E-17</c:v>
+                  <c:v>2.63362E-17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.29813E-17</c:v>
+                  <c:v>2.56026E-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2323299999999999E-17</c:v>
+                  <c:v>2.4917899999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1922100000000001E-17</c:v>
+                  <c:v>2.43123E-17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1635599999999999E-17</c:v>
+                  <c:v>2.3592500000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1140300000000001E-17</c:v>
+                  <c:v>2.30978E-17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0553799999999999E-17</c:v>
+                  <c:v>2.2749600000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0135900000000001E-17</c:v>
+                  <c:v>2.1953100000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9710700000000001E-17</c:v>
+                  <c:v>2.1742399999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9252699999999999E-17</c:v>
+                  <c:v>2.1304999999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.88219E-17</c:v>
+                  <c:v>2.13167E-17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8607399999999999E-17</c:v>
+                  <c:v>2.1015000000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8471999999999998E-17</c:v>
+                  <c:v>2.0659999999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.8297100000000001E-17</c:v>
+                  <c:v>2.0491499999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.81584E-17</c:v>
+                  <c:v>2.04282E-17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.8080900000000001E-17</c:v>
+                  <c:v>2.01738E-17</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7850200000000001E-17</c:v>
+                  <c:v>2.01072E-17</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7636100000000001E-17</c:v>
+                  <c:v>2.0035099999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.7591500000000001E-17</c:v>
+                  <c:v>1.9794199999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7578300000000001E-17</c:v>
+                  <c:v>1.9784699999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.76492E-17</c:v>
+                  <c:v>1.9768500000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.77623E-17</c:v>
+                  <c:v>1.9807400000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7878E-17</c:v>
+                  <c:v>2.00378E-17</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7957299999999999E-17</c:v>
+                  <c:v>2.01714E-17</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7996500000000001E-17</c:v>
+                  <c:v>2.0007799999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.8216400000000001E-17</c:v>
+                  <c:v>2.04713E-17</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.8454999999999999E-17</c:v>
+                  <c:v>2.0652299999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.85613E-17</c:v>
+                  <c:v>2.07472E-17</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8796100000000001E-17</c:v>
+                  <c:v>2.1116800000000002E-17</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.92109E-17</c:v>
+                  <c:v>2.1406099999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.9699200000000001E-17</c:v>
+                  <c:v>2.1576999999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0125100000000001E-17</c:v>
+                  <c:v>2.21709E-17</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.0573499999999999E-17</c:v>
+                  <c:v>2.27164E-17</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.10656E-17</c:v>
+                  <c:v>2.3043300000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1609400000000002E-17</c:v>
+                  <c:v>2.3948300000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.2049200000000001E-17</c:v>
+                  <c:v>2.4244600000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2468100000000001E-17</c:v>
+                  <c:v>2.4743799999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.3052299999999999E-17</c:v>
+                  <c:v>2.5595800000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3733500000000001E-17</c:v>
+                  <c:v>2.60547E-17</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.43226E-17</c:v>
+                  <c:v>2.6914399999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.4790199999999999E-17</c:v>
+                  <c:v>2.7818299999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.5462500000000001E-17</c:v>
+                  <c:v>2.8870499999999997E-17</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.6238799999999999E-17</c:v>
+                  <c:v>2.9211499999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.6959499999999999E-17</c:v>
+                  <c:v>2.9691899999999998E-17</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.76221E-17</c:v>
+                  <c:v>3.0627000000000002E-17</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.8155600000000001E-17</c:v>
+                  <c:v>3.1949499999999998E-17</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.8763899999999998E-17</c:v>
+                  <c:v>3.2651399999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.9701899999999998E-17</c:v>
+                  <c:v>3.2767500000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.1052900000000002E-17</c:v>
+                  <c:v>3.3378499999999998E-17</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.2710400000000001E-17</c:v>
+                  <c:v>3.3875399999999998E-17</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.4291399999999999E-17</c:v>
+                  <c:v>3.3830300000000001E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1478,193 +1514,193 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3.3304937129169904E-17</c:v>
+                  <c:v>3.3766871874213537E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2953479514219738E-17</c:v>
+                  <c:v>3.3410539592089367E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2395174782892765E-17</c:v>
+                  <c:v>3.2844491253479129E-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1666028627684626E-17</c:v>
+                  <c:v>3.2105231944716631E-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.080785037984908E-17</c:v>
+                  <c:v>3.1235150886538631E-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9862853891936301E-17</c:v>
+                  <c:v>3.0277047431631192E-17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8869585388806363E-17</c:v>
+                  <c:v>2.9270002435515433E-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7860553770800108E-17</c:v>
+                  <c:v>2.8246975692360111E-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6861386255839956E-17</c:v>
+                  <c:v>2.7233949865958356E-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5891064676788236E-17</c:v>
+                  <c:v>2.6250170064496813E-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4962770817089221E-17</c:v>
+                  <c:v>2.5309000900882867E-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4084970013212034E-17</c:v>
+                  <c:v>2.4419025124599475E-17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3262495165606844E-17</c:v>
+                  <c:v>2.3585142667739242E-17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2497506574613613E-17</c:v>
+                  <c:v>2.2809543793700854E-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1790280712184292E-17</c:v>
+                  <c:v>2.2092508809062937E-17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1139826158225614E-17</c:v>
+                  <c:v>2.143303254287643E-17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.054434673114123E-17</c:v>
+                  <c:v>2.082929390076149E-17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0001579375695181E-17</c:v>
+                  <c:v>2.0278998439227641E-17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9509034308925836E-17</c:v>
+                  <c:v>1.9779621842377389E-17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9064161475148888E-17</c:v>
+                  <c:v>1.9328578685616474E-17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8664462879945381E-17</c:v>
+                  <c:v>1.8923336327698345E-17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.830756602526553E-17</c:v>
+                  <c:v>1.8561489364362411E-17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7991269931743992E-17</c:v>
+                  <c:v>1.8240806288972312E-17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.771357222994084E-17</c:v>
+                  <c:v>1.7959256959508547E-17</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7472683483506692E-17</c:v>
+                  <c:v>1.7715027120393864E-17</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.726703316614088E-17</c:v>
+                  <c:v>1.750652446235099E-17</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7095270431667961E-17</c:v>
+                  <c:v>1.7332379403159998E-17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6956261884863492E-17</c:v>
+                  <c:v>1.7191442827565747E-17</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.684908789065763E-17</c:v>
+                  <c:v>1.7082782345290657E-17</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6773038480811756E-17</c:v>
+                  <c:v>1.7005678140937541E-17</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.67276095763196E-17</c:v>
+                  <c:v>1.6959619143995944E-17</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6712499999999998E-17</c:v>
+                  <c:v>1.69443E-17</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.67276095763196E-17</c:v>
+                  <c:v>1.6959619143995944E-17</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6773038480811756E-17</c:v>
+                  <c:v>1.7005678140937541E-17</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.684908789065763E-17</c:v>
+                  <c:v>1.7082782345290657E-17</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.6956261884863492E-17</c:v>
+                  <c:v>1.7191442827565747E-17</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7095270431667961E-17</c:v>
+                  <c:v>1.7332379403159998E-17</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.726703316614088E-17</c:v>
+                  <c:v>1.750652446235099E-17</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7472683483506692E-17</c:v>
+                  <c:v>1.7715027120393864E-17</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.771357222994084E-17</c:v>
+                  <c:v>1.7959256959508547E-17</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.7991269931743992E-17</c:v>
+                  <c:v>1.8240806288972312E-17</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.8307566025265527E-17</c:v>
+                  <c:v>1.8561489364362408E-17</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.8664462879945381E-17</c:v>
+                  <c:v>1.8923336327698345E-17</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.9064161475148885E-17</c:v>
+                  <c:v>1.9328578685616471E-17</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9509034308925833E-17</c:v>
+                  <c:v>1.9779621842377386E-17</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0001579375695181E-17</c:v>
+                  <c:v>2.0278998439227641E-17</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0544346731141233E-17</c:v>
+                  <c:v>2.0829293900761493E-17</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.1139826158225614E-17</c:v>
+                  <c:v>2.143303254287643E-17</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.1790280712184289E-17</c:v>
+                  <c:v>2.2092508809062934E-17</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.2497506574613613E-17</c:v>
+                  <c:v>2.2809543793700854E-17</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3262495165606838E-17</c:v>
+                  <c:v>2.3585142667739239E-17</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.4084970013212034E-17</c:v>
+                  <c:v>2.4419025124599475E-17</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.4962770817089221E-17</c:v>
+                  <c:v>2.5309000900882867E-17</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.5891064676788233E-17</c:v>
+                  <c:v>2.6250170064496807E-17</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.6861386255839956E-17</c:v>
+                  <c:v>2.7233949865958356E-17</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.7860553770800108E-17</c:v>
+                  <c:v>2.8246975692360104E-17</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.8869585388806357E-17</c:v>
+                  <c:v>2.9270002435515433E-17</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.9862853891936301E-17</c:v>
+                  <c:v>3.0277047431631192E-17</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0807850379849074E-17</c:v>
+                  <c:v>3.1235150886538625E-17</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.1666028627684619E-17</c:v>
+                  <c:v>3.2105231944716625E-17</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2395174782892765E-17</c:v>
+                  <c:v>3.2844491253479129E-17</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.2953479514219738E-17</c:v>
+                  <c:v>3.3410539592089367E-17</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.3304937129169904E-17</c:v>
+                  <c:v>3.3766871874213537E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,193 +1979,193 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3.0957999999999998E-17</c:v>
+                  <c:v>3.4639399999999998E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0833399999999998E-17</c:v>
+                  <c:v>3.83774E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0379200000000002E-17</c:v>
+                  <c:v>3.7644899999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.99173E-17</c:v>
+                  <c:v>3.3831500000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9225800000000001E-17</c:v>
+                  <c:v>3.2879999999999998E-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8255100000000003E-17</c:v>
+                  <c:v>3.3443000000000003E-17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7291199999999999E-17</c:v>
+                  <c:v>3.1834500000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6371300000000001E-17</c:v>
+                  <c:v>2.9503200000000002E-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5416799999999999E-17</c:v>
+                  <c:v>2.8326299999999997E-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4193199999999999E-17</c:v>
+                  <c:v>2.6913699999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2953600000000001E-17</c:v>
+                  <c:v>2.5160699999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1764699999999999E-17</c:v>
+                  <c:v>2.3604600000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.05406E-17</c:v>
+                  <c:v>2.2068499999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9410000000000001E-17</c:v>
+                  <c:v>2.0596999999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8319499999999999E-17</c:v>
+                  <c:v>1.9150800000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7219199999999998E-17</c:v>
+                  <c:v>1.7795600000000001E-17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6209399999999999E-17</c:v>
+                  <c:v>1.65317E-17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5254400000000001E-17</c:v>
+                  <c:v>1.53464E-17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.43401E-17</c:v>
+                  <c:v>1.42195E-17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.35596E-17</c:v>
+                  <c:v>1.31807E-17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2888899999999999E-17</c:v>
+                  <c:v>1.22122E-17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2247200000000001E-17</c:v>
+                  <c:v>1.1292899999999999E-17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.15428E-17</c:v>
+                  <c:v>1.04544E-17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.09348E-17</c:v>
+                  <c:v>9.7247700000000001E-18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.04229E-17</c:v>
+                  <c:v>9.0911399999999998E-18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.8808399999999996E-18</c:v>
+                  <c:v>8.5704799999999997E-18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.3866100000000003E-18</c:v>
+                  <c:v>8.1273900000000006E-18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.9829699999999999E-18</c:v>
+                  <c:v>7.7491400000000004E-18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6103400000000001E-18</c:v>
+                  <c:v>7.4200700000000003E-18</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.1885700000000005E-18</c:v>
+                  <c:v>7.1398599999999995E-18</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.8370499999999994E-18</c:v>
+                  <c:v>6.8908400000000001E-18</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.57625E-18</c:v>
+                  <c:v>6.6691600000000002E-18</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.2504200000000006E-18</c:v>
+                  <c:v>6.4787999999999998E-18</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.9666300000000003E-18</c:v>
+                  <c:v>6.3129599999999997E-18</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.77318E-18</c:v>
+                  <c:v>6.1686599999999997E-18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.5199600000000002E-18</c:v>
+                  <c:v>6.0393200000000002E-18</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.22647E-18</c:v>
+                  <c:v>5.9254800000000003E-18</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.0507700000000002E-18</c:v>
+                  <c:v>5.8167200000000003E-18</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.9336400000000003E-18</c:v>
+                  <c:v>5.7242699999999997E-18</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.7323699999999996E-18</c:v>
+                  <c:v>5.6432699999999999E-18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.5251699999999997E-18</c:v>
+                  <c:v>5.5679900000000002E-18</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.4186599999999998E-18</c:v>
+                  <c:v>5.4996400000000001E-18</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.3432799999999997E-18</c:v>
+                  <c:v>5.4331500000000002E-18</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.17689E-18</c:v>
+                  <c:v>5.3758499999999998E-18</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.9731699999999999E-18</c:v>
+                  <c:v>5.3246000000000002E-18</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.8487600000000002E-18</c:v>
+                  <c:v>5.2814199999999997E-18</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.7816500000000003E-18</c:v>
+                  <c:v>5.2411400000000003E-18</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.6726099999999998E-18</c:v>
+                  <c:v>5.2018600000000003E-18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.5401699999999999E-18</c:v>
+                  <c:v>5.1664700000000002E-18</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.4644500000000002E-18</c:v>
+                  <c:v>5.1325499999999997E-18</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.4395800000000004E-18</c:v>
+                  <c:v>5.1042600000000001E-18</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.4336800000000003E-18</c:v>
+                  <c:v>5.0759000000000001E-18</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.38361E-18</c:v>
+                  <c:v>5.053E-18</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.3164700000000001E-18</c:v>
+                  <c:v>5.0269700000000003E-18</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.23569E-18</c:v>
+                  <c:v>5.0125000000000001E-18</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.1746999999999998E-18</c:v>
+                  <c:v>4.9944699999999999E-18</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.1687699999999997E-18</c:v>
+                  <c:v>4.9859700000000003E-18</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.1580599999999997E-18</c:v>
+                  <c:v>4.97886E-18</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.1440100000000002E-18</c:v>
+                  <c:v>4.9674000000000002E-18</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.1312200000000003E-18</c:v>
+                  <c:v>4.95486E-18</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.0715600000000002E-18</c:v>
+                  <c:v>4.9441400000000003E-18</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.0255899999999999E-18</c:v>
+                  <c:v>4.9447799999999998E-18</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.9776000000000003E-18</c:v>
+                  <c:v>4.9470899999999999E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2163,193 +2199,193 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3.5430987296429875E-17</c:v>
+                  <c:v>3.4473301593911331E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4928930608292804E-17</c:v>
+                  <c:v>3.3984815301317017E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4124322923514958E-17</c:v>
+                  <c:v>3.3201955846962478E-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3060692273182824E-17</c:v>
+                  <c:v>3.2167074716310991E-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1790780583751026E-17</c:v>
+                  <c:v>3.0931488242212745E-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0370692678699705E-17</c:v>
+                  <c:v>2.9549784756754613E-17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8854769824030204E-17</c:v>
+                  <c:v>2.8074836702812283E-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.729183196791546E-17</c:v>
+                  <c:v>2.6554144444490314E-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5722975685764916E-17</c:v>
+                  <c:v>2.5027693732869084E-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4180763890754859E-17</c:v>
+                  <c:v>2.3527167318341929E-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2689457418768605E-17</c:v>
+                  <c:v>2.2076170275905176E-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.126589911180809E-17</c:v>
+                  <c:v>2.0691090192141533E-17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9920714038657597E-17</c:v>
+                  <c:v>1.9382264944389619E-17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8659580828861477E-17</c:v>
+                  <c:v>1.8155219671062456E-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7484421326353494E-17</c:v>
+                  <c:v>1.7011824269405371E-17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6394430233357434E-17</c:v>
+                  <c:v>1.595129520852548E-17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.538691812170086E-17</c:v>
+                  <c:v>1.4971015754439951E-17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4457972551368302E-17</c:v>
+                  <c:v>1.4067179218853793E-17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3602958182851377E-17</c:v>
+                  <c:v>1.3235275553669124E-17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2816882891846483E-17</c:v>
+                  <c:v>1.2470447569746026E-17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2094657141019356E-17</c:v>
+                  <c:v>1.1767743297949983E-17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1431271124805103E-17</c:v>
+                  <c:v>1.1122288345797361E-17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0821910293203961E-17</c:v>
+                  <c:v>1.0529398298688246E-17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0262025807105947E-17</c:v>
+                  <c:v>9.9846472708512736E-18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.7473727929376668E-18</c:v>
+                  <c:v>9.4839051259823283E-18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.2740261503148768E-18</c:v>
+                  <c:v>9.023352857622451E-18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.83838115435008E-18</c:v>
+                  <c:v>8.5994831751852904E-18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4371441325766999E-18</c:v>
+                  <c:v>8.2090914328803793E-18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.0673170008989667E-18</c:v>
+                  <c:v>7.8492605836502114E-18</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.7261783239954148E-18</c:v>
+                  <c:v>7.5173427515036301E-18</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.4112627412334143E-18</c:v>
+                  <c:v>7.2109392135398246E-18</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.1203399999999995E-18</c:v>
+                  <c:v>6.9278799999999997E-18</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.8513944083845533E-18</c:v>
+                  <c:v>6.6662039023360097E-18</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.602605214518296E-18</c:v>
+                  <c:v>6.4241393828886E-18</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.3723282070369473E-18</c:v>
+                  <c:v>6.2000866726823619E-18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.1590786848413093E-18</c:v>
+                  <c:v>5.9926012015070082E-18</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.9615158458277003E-18</c:v>
+                  <c:v>5.8003784086143099E-18</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.7784285797511758E-18</c:v>
+                  <c:v>5.6222399195946509E-18</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.6087226098106165E-18</c:v>
+                  <c:v>5.4571210355200421E-18</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.4514089036274027E-18</c:v>
+                  <c:v>5.3040594571694911E-18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.3055932617988234E-18</c:v>
+                  <c:v>5.1621851549997376E-18</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.1704669874134148E-18</c:v>
+                  <c:v>5.0307112908599373E-18</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.0452985401768296E-18</c:v>
+                  <c:v>4.9089260977032355E-18</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.9294260822605029E-18</c:v>
+                  <c:v>4.7961856269182218E-18</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.8222508283642728E-18</c:v>
+                  <c:v>4.6919072781367576E-18</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.7232311188958067E-18</c:v>
+                  <c:v>4.5955640326130331E-18</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.6318771420201314E-18</c:v>
+                  <c:v>4.5066793179340355E-18</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.5477462372307973E-18</c:v>
+                  <c:v>4.4248224385333422E-18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.4704387197918671E-18</c:v>
+                  <c:v>4.3496045129968067E-18</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.3995941717480113E-18</c:v>
+                  <c:v>4.2806748653251969E-18</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.3348881511171791E-18</c:v>
+                  <c:v>4.2177178230761004E-18</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.27602927633147E-18</c:v>
+                  <c:v>4.1604498806112161E-18</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.2227566479722684E-18</c:v>
+                  <c:v>4.1086171905209758E-18</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.1748375743700418E-18</c:v>
+                  <c:v>4.0619933507004899E-18</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.1320655717344475E-18</c:v>
+                  <c:v>4.0203774585353569E-18</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.0942586131799773E-18</c:v>
+                  <c:v>3.9835924072554545E-18</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.0612576043533509E-18</c:v>
+                  <c:v>3.9514834027655276E-18</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.0329250663892808E-18</c:v>
+                  <c:v>3.9239166822001441E-18</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.0091440096586979E-18</c:v>
+                  <c:v>3.9007784181140654E-18</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.9898169842644747E-18</c:v>
+                  <c:v>3.8819737946426963E-18</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.9748652955188373E-18</c:v>
+                  <c:v>3.8674262441848346E-18</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.9642283747369741E-18</c:v>
+                  <c:v>3.8570768352034861E-18</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.9578632976337505E-18</c:v>
+                  <c:v>3.8508838036401225E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,6 +2394,691 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FAE0-4F5E-9156-B5501645A3A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1414306863"/>
+        <c:axId val="1417548207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1414306863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1417548207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1417548207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1414306863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet3 (3)'!$C$2:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>1.73842E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7462799999999999E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7330499999999999E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.72601E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7189499999999999E-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6958799999999999E-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6669599999999999E-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6366800000000001E-17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6088499999999999E-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.58567E-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5573099999999999E-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.52574E-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4885700000000001E-17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4515E-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4159900000000001E-17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3828600000000001E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.34448E-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3063000000000001E-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2684500000000001E-17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.23144E-17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1986900000000001E-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.16398E-17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.13268E-17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.10483E-17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0718899999999999E-17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0389300000000001E-17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0081000000000001E-17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7744300000000002E-18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.4824699999999994E-18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2110099999999995E-18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.9367699999999993E-18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.6917400000000003E-18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.4471999999999992E-18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.2167500000000006E-18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.0008500000000001E-18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.7739599999999999E-18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.5628300000000003E-18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.3826599999999995E-18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.2089000000000002E-18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.0385599999999999E-18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.8980700000000003E-18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7641200000000003E-18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.63306E-18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.4878799999999997E-18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.3666499999999999E-18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.2395200000000001E-18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.13904E-18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.0401999999999996E-18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.93E-18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.8332500000000001E-18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.7445700000000002E-18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.6632200000000003E-18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.5798499999999996E-18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.4981099999999998E-18</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4355900000000001E-18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3764399999999999E-18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.3211600000000001E-18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.2676799999999998E-18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.23421E-18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.2125100000000003E-18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.18784E-18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.1641099999999999E-18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.1452000000000002E-18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDFC-4C3E-9E80-0124C1361CA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet3 (3)'!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>1.7363746328326132E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7302695898662769E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7201968925333668E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7063061420854349E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6887991372647425E-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6679228478778716E-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6439611880502796E-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6172260780002594E-17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5880482840155086E-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.556768487786694E-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5237289672687627E-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4892661829242433E-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4537044669771624E-17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4173509193205122E-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3804915298084923E-17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3433884778914367E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3062785092691789E-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.269372255507994E-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2328543447657039E-17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1968841472462046E-17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1615970046570254E-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1271058056749988E-17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0935027864509714E-17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0608614542010816E-17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0292385511766871E-17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.9867599453725234E-18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6920274408730372E-18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.4083656406687389E-18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.1358565707015166E-18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.8745015776939646E-18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.6242348162421573E-18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.3849352941176479E-18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.1564375249992349E-18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.9385408658071963E-18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.7310176334386908E-18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.5336201053042326E-18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.346086511613508E-18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.1681461264947293E-18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9995235610832984E-18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.839942355732218E-18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.6891279612869988E-18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5468101915403669E-18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.4127252209803189E-18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.2866171940831738E-18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.1682395048921571E-18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.0573557985956062E-18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.953740740352127E-18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.8571805907354371E-18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.7674736218916649E-18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.6844304037979859E-18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6078739858520767E-18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5376399953667328E-18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.4735766713496495E-18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.4155448491688194E-18</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3634179092950451E-18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3170817012311336E-18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.276434451942418E-18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.2413866665573091E-18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.2118610277755796E-18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.1877922992740862E-18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.1691272374063925E-18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.1558245146280283E-18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.1478546573192016E-18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDFC-4C3E-9E80-0124C1361CA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2716,6 +3437,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4265,6 +5026,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4951,50 +6228,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59871</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>364730</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>92548</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9830DE75-24CD-48AC-9BF9-A19E6636F07E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9982200" y="59871"/>
-          <a:ext cx="2226187" cy="751134"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -5027,7 +6260,50 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212271</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D38F906-7BC4-4553-A4B8-82AAC7592671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5617,7 +6893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C2C37E-122A-456E-9E33-26D723516DB8}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B64"/>
@@ -5640,7 +6916,7 @@
       </c>
       <c r="E1" s="1">
         <f>$E$66*COS(PI()/64*A1)</f>
-        <v>5.1666800000000009E-18</v>
+        <v>5.636389999999999E-18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -5648,15 +6924,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.4692600000000001E-17</v>
+        <v>1.5800599999999999E-17</v>
       </c>
       <c r="C2" s="1">
         <f>B2-$B$66</f>
-        <v>5.1582987301587323E-18</v>
+        <v>6.1178574603174603E-18</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E64" si="0">$E$66*COS(PI()/64*A2)</f>
-        <v>5.1604565076661411E-18</v>
+        <f>$E$66*COS(PI()/64*A2)</f>
+        <v>5.6296007214002705E-18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -5664,15 +6940,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1.4744700000000001E-17</v>
+        <v>1.5676599999999999E-17</v>
       </c>
       <c r="C3" s="1">
         <f>B3-$B$66</f>
-        <v>5.2103987301587322E-18</v>
+        <v>5.99385746031746E-18</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="0"/>
-        <v>5.1418010236027076E-18</v>
+        <f t="shared" ref="E3:E64" si="0">$E$66*COS(PI()/64*A3)</f>
+        <v>5.6092492415679032E-18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -5680,15 +6956,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.4822800000000001E-17</v>
+        <v>1.5663299999999999E-17</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C64" si="1">B4-$B$66</f>
-        <v>5.2884987301587318E-18</v>
+        <v>5.9805574603174603E-18</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>5.1107584905048357E-18</v>
+        <v>5.5753845890003908E-18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -5696,15 +6972,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1.46459E-17</v>
+        <v>1.5604000000000001E-17</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>5.1115987301587308E-18</v>
+        <v>5.9212574603174624E-18</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>5.0674036925537636E-18</v>
+        <v>5.5280883466119628E-18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -5712,15 +6988,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1.4536800000000001E-17</v>
+        <v>1.5573699999999999E-17</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>5.0024987301587319E-18</v>
+        <v>5.8909574603174604E-18</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>5.011841075255187E-18</v>
+        <v>5.4674744551931949E-18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -5728,15 +7004,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1.4584500000000001E-17</v>
+        <v>1.5461199999999999E-17</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>5.050198730158732E-18</v>
+        <v>5.7784574603174604E-18</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>4.9442044938208899E-18</v>
+        <v>5.3936889389176635E-18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5744,15 +7020,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1.4523400000000001E-17</v>
+        <v>1.5356899999999999E-17</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>4.9890987301587316E-18</v>
+        <v>5.6741574603174601E-18</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>4.8646568906998104E-18</v>
+        <v>5.3069095535569253E-18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5760,15 +7036,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1.4313700000000001E-17</v>
+        <v>1.5236899999999999E-17</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>4.7793987301587319E-18</v>
+        <v>5.5541574603174608E-18</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>4.773389903035416E-18</v>
+        <v>5.2073453582512905E-18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5776,15 +7052,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1.41794E-17</v>
+        <v>1.51055E-17</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>4.645098730158731E-18</v>
+        <v>5.4227574603174616E-18</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>4.6706234009950333E-18</v>
+        <v>5.0952362118680439E-18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -5792,15 +7068,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1.4112200000000001E-17</v>
+        <v>1.4934100000000001E-17</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>4.5778987301587319E-18</v>
+        <v>5.2513574603174626E-18</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>4.5566049580833596E-18</v>
+        <v>4.9708521951604237E-18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -5808,15 +7084,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1.4053299999999999E-17</v>
+        <v>1.47127E-17</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>4.5189987301587298E-18</v>
+        <v>5.0299574603174616E-18</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>4.4316092547162065E-18</v>
+        <v>4.8344929601194331E-18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -5824,15 +7100,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1.39302E-17</v>
+        <v>1.4550100000000001E-17</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>4.3958987301587308E-18</v>
+        <v>4.8673574603174622E-18</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>4.2959374164913153E-18</v>
+        <v>4.686487008085942E-18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -5840,15 +7116,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1.3610600000000001E-17</v>
+        <v>1.4414700000000001E-17</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>4.0762987301587314E-18</v>
+        <v>4.7319574603174622E-18</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>4.1499162887504192E-18</v>
+        <v>4.5271908983621917E-18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -5856,15 +7132,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3350999999999999E-17</v>
+        <v>1.4226899999999999E-17</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>3.8166987301587301E-18</v>
+        <v>4.5441574603174607E-18</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>3.9938976491801866E-18</v>
+        <v>4.3569883892291965E-18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -5872,15 +7148,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1.31564E-17</v>
+        <v>1.40269E-17</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>3.6220987301587311E-18</v>
+        <v>4.3441574603174618E-18</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>3.8282573603489607E-18</v>
+        <v>4.1762895134394369E-18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -5888,15 +7164,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1.30184E-17</v>
+        <v>1.3807999999999999E-17</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>3.4840987301587308E-18</v>
+        <v>4.1252574603174606E-18</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>3.6533944642209122E-18</v>
+        <v>3.9855295904120443E-18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -5904,15 +7180,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1.29446E-17</v>
+        <v>1.35174E-17</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>3.4102987301587305E-18</v>
+        <v>3.8346574603174615E-18</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>3.4697302208289934E-18</v>
+        <v>3.7851681775101849E-18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -5920,15 +7196,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1.2666E-17</v>
+        <v>1.3240099999999999E-17</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>3.131698730158731E-18</v>
+        <v>3.5573574603174607E-18</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>3.2777070934226245E-18</v>
+        <v>3.5756879629271288E-18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -5936,15 +7212,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1.23357E-17</v>
+        <v>1.29955E-17</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>2.8013987301587306E-18</v>
+        <v>3.3127574603174613E-18</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>3.0777876825349665E-18</v>
+        <v>3.3575936028481067E-18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -5952,15 +7228,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1.2209400000000001E-17</v>
+        <v>1.2752599999999999E-17</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>2.6750987301587315E-18</v>
+        <v>3.0698574603174608E-18</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>2.8704536115377192E-18</v>
+        <v>3.1314105056893558E-18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -5968,15 +7244,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1.21329E-17</v>
+        <v>1.25003E-17</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>2.5985987301587304E-18</v>
+        <v>2.817557460317461E-18</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>2.6562043663682348E-18</v>
+        <v>2.8976835663432321E-18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -5984,15 +7260,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1.18813E-17</v>
+        <v>1.22335E-17</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>2.3469987301587309E-18</v>
+        <v>2.5507574603174618E-18</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>2.4355560922241467E-18</v>
+        <v>2.6569758534786853E-18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -6000,15 +7276,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1.15127E-17</v>
+        <v>1.1945999999999999E-17</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>1.9783987301587312E-18</v>
+        <v>2.2632574603174608E-18</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>2.2090403501243708E-18</v>
+        <v>2.409867253059508E-18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -6016,15 +7292,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1.1252E-17</v>
+        <v>1.1661E-17</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>1.7176987301587307E-18</v>
+        <v>1.9782574603174612E-18</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>1.9772028363320627E-18</v>
+        <v>2.1569530713482684E-18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -6032,15 +7308,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1.1076E-17</v>
+        <v>1.13708E-17</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>1.541698730158731E-18</v>
+        <v>1.688057460317461E-18</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>1.7406020677245157E-18</v>
+        <v>1.8988426007613747E-18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -6048,15 +7324,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1.07985E-17</v>
+        <v>1.10756E-17</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>1.2641987301587308E-18</v>
+        <v>1.3928574603174612E-18</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>1.4998080362770857E-18</v>
+        <v>1.6361576520302786E-18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -6064,15 +7340,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1.0487800000000001E-17</v>
+        <v>1.07986E-17</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>9.5349873015873133E-19</v>
+        <v>1.1158574603174618E-18</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>1.2554008359025962E-18</v>
+        <v>1.3695310562049578E-18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -6080,15 +7356,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1.03329E-17</v>
+        <v>1.05146E-17</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>7.9859873015873072E-19</v>
+        <v>8.3185746031746085E-19</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>1.0079692649542901E-18</v>
+        <v>1.0996051401084855E-18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -6096,15 +7372,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1.01829E-17</v>
+        <v>1.02125E-17</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>6.4859873015873074E-19</v>
+        <v>5.2975746031746151E-19</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>7.5810940775902853E-19</v>
+        <v>8.2703017891545626E-19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -6112,15 +7388,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>9.8379200000000001E-18</v>
+        <v>9.8938399999999994E-18</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>3.036187301587309E-19</v>
+        <v>2.1109746031746077E-19</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>5.0642319859793509E-19</v>
+        <v>5.524628295821329E-19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -6128,15 +7404,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>9.6540900000000004E-18</v>
+        <v>9.5976899999999997E-18</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>1.1978873015873117E-19</v>
+        <v>-8.5052539682538997E-20</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>2.5351697159398472E-19</v>
+        <v>2.7656454890231623E-19</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -6144,15 +7420,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>9.5349799999999995E-18</v>
+        <v>9.2968300000000005E-18</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>6.7873015873026502E-22</v>
+        <v>-3.8591253968253818E-19</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>3.1649750095036349E-34</v>
+        <v>3.4527072498811977E-34</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -6160,15 +7436,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>9.2150299999999999E-18</v>
+        <v>8.96018E-18</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>-3.1927126984126933E-19</v>
+        <v>-7.2256253968253862E-19</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>-2.535169715939841E-19</v>
+        <v>-2.7656454890231555E-19</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -6176,15 +7452,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>8.8398599999999997E-18</v>
+        <v>8.6513800000000006E-18</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>-6.9444126984126947E-19</v>
+        <v>-1.0313625396825381E-18</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>-5.0642319859793451E-19</v>
+        <v>-5.5246282958213223E-19</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -6192,15 +7468,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>8.6329200000000007E-18</v>
+        <v>8.3672200000000007E-18</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>-9.0138126984126846E-19</v>
+        <v>-1.315522539682538E-18</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>-7.5810940775902795E-19</v>
+        <v>-8.2703017891545559E-19</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -6208,15 +7484,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>8.4027700000000005E-18</v>
+        <v>8.0921199999999997E-18</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>-1.1315312698412687E-18</v>
+        <v>-1.5906225396825389E-18</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0079692649542894E-18</v>
+        <v>-1.0996051401084847E-18</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -6224,15 +7500,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>8.0595599999999994E-18</v>
+        <v>7.8121000000000002E-18</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>-1.4747412698412699E-18</v>
+        <v>-1.8706425396825384E-18</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2554008359025956E-18</v>
+        <v>-1.3695310562049573E-18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -6240,15 +7516,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>7.8226399999999992E-18</v>
+        <v>7.5535399999999996E-18</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>-1.71166126984127E-18</v>
+        <v>-2.129202539682539E-18</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4998080362770848E-18</v>
+        <v>-1.6361576520302778E-18</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -6256,15 +7532,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>7.6745400000000008E-18</v>
+        <v>7.3232699999999994E-18</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>-1.8597612698412684E-18</v>
+        <v>-2.3594725396825393E-18</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="0"/>
-        <v>-1.7406020677245153E-18</v>
+        <v>-1.8988426007613744E-18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -6272,15 +7548,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>7.3981100000000005E-18</v>
+        <v>7.0884699999999997E-18</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>-2.1361912698412687E-18</v>
+        <v>-2.594272539682539E-18</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9772028363320623E-18</v>
+        <v>-2.1569530713482676E-18</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -6288,15 +7564,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>7.1190299999999996E-18</v>
+        <v>6.8525799999999998E-18</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>-2.4152712698412696E-18</v>
+        <v>-2.8301625396825389E-18</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2090403501243692E-18</v>
+        <v>-2.4098672530595061E-18</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -6304,15 +7580,15 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>7.0034399999999998E-18</v>
+        <v>6.6409700000000003E-18</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>-2.5308612698412694E-18</v>
+        <v>-3.0417725396825383E-18</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4355560922241463E-18</v>
+        <v>-2.6569758534786849E-18</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -6320,15 +7596,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>6.9900700000000003E-18</v>
+        <v>6.4399800000000001E-18</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>-2.5442312698412689E-18</v>
+        <v>-3.2427625396825385E-18</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
-        <v>-2.6562043663682348E-18</v>
+        <v>-2.8976835663432321E-18</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -6336,15 +7612,15 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>6.7558500000000001E-18</v>
+        <v>6.2451699999999997E-18</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>-2.7784512698412691E-18</v>
+        <v>-3.4375725396825389E-18</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>-2.8704536115377177E-18</v>
+        <v>-3.1314105056893539E-18</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -6352,15 +7628,15 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>6.41904E-18</v>
+        <v>6.0732600000000001E-18</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
-        <v>-3.1152612698412692E-18</v>
+        <v>-3.6094825396825385E-18</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>-3.0777876825349661E-18</v>
+        <v>-3.3575936028481059E-18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -6368,15 +7644,15 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>6.2166400000000002E-18</v>
+        <v>5.9037599999999996E-18</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>-3.317661269841269E-18</v>
+        <v>-3.778982539682539E-18</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
-        <v>-3.2777070934226237E-18</v>
+        <v>-3.5756879629271288E-18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -6384,15 +7660,15 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>6.1419199999999999E-18</v>
+        <v>5.7431099999999996E-18</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>-3.3923812698412693E-18</v>
+        <v>-3.939632539682539E-18</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>-3.4697302208289941E-18</v>
+        <v>-3.7851681775101857E-18</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -6400,15 +7676,15 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>5.9968400000000001E-18</v>
+        <v>5.5930300000000002E-18</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>-3.5374612698412692E-18</v>
+        <v>-4.0897125396825385E-18</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="0"/>
-        <v>-3.6533944642209114E-18</v>
+        <v>-3.9855295904120436E-18</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -6416,15 +7692,15 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>5.8714900000000002E-18</v>
+        <v>5.4527000000000003E-18</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>-3.662811269841269E-18</v>
+        <v>-4.2300425396825384E-18</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="0"/>
-        <v>-3.8282573603489599E-18</v>
+        <v>-4.1762895134394361E-18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -6432,15 +7708,15 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>5.6331599999999997E-18</v>
+        <v>5.3282099999999996E-18</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
-        <v>-3.9011412698412695E-18</v>
+        <v>-4.354532539682539E-18</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
-        <v>-3.9938976491801866E-18</v>
+        <v>-4.3569883892291965E-18</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -6448,15 +7724,15 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>5.4498800000000003E-18</v>
+        <v>5.2147100000000002E-18</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
-        <v>-4.0844212698412689E-18</v>
+        <v>-4.4680325396825385E-18</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
-        <v>-4.1499162887504192E-18</v>
+        <v>-4.5271908983621909E-18</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -6464,15 +7740,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>5.46155E-18</v>
+        <v>5.1125100000000001E-18</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>-4.0727512698412692E-18</v>
+        <v>-4.5702325396825386E-18</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="0"/>
-        <v>-4.2959374164913161E-18</v>
+        <v>-4.6864870080859428E-18</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -6480,15 +7756,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>5.5576900000000004E-18</v>
+        <v>5.0122900000000002E-18</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>-3.9766112698412689E-18</v>
+        <v>-4.6704525396825385E-18</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
-        <v>-4.4316092547162065E-18</v>
+        <v>-4.8344929601194323E-18</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -6496,15 +7772,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>5.4957399999999997E-18</v>
+        <v>4.9224000000000001E-18</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
-        <v>-4.0385612698412695E-18</v>
+        <v>-4.7603425396825386E-18</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="0"/>
-        <v>-4.5566049580833596E-18</v>
+        <v>-4.9708521951604237E-18</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -6512,15 +7788,15 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>5.2773700000000001E-18</v>
+        <v>4.8460600000000002E-18</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>-4.2569312698412691E-18</v>
+        <v>-4.8366825396825384E-18</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="0"/>
-        <v>-4.6706234009950333E-18</v>
+        <v>-5.0952362118680439E-18</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -6528,15 +7804,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>5.1180200000000003E-18</v>
+        <v>4.7812700000000001E-18</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
-        <v>-4.4162812698412689E-18</v>
+        <v>-4.9014725396825385E-18</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="0"/>
-        <v>-4.773389903035416E-18</v>
+        <v>-5.2073453582512905E-18</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -6544,15 +7820,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>5.02532E-18</v>
+        <v>4.72019E-18</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
-        <v>-4.5089812698412692E-18</v>
+        <v>-4.9625525396825387E-18</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="0"/>
-        <v>-4.8646568906998104E-18</v>
+        <v>-5.3069095535569253E-18</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -6560,15 +7836,15 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4.9526300000000001E-18</v>
+        <v>4.6725100000000001E-18</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>-4.5816712698412691E-18</v>
+        <v>-5.0102325396825385E-18</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="0"/>
-        <v>-4.9442044938208899E-18</v>
+        <v>-5.3936889389176635E-18</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -6576,15 +7852,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4.8070899999999999E-18</v>
+        <v>4.6281E-18</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>-4.7272112698412693E-18</v>
+        <v>-5.0546425396825386E-18</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>-5.011841075255187E-18</v>
+        <v>-5.4674744551931949E-18</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -6592,15 +7868,15 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4.7219799999999997E-18</v>
+        <v>4.5871999999999998E-18</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>-4.8123212698412695E-18</v>
+        <v>-5.0955425396825389E-18</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>-5.0674036925537636E-18</v>
+        <v>-5.5280883466119628E-18</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -6608,15 +7884,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4.6309299999999997E-18</v>
+        <v>4.56847E-18</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>-4.9033712698412695E-18</v>
+        <v>-5.1142725396825386E-18</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="0"/>
-        <v>-5.1107584905048357E-18</v>
+        <v>-5.5753845890003908E-18</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -6624,15 +7900,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4.4950400000000001E-18</v>
+        <v>4.5392400000000002E-18</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>-5.0392612698412691E-18</v>
+        <v>-5.1435025396825385E-18</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="0"/>
-        <v>-5.1418010236027069E-18</v>
+        <v>-5.6092492415679024E-18</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -6640,25 +7916,85 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4.3592399999999996E-18</v>
+        <v>4.5278200000000001E-18</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1750612698412696E-18</v>
+        <v>-5.1549225396825385E-18</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="0"/>
-        <v>-5.1604565076661411E-18</v>
+        <v>-5.6296007214002705E-18</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
         <f>AVERAGE(B1:B64)</f>
-        <v>9.5343012698412692E-18</v>
+        <v>9.6827425396825387E-18</v>
       </c>
       <c r="E66" s="1">
         <f>(C2-C64)/2</f>
-        <v>5.1666800000000009E-18</v>
+        <v>5.636389999999999E-18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6673,7 +8009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F9E9FA-4D2C-494A-B466-BD644580AA12}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -6690,7 +8028,7 @@
       </c>
       <c r="D1" s="1">
         <f>1/SQRT(1+3*SIN(B1)^2)*$C$66</f>
-        <v>3.3424999999999996E-17</v>
+        <v>3.38886E-17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6702,11 +8040,11 @@
         <v>4.9087385212340517E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>3.2558599999999999E-17</v>
+        <v>3.3901800000000002E-17</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D64" si="1">1/SQRT(1+3*SIN(B2)^2)*$C$66</f>
-        <v>3.3304937129169904E-17</v>
+        <v>3.3766871874213537E-17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -6718,11 +8056,11 @@
         <v>9.8174770424681035E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>3.1337899999999997E-17</v>
+        <v>3.4287100000000003E-17</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>3.2953479514219738E-17</v>
+        <v>3.3410539592089367E-17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -6734,11 +8072,11 @@
         <v>0.14726215563702155</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0020700000000002E-17</v>
+        <v>3.4005399999999999E-17</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>3.2395174782892765E-17</v>
+        <v>3.2844491253479129E-17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -6750,11 +8088,11 @@
         <v>0.19634954084936207</v>
       </c>
       <c r="C5" s="1">
-        <v>2.9007999999999998E-17</v>
+        <v>3.3858200000000001E-17</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>3.1666028627684626E-17</v>
+        <v>3.2105231944716631E-17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -6766,11 +8104,11 @@
         <v>0.24543692606170259</v>
       </c>
       <c r="C6" s="1">
-        <v>2.83638E-17</v>
+        <v>3.3014100000000001E-17</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>3.080785037984908E-17</v>
+        <v>3.1235150886538631E-17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -6782,11 +8120,11 @@
         <v>0.2945243112740431</v>
       </c>
       <c r="C7" s="1">
-        <v>2.8007699999999999E-17</v>
+        <v>3.2152200000000001E-17</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>2.9862853891936301E-17</v>
+        <v>3.0277047431631192E-17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -6798,11 +8136,11 @@
         <v>0.34361169648638362</v>
       </c>
       <c r="C8" s="1">
-        <v>2.7727100000000001E-17</v>
+        <v>3.1341799999999998E-17</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>2.8869585388806363E-17</v>
+        <v>2.9270002435515433E-17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -6814,11 +8152,11 @@
         <v>0.39269908169872414</v>
       </c>
       <c r="C9" s="1">
-        <v>2.7244799999999999E-17</v>
+        <v>3.0204399999999999E-17</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>2.7860553770800108E-17</v>
+        <v>2.8246975692360111E-17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -6830,11 +8168,11 @@
         <v>0.44178646691106466</v>
       </c>
       <c r="C10" s="1">
-        <v>2.65675E-17</v>
+        <v>2.9132399999999998E-17</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>2.6861386255839956E-17</v>
+        <v>2.7233949865958356E-17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -6846,11 +8184,11 @@
         <v>0.49087385212340517</v>
       </c>
       <c r="C11" s="1">
-        <v>2.58944E-17</v>
+        <v>2.8758500000000003E-17</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>2.5891064676788236E-17</v>
+        <v>2.6250170064496813E-17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -6862,11 +8200,11 @@
         <v>0.53996123733574564</v>
       </c>
       <c r="C12" s="1">
-        <v>2.5278100000000001E-17</v>
+        <v>2.7845799999999997E-17</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>2.4962770817089221E-17</v>
+        <v>2.5309000900882867E-17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -6878,11 +8216,11 @@
         <v>0.58904862254808621</v>
       </c>
       <c r="C13" s="1">
-        <v>2.45991E-17</v>
+        <v>2.70081E-17</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>2.4084970013212034E-17</v>
+        <v>2.4419025124599475E-17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -6894,11 +8232,11 @@
         <v>0.63813600776042678</v>
       </c>
       <c r="C14" s="1">
-        <v>2.3792600000000001E-17</v>
+        <v>2.63362E-17</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>2.3262495165606844E-17</v>
+        <v>2.3585142667739242E-17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -6910,11 +8248,11 @@
         <v>0.68722339297276724</v>
       </c>
       <c r="C15" s="1">
-        <v>2.29813E-17</v>
+        <v>2.56026E-17</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>2.2497506574613613E-17</v>
+        <v>2.2809543793700854E-17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -6926,11 +8264,11 @@
         <v>0.73631077818510771</v>
       </c>
       <c r="C16" s="1">
-        <v>2.2323299999999999E-17</v>
+        <v>2.4917899999999999E-17</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>2.1790280712184292E-17</v>
+        <v>2.2092508809062937E-17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -6942,11 +8280,11 @@
         <v>0.78539816339744828</v>
       </c>
       <c r="C17" s="1">
-        <v>2.1922100000000001E-17</v>
+        <v>2.43123E-17</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>2.1139826158225614E-17</v>
+        <v>2.143303254287643E-17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -6958,11 +8296,11 @@
         <v>0.83448554860978885</v>
       </c>
       <c r="C18" s="1">
-        <v>2.1635599999999999E-17</v>
+        <v>2.3592500000000001E-17</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>2.054434673114123E-17</v>
+        <v>2.082929390076149E-17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -6974,11 +8312,11 @@
         <v>0.88357293382212931</v>
       </c>
       <c r="C19" s="1">
-        <v>2.1140300000000001E-17</v>
+        <v>2.30978E-17</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>2.0001579375695181E-17</v>
+        <v>2.0278998439227641E-17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -6990,11 +8328,11 @@
         <v>0.93266031903446978</v>
       </c>
       <c r="C20" s="1">
-        <v>2.0553799999999999E-17</v>
+        <v>2.2749600000000001E-17</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>1.9509034308925836E-17</v>
+        <v>1.9779621842377389E-17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -7006,11 +8344,11 @@
         <v>0.98174770424681035</v>
       </c>
       <c r="C21" s="1">
-        <v>2.0135900000000001E-17</v>
+        <v>2.1953100000000001E-17</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>1.9064161475148888E-17</v>
+        <v>1.9328578685616474E-17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -7022,11 +8360,11 @@
         <v>1.0308350894591509</v>
       </c>
       <c r="C22" s="1">
-        <v>1.9710700000000001E-17</v>
+        <v>2.1742399999999999E-17</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>1.8664462879945381E-17</v>
+        <v>1.8923336327698345E-17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -7038,11 +8376,11 @@
         <v>1.0799224746714913</v>
       </c>
       <c r="C23" s="1">
-        <v>1.9252699999999999E-17</v>
+        <v>2.1304999999999999E-17</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>1.830756602526553E-17</v>
+        <v>1.8561489364362411E-17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -7054,11 +8392,11 @@
         <v>1.1290098598838318</v>
       </c>
       <c r="C24" s="1">
-        <v>1.88219E-17</v>
+        <v>2.13167E-17</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>1.7991269931743992E-17</v>
+        <v>1.8240806288972312E-17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -7070,11 +8408,11 @@
         <v>1.1780972450961724</v>
       </c>
       <c r="C25" s="1">
-        <v>1.8607399999999999E-17</v>
+        <v>2.1015000000000001E-17</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>1.771357222994084E-17</v>
+        <v>1.7959256959508547E-17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -7086,11 +8424,11 @@
         <v>1.227184630308513</v>
       </c>
       <c r="C26" s="1">
-        <v>1.8471999999999998E-17</v>
+        <v>2.0659999999999999E-17</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>1.7472683483506692E-17</v>
+        <v>1.7715027120393864E-17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -7102,11 +8440,11 @@
         <v>1.2762720155208536</v>
       </c>
       <c r="C27" s="1">
-        <v>1.8297100000000001E-17</v>
+        <v>2.0491499999999999E-17</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>1.726703316614088E-17</v>
+        <v>1.750652446235099E-17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -7118,11 +8456,11 @@
         <v>1.3253594007331939</v>
       </c>
       <c r="C28" s="1">
-        <v>1.81584E-17</v>
+        <v>2.04282E-17</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>1.7095270431667961E-17</v>
+        <v>1.7332379403159998E-17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -7134,11 +8472,11 @@
         <v>1.3744467859455345</v>
       </c>
       <c r="C29" s="1">
-        <v>1.8080900000000001E-17</v>
+        <v>2.01738E-17</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>1.6956261884863492E-17</v>
+        <v>1.7191442827565747E-17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -7150,11 +8488,11 @@
         <v>1.4235341711578751</v>
       </c>
       <c r="C30" s="1">
-        <v>1.7850200000000001E-17</v>
+        <v>2.01072E-17</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>1.684908789065763E-17</v>
+        <v>1.7082782345290657E-17</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -7166,11 +8504,11 @@
         <v>1.4726215563702154</v>
       </c>
       <c r="C31" s="1">
-        <v>1.7636100000000001E-17</v>
+        <v>2.0035099999999999E-17</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>1.6773038480811756E-17</v>
+        <v>1.7005678140937541E-17</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -7182,11 +8520,11 @@
         <v>1.521708941582556</v>
       </c>
       <c r="C32" s="1">
-        <v>1.7591500000000001E-17</v>
+        <v>1.9794199999999999E-17</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>1.67276095763196E-17</v>
+        <v>1.6959619143995944E-17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -7198,11 +8536,11 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="C33" s="1">
-        <v>1.7578300000000001E-17</v>
+        <v>1.9784699999999999E-17</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>1.6712499999999998E-17</v>
+        <v>1.69443E-17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -7214,11 +8552,11 @@
         <v>1.6198837120072371</v>
       </c>
       <c r="C34" s="1">
-        <v>1.76492E-17</v>
+        <v>1.9768500000000001E-17</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>1.67276095763196E-17</v>
+        <v>1.6959619143995944E-17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -7230,11 +8568,11 @@
         <v>1.6689710972195777</v>
       </c>
       <c r="C35" s="1">
-        <v>1.77623E-17</v>
+        <v>1.9807400000000001E-17</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>1.6773038480811756E-17</v>
+        <v>1.7005678140937541E-17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -7246,11 +8584,11 @@
         <v>1.7180584824319181</v>
       </c>
       <c r="C36" s="1">
-        <v>1.7878E-17</v>
+        <v>2.00378E-17</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>1.684908789065763E-17</v>
+        <v>1.7082782345290657E-17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -7262,11 +8600,11 @@
         <v>1.7671458676442586</v>
       </c>
       <c r="C37" s="1">
-        <v>1.7957299999999999E-17</v>
+        <v>2.01714E-17</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>1.6956261884863492E-17</v>
+        <v>1.7191442827565747E-17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -7278,11 +8616,11 @@
         <v>1.8162332528565992</v>
       </c>
       <c r="C38" s="1">
-        <v>1.7996500000000001E-17</v>
+        <v>2.0007799999999999E-17</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>1.7095270431667961E-17</v>
+        <v>1.7332379403159998E-17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -7294,11 +8632,11 @@
         <v>1.8653206380689396</v>
       </c>
       <c r="C39" s="1">
-        <v>1.8216400000000001E-17</v>
+        <v>2.04713E-17</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>1.726703316614088E-17</v>
+        <v>1.750652446235099E-17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -7310,11 +8648,11 @@
         <v>1.9144080232812801</v>
       </c>
       <c r="C40" s="1">
-        <v>1.8454999999999999E-17</v>
+        <v>2.0652299999999999E-17</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>1.7472683483506692E-17</v>
+        <v>1.7715027120393864E-17</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -7326,11 +8664,11 @@
         <v>1.9634954084936207</v>
       </c>
       <c r="C41" s="1">
-        <v>1.85613E-17</v>
+        <v>2.07472E-17</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
-        <v>1.771357222994084E-17</v>
+        <v>1.7959256959508547E-17</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -7342,11 +8680,11 @@
         <v>2.012582793705961</v>
       </c>
       <c r="C42" s="1">
-        <v>1.8796100000000001E-17</v>
+        <v>2.1116800000000002E-17</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>1.7991269931743992E-17</v>
+        <v>1.8240806288972312E-17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -7358,11 +8696,11 @@
         <v>2.0616701789183018</v>
       </c>
       <c r="C43" s="1">
-        <v>1.92109E-17</v>
+        <v>2.1406099999999999E-17</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>1.8307566025265527E-17</v>
+        <v>1.8561489364362408E-17</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -7374,11 +8712,11 @@
         <v>2.1107575641306422</v>
       </c>
       <c r="C44" s="1">
-        <v>1.9699200000000001E-17</v>
+        <v>2.1576999999999999E-17</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>1.8664462879945381E-17</v>
+        <v>1.8923336327698345E-17</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -7390,11 +8728,11 @@
         <v>2.1598449493429825</v>
       </c>
       <c r="C45" s="1">
-        <v>2.0125100000000001E-17</v>
+        <v>2.21709E-17</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
-        <v>1.9064161475148885E-17</v>
+        <v>1.9328578685616471E-17</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -7406,11 +8744,11 @@
         <v>2.2089323345553233</v>
       </c>
       <c r="C46" s="1">
-        <v>2.0573499999999999E-17</v>
+        <v>2.27164E-17</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>1.9509034308925833E-17</v>
+        <v>1.9779621842377386E-17</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -7422,11 +8760,11 @@
         <v>2.2580197197676637</v>
       </c>
       <c r="C47" s="1">
-        <v>2.10656E-17</v>
+        <v>2.3043300000000001E-17</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
-        <v>2.0001579375695181E-17</v>
+        <v>2.0278998439227641E-17</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -7438,11 +8776,11 @@
         <v>2.3071071049800045</v>
       </c>
       <c r="C48" s="1">
-        <v>2.1609400000000002E-17</v>
+        <v>2.3948300000000001E-17</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>2.0544346731141233E-17</v>
+        <v>2.0829293900761493E-17</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -7454,11 +8792,11 @@
         <v>2.3561944901923448</v>
       </c>
       <c r="C49" s="1">
-        <v>2.2049200000000001E-17</v>
+        <v>2.4244600000000001E-17</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
-        <v>2.1139826158225614E-17</v>
+        <v>2.143303254287643E-17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -7470,11 +8808,11 @@
         <v>2.4052818754046852</v>
       </c>
       <c r="C50" s="1">
-        <v>2.2468100000000001E-17</v>
+        <v>2.4743799999999999E-17</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
-        <v>2.1790280712184289E-17</v>
+        <v>2.2092508809062934E-17</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -7486,11 +8824,11 @@
         <v>2.454369260617026</v>
       </c>
       <c r="C51" s="1">
-        <v>2.3052299999999999E-17</v>
+        <v>2.5595800000000001E-17</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>2.2497506574613613E-17</v>
+        <v>2.2809543793700854E-17</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -7502,11 +8840,11 @@
         <v>2.5034566458293663</v>
       </c>
       <c r="C52" s="1">
-        <v>2.3733500000000001E-17</v>
+        <v>2.60547E-17</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>2.3262495165606838E-17</v>
+        <v>2.3585142667739239E-17</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -7518,11 +8856,11 @@
         <v>2.5525440310417071</v>
       </c>
       <c r="C53" s="1">
-        <v>2.43226E-17</v>
+        <v>2.6914399999999999E-17</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="1"/>
-        <v>2.4084970013212034E-17</v>
+        <v>2.4419025124599475E-17</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -7534,11 +8872,11 @@
         <v>2.6016314162540475</v>
       </c>
       <c r="C54" s="1">
-        <v>2.4790199999999999E-17</v>
+        <v>2.7818299999999999E-17</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="1"/>
-        <v>2.4962770817089221E-17</v>
+        <v>2.5309000900882867E-17</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -7550,11 +8888,11 @@
         <v>2.6507188014663878</v>
       </c>
       <c r="C55" s="1">
-        <v>2.5462500000000001E-17</v>
+        <v>2.8870499999999997E-17</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="1"/>
-        <v>2.5891064676788233E-17</v>
+        <v>2.6250170064496807E-17</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -7566,11 +8904,11 @@
         <v>2.6998061866787286</v>
       </c>
       <c r="C56" s="1">
-        <v>2.6238799999999999E-17</v>
+        <v>2.9211499999999999E-17</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="1"/>
-        <v>2.6861386255839956E-17</v>
+        <v>2.7233949865958356E-17</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -7582,11 +8920,11 @@
         <v>2.748893571891069</v>
       </c>
       <c r="C57" s="1">
-        <v>2.6959499999999999E-17</v>
+        <v>2.9691899999999998E-17</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="1"/>
-        <v>2.7860553770800108E-17</v>
+        <v>2.8246975692360104E-17</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -7598,11 +8936,11 @@
         <v>2.7979809571034093</v>
       </c>
       <c r="C58" s="1">
-        <v>2.76221E-17</v>
+        <v>3.0627000000000002E-17</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
-        <v>2.8869585388806357E-17</v>
+        <v>2.9270002435515433E-17</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -7614,11 +8952,11 @@
         <v>2.8470683423157501</v>
       </c>
       <c r="C59" s="1">
-        <v>2.8155600000000001E-17</v>
+        <v>3.1949499999999998E-17</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
-        <v>2.9862853891936301E-17</v>
+        <v>3.0277047431631192E-17</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -7630,11 +8968,11 @@
         <v>2.8961557275280905</v>
       </c>
       <c r="C60" s="1">
-        <v>2.8763899999999998E-17</v>
+        <v>3.2651399999999999E-17</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
-        <v>3.0807850379849074E-17</v>
+        <v>3.1235150886538625E-17</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -7646,11 +8984,11 @@
         <v>2.9452431127404308</v>
       </c>
       <c r="C61" s="1">
-        <v>2.9701899999999998E-17</v>
+        <v>3.2767500000000001E-17</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
-        <v>3.1666028627684619E-17</v>
+        <v>3.2105231944716625E-17</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -7662,11 +9000,11 @@
         <v>2.9943304979527716</v>
       </c>
       <c r="C62" s="1">
-        <v>3.1052900000000002E-17</v>
+        <v>3.3378499999999998E-17</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
-        <v>3.2395174782892765E-17</v>
+        <v>3.2844491253479129E-17</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -7678,11 +9016,11 @@
         <v>3.043417883165112</v>
       </c>
       <c r="C63" s="1">
-        <v>3.2710400000000001E-17</v>
+        <v>3.3875399999999998E-17</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
-        <v>3.2953479514219738E-17</v>
+        <v>3.3410539592089367E-17</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -7694,23 +9032,24 @@
         <v>3.0925052683774528</v>
       </c>
       <c r="C64" s="1">
-        <v>3.4291399999999999E-17</v>
+        <v>3.3830300000000001E-17</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
-        <v>3.3304937129169904E-17</v>
+        <v>3.3766871874213537E-17</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C66" s="1">
-        <f>(C2+C64)/2</f>
-        <v>3.3424999999999996E-17</v>
+        <f>(C2+C63)/2</f>
+        <v>3.38886E-17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7718,8 +9057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A438852-BB01-4038-879D-F9004F28792F}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7736,8 +9075,8 @@
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <f>1/(5-4*COS(B1))*$C$2*1.15</f>
-        <v>3.5601699999999998E-17</v>
+        <f>1/(5-4*COS(B1))*$C$2</f>
+        <v>3.4639399999999998E-17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -7749,11 +9088,11 @@
         <v>4.9087385212340517E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>3.0957999999999998E-17</v>
+        <v>3.4639399999999998E-17</v>
       </c>
       <c r="D2" s="1">
-        <f>1/(5-4*COS(B2))*$C$2*1.15</f>
-        <v>3.5430987296429875E-17</v>
+        <f t="shared" ref="D2:D64" si="1">1/(5-4*COS(B2))*$C$2</f>
+        <v>3.4473301593911331E-17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -7765,11 +9104,11 @@
         <v>9.8174770424681035E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>3.0833399999999998E-17</v>
+        <v>3.83774E-17</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D64" si="1">1/(5-4*COS(B3))*$C$2*1.15</f>
-        <v>3.4928930608292804E-17</v>
+        <f t="shared" si="1"/>
+        <v>3.3984815301317017E-17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -7781,11 +9120,11 @@
         <v>0.14726215563702155</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0379200000000002E-17</v>
+        <v>3.7644899999999999E-17</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>3.4124322923514958E-17</v>
+        <v>3.3201955846962478E-17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -7797,11 +9136,11 @@
         <v>0.19634954084936207</v>
       </c>
       <c r="C5" s="1">
-        <v>2.99173E-17</v>
+        <v>3.3831500000000001E-17</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>3.3060692273182824E-17</v>
+        <v>3.2167074716310991E-17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -7813,11 +9152,11 @@
         <v>0.24543692606170259</v>
       </c>
       <c r="C6" s="1">
-        <v>2.9225800000000001E-17</v>
+        <v>3.2879999999999998E-17</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>3.1790780583751026E-17</v>
+        <v>3.0931488242212745E-17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -7829,11 +9168,11 @@
         <v>0.2945243112740431</v>
       </c>
       <c r="C7" s="1">
-        <v>2.8255100000000003E-17</v>
+        <v>3.3443000000000003E-17</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>3.0370692678699705E-17</v>
+        <v>2.9549784756754613E-17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -7845,11 +9184,11 @@
         <v>0.34361169648638362</v>
       </c>
       <c r="C8" s="1">
-        <v>2.7291199999999999E-17</v>
+        <v>3.1834500000000001E-17</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>2.8854769824030204E-17</v>
+        <v>2.8074836702812283E-17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -7861,11 +9200,11 @@
         <v>0.39269908169872414</v>
       </c>
       <c r="C9" s="1">
-        <v>2.6371300000000001E-17</v>
+        <v>2.9503200000000002E-17</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>2.729183196791546E-17</v>
+        <v>2.6554144444490314E-17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -7877,11 +9216,11 @@
         <v>0.44178646691106466</v>
       </c>
       <c r="C10" s="1">
-        <v>2.5416799999999999E-17</v>
+        <v>2.8326299999999997E-17</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>2.5722975685764916E-17</v>
+        <v>2.5027693732869084E-17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -7893,11 +9232,11 @@
         <v>0.49087385212340517</v>
       </c>
       <c r="C11" s="1">
-        <v>2.4193199999999999E-17</v>
+        <v>2.6913699999999999E-17</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>2.4180763890754859E-17</v>
+        <v>2.3527167318341929E-17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -7909,11 +9248,11 @@
         <v>0.53996123733574564</v>
       </c>
       <c r="C12" s="1">
-        <v>2.2953600000000001E-17</v>
+        <v>2.5160699999999999E-17</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>2.2689457418768605E-17</v>
+        <v>2.2076170275905176E-17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -7925,11 +9264,11 @@
         <v>0.58904862254808621</v>
       </c>
       <c r="C13" s="1">
-        <v>2.1764699999999999E-17</v>
+        <v>2.3604600000000001E-17</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>2.126589911180809E-17</v>
+        <v>2.0691090192141533E-17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7941,11 +9280,11 @@
         <v>0.63813600776042678</v>
       </c>
       <c r="C14" s="1">
-        <v>2.05406E-17</v>
+        <v>2.2068499999999999E-17</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>1.9920714038657597E-17</v>
+        <v>1.9382264944389619E-17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -7957,11 +9296,11 @@
         <v>0.68722339297276724</v>
       </c>
       <c r="C15" s="1">
-        <v>1.9410000000000001E-17</v>
+        <v>2.0596999999999999E-17</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>1.8659580828861477E-17</v>
+        <v>1.8155219671062456E-17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -7973,11 +9312,11 @@
         <v>0.73631077818510771</v>
       </c>
       <c r="C16" s="1">
-        <v>1.8319499999999999E-17</v>
+        <v>1.9150800000000001E-17</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>1.7484421326353494E-17</v>
+        <v>1.7011824269405371E-17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -7989,11 +9328,11 @@
         <v>0.78539816339744828</v>
       </c>
       <c r="C17" s="1">
-        <v>1.7219199999999998E-17</v>
+        <v>1.7795600000000001E-17</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>1.6394430233357434E-17</v>
+        <v>1.595129520852548E-17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -8005,11 +9344,11 @@
         <v>0.83448554860978885</v>
       </c>
       <c r="C18" s="1">
-        <v>1.6209399999999999E-17</v>
+        <v>1.65317E-17</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>1.538691812170086E-17</v>
+        <v>1.4971015754439951E-17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -8021,11 +9360,11 @@
         <v>0.88357293382212931</v>
       </c>
       <c r="C19" s="1">
-        <v>1.5254400000000001E-17</v>
+        <v>1.53464E-17</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>1.4457972551368302E-17</v>
+        <v>1.4067179218853793E-17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -8037,11 +9376,11 @@
         <v>0.93266031903446978</v>
       </c>
       <c r="C20" s="1">
-        <v>1.43401E-17</v>
+        <v>1.42195E-17</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>1.3602958182851377E-17</v>
+        <v>1.3235275553669124E-17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -8053,11 +9392,11 @@
         <v>0.98174770424681035</v>
       </c>
       <c r="C21" s="1">
-        <v>1.35596E-17</v>
+        <v>1.31807E-17</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>1.2816882891846483E-17</v>
+        <v>1.2470447569746026E-17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -8069,11 +9408,11 @@
         <v>1.0308350894591509</v>
       </c>
       <c r="C22" s="1">
-        <v>1.2888899999999999E-17</v>
+        <v>1.22122E-17</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>1.2094657141019356E-17</v>
+        <v>1.1767743297949983E-17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -8085,11 +9424,11 @@
         <v>1.0799224746714913</v>
       </c>
       <c r="C23" s="1">
-        <v>1.2247200000000001E-17</v>
+        <v>1.1292899999999999E-17</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>1.1431271124805103E-17</v>
+        <v>1.1122288345797361E-17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -8101,11 +9440,11 @@
         <v>1.1290098598838318</v>
       </c>
       <c r="C24" s="1">
-        <v>1.15428E-17</v>
+        <v>1.04544E-17</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>1.0821910293203961E-17</v>
+        <v>1.0529398298688246E-17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -8117,11 +9456,11 @@
         <v>1.1780972450961724</v>
       </c>
       <c r="C25" s="1">
-        <v>1.09348E-17</v>
+        <v>9.7247700000000001E-18</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>1.0262025807105947E-17</v>
+        <v>9.9846472708512736E-18</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -8133,11 +9472,11 @@
         <v>1.227184630308513</v>
       </c>
       <c r="C26" s="1">
-        <v>1.04229E-17</v>
+        <v>9.0911399999999998E-18</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>9.7473727929376668E-18</v>
+        <v>9.4839051259823283E-18</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -8149,11 +9488,11 @@
         <v>1.2762720155208536</v>
       </c>
       <c r="C27" s="1">
-        <v>9.8808399999999996E-18</v>
+        <v>8.5704799999999997E-18</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>9.2740261503148768E-18</v>
+        <v>9.023352857622451E-18</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -8165,11 +9504,11 @@
         <v>1.3253594007331939</v>
       </c>
       <c r="C28" s="1">
-        <v>9.3866100000000003E-18</v>
+        <v>8.1273900000000006E-18</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>8.83838115435008E-18</v>
+        <v>8.5994831751852904E-18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -8181,11 +9520,11 @@
         <v>1.3744467859455345</v>
       </c>
       <c r="C29" s="1">
-        <v>8.9829699999999999E-18</v>
+        <v>7.7491400000000004E-18</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>8.4371441325766999E-18</v>
+        <v>8.2090914328803793E-18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -8197,11 +9536,11 @@
         <v>1.4235341711578751</v>
       </c>
       <c r="C30" s="1">
-        <v>8.6103400000000001E-18</v>
+        <v>7.4200700000000003E-18</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>8.0673170008989667E-18</v>
+        <v>7.8492605836502114E-18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -8213,11 +9552,11 @@
         <v>1.4726215563702154</v>
       </c>
       <c r="C31" s="1">
-        <v>8.1885700000000005E-18</v>
+        <v>7.1398599999999995E-18</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>7.7261783239954148E-18</v>
+        <v>7.5173427515036301E-18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -8229,11 +9568,11 @@
         <v>1.521708941582556</v>
       </c>
       <c r="C32" s="1">
-        <v>7.8370499999999994E-18</v>
+        <v>6.8908400000000001E-18</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>7.4112627412334143E-18</v>
+        <v>7.2109392135398246E-18</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -8245,11 +9584,11 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="C33" s="1">
-        <v>7.57625E-18</v>
+        <v>6.6691600000000002E-18</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>7.1203399999999995E-18</v>
+        <v>6.9278799999999997E-18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -8261,11 +9600,11 @@
         <v>1.6198837120072371</v>
       </c>
       <c r="C34" s="1">
-        <v>7.2504200000000006E-18</v>
+        <v>6.4787999999999998E-18</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>6.8513944083845533E-18</v>
+        <v>6.6662039023360097E-18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -8277,11 +9616,11 @@
         <v>1.6689710972195777</v>
       </c>
       <c r="C35" s="1">
-        <v>6.9666300000000003E-18</v>
+        <v>6.3129599999999997E-18</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>6.602605214518296E-18</v>
+        <v>6.4241393828886E-18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -8293,11 +9632,11 @@
         <v>1.7180584824319181</v>
       </c>
       <c r="C36" s="1">
-        <v>6.77318E-18</v>
+        <v>6.1686599999999997E-18</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>6.3723282070369473E-18</v>
+        <v>6.2000866726823619E-18</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -8309,11 +9648,11 @@
         <v>1.7671458676442586</v>
       </c>
       <c r="C37" s="1">
-        <v>6.5199600000000002E-18</v>
+        <v>6.0393200000000002E-18</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>6.1590786848413093E-18</v>
+        <v>5.9926012015070082E-18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -8325,11 +9664,11 @@
         <v>1.8162332528565992</v>
       </c>
       <c r="C38" s="1">
-        <v>6.22647E-18</v>
+        <v>5.9254800000000003E-18</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>5.9615158458277003E-18</v>
+        <v>5.8003784086143099E-18</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -8341,11 +9680,11 @@
         <v>1.8653206380689396</v>
       </c>
       <c r="C39" s="1">
-        <v>6.0507700000000002E-18</v>
+        <v>5.8167200000000003E-18</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>5.7784285797511758E-18</v>
+        <v>5.6222399195946509E-18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -8357,11 +9696,11 @@
         <v>1.9144080232812801</v>
       </c>
       <c r="C40" s="1">
-        <v>5.9336400000000003E-18</v>
+        <v>5.7242699999999997E-18</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>5.6087226098106165E-18</v>
+        <v>5.4571210355200421E-18</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -8373,11 +9712,11 @@
         <v>1.9634954084936207</v>
       </c>
       <c r="C41" s="1">
-        <v>5.7323699999999996E-18</v>
+        <v>5.6432699999999999E-18</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
-        <v>5.4514089036274027E-18</v>
+        <v>5.3040594571694911E-18</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -8389,11 +9728,11 @@
         <v>2.012582793705961</v>
       </c>
       <c r="C42" s="1">
-        <v>5.5251699999999997E-18</v>
+        <v>5.5679900000000002E-18</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>5.3055932617988234E-18</v>
+        <v>5.1621851549997376E-18</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -8405,11 +9744,11 @@
         <v>2.0616701789183018</v>
       </c>
       <c r="C43" s="1">
-        <v>5.4186599999999998E-18</v>
+        <v>5.4996400000000001E-18</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>5.1704669874134148E-18</v>
+        <v>5.0307112908599373E-18</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -8421,11 +9760,11 @@
         <v>2.1107575641306422</v>
       </c>
       <c r="C44" s="1">
-        <v>5.3432799999999997E-18</v>
+        <v>5.4331500000000002E-18</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>5.0452985401768296E-18</v>
+        <v>4.9089260977032355E-18</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -8437,11 +9776,11 @@
         <v>2.1598449493429825</v>
       </c>
       <c r="C45" s="1">
-        <v>5.17689E-18</v>
+        <v>5.3758499999999998E-18</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
-        <v>4.9294260822605029E-18</v>
+        <v>4.7961856269182218E-18</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -8453,11 +9792,11 @@
         <v>2.2089323345553233</v>
       </c>
       <c r="C46" s="1">
-        <v>4.9731699999999999E-18</v>
+        <v>5.3246000000000002E-18</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>4.8222508283642728E-18</v>
+        <v>4.6919072781367576E-18</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -8469,11 +9808,11 @@
         <v>2.2580197197676637</v>
       </c>
       <c r="C47" s="1">
-        <v>4.8487600000000002E-18</v>
+        <v>5.2814199999999997E-18</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
-        <v>4.7232311188958067E-18</v>
+        <v>4.5955640326130331E-18</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -8485,11 +9824,11 @@
         <v>2.3071071049800045</v>
       </c>
       <c r="C48" s="1">
-        <v>4.7816500000000003E-18</v>
+        <v>5.2411400000000003E-18</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>4.6318771420201314E-18</v>
+        <v>4.5066793179340355E-18</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -8501,11 +9840,11 @@
         <v>2.3561944901923448</v>
       </c>
       <c r="C49" s="1">
-        <v>4.6726099999999998E-18</v>
+        <v>5.2018600000000003E-18</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
-        <v>4.5477462372307973E-18</v>
+        <v>4.4248224385333422E-18</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -8517,11 +9856,11 @@
         <v>2.4052818754046852</v>
       </c>
       <c r="C50" s="1">
-        <v>4.5401699999999999E-18</v>
+        <v>5.1664700000000002E-18</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
-        <v>4.4704387197918671E-18</v>
+        <v>4.3496045129968067E-18</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -8533,11 +9872,11 @@
         <v>2.454369260617026</v>
       </c>
       <c r="C51" s="1">
-        <v>4.4644500000000002E-18</v>
+        <v>5.1325499999999997E-18</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>4.3995941717480113E-18</v>
+        <v>4.2806748653251969E-18</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -8549,11 +9888,11 @@
         <v>2.5034566458293663</v>
       </c>
       <c r="C52" s="1">
-        <v>4.4395800000000004E-18</v>
+        <v>5.1042600000000001E-18</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>4.3348881511171791E-18</v>
+        <v>4.2177178230761004E-18</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -8565,11 +9904,11 @@
         <v>2.5525440310417071</v>
       </c>
       <c r="C53" s="1">
-        <v>4.4336800000000003E-18</v>
+        <v>5.0759000000000001E-18</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="1"/>
-        <v>4.27602927633147E-18</v>
+        <v>4.1604498806112161E-18</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -8581,11 +9920,11 @@
         <v>2.6016314162540475</v>
       </c>
       <c r="C54" s="1">
-        <v>4.38361E-18</v>
+        <v>5.053E-18</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="1"/>
-        <v>4.2227566479722684E-18</v>
+        <v>4.1086171905209758E-18</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -8597,11 +9936,11 @@
         <v>2.6507188014663878</v>
       </c>
       <c r="C55" s="1">
-        <v>4.3164700000000001E-18</v>
+        <v>5.0269700000000003E-18</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="1"/>
-        <v>4.1748375743700418E-18</v>
+        <v>4.0619933507004899E-18</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -8613,11 +9952,11 @@
         <v>2.6998061866787286</v>
       </c>
       <c r="C56" s="1">
-        <v>4.23569E-18</v>
+        <v>5.0125000000000001E-18</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="1"/>
-        <v>4.1320655717344475E-18</v>
+        <v>4.0203774585353569E-18</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -8629,11 +9968,11 @@
         <v>2.748893571891069</v>
       </c>
       <c r="C57" s="1">
-        <v>4.1746999999999998E-18</v>
+        <v>4.9944699999999999E-18</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="1"/>
-        <v>4.0942586131799773E-18</v>
+        <v>3.9835924072554545E-18</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -8645,11 +9984,11 @@
         <v>2.7979809571034093</v>
       </c>
       <c r="C58" s="1">
-        <v>4.1687699999999997E-18</v>
+        <v>4.9859700000000003E-18</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
-        <v>4.0612576043533509E-18</v>
+        <v>3.9514834027655276E-18</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -8661,11 +10000,11 @@
         <v>2.8470683423157501</v>
       </c>
       <c r="C59" s="1">
-        <v>4.1580599999999997E-18</v>
+        <v>4.97886E-18</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
-        <v>4.0329250663892808E-18</v>
+        <v>3.9239166822001441E-18</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -8677,11 +10016,11 @@
         <v>2.8961557275280905</v>
       </c>
       <c r="C60" s="1">
-        <v>4.1440100000000002E-18</v>
+        <v>4.9674000000000002E-18</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
-        <v>4.0091440096586979E-18</v>
+        <v>3.9007784181140654E-18</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -8693,11 +10032,11 @@
         <v>2.9452431127404308</v>
       </c>
       <c r="C61" s="1">
-        <v>4.1312200000000003E-18</v>
+        <v>4.95486E-18</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
-        <v>3.9898169842644747E-18</v>
+        <v>3.8819737946426963E-18</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -8709,11 +10048,11 @@
         <v>2.9943304979527716</v>
       </c>
       <c r="C62" s="1">
-        <v>4.0715600000000002E-18</v>
+        <v>4.9441400000000003E-18</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
-        <v>3.9748652955188373E-18</v>
+        <v>3.8674262441848346E-18</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -8725,11 +10064,11 @@
         <v>3.043417883165112</v>
       </c>
       <c r="C63" s="1">
-        <v>4.0255899999999999E-18</v>
+        <v>4.9447799999999998E-18</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
-        <v>3.9642283747369741E-18</v>
+        <v>3.8570768352034861E-18</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -8741,17 +10080,1077 @@
         <v>3.0925052683774528</v>
       </c>
       <c r="C64" s="1">
-        <v>3.9776000000000003E-18</v>
+        <v>4.9470899999999999E-18</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
-        <v>3.9578632976337505E-18</v>
+        <v>3.8508838036401225E-18</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C66" s="1">
         <f>(C2+C64)/2</f>
-        <v>1.7467799999999999E-17</v>
+        <v>1.9793244999999998E-17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C2417-B0D5-432A-818E-FCEA0859508F}">
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>A1/64*PI()</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <f>9/(17-8*COS(B1))*$C$68+$C$69</f>
+        <v>1.73842E-17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B64" si="0">A2/64*PI()</f>
+        <v>4.9087385212340517E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.73842E-17</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D64" si="1">9/(17-8*COS(B2))*$C$68+$C$69</f>
+        <v>1.7363746328326132E-17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>9.8174770424681035E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.7462799999999999E-17</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7302695898662769E-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.14726215563702155</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.7330499999999999E-17</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7201968925333668E-17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.19634954084936207</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.72601E-17</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7063061420854349E-17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.24543692606170259</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.7189499999999999E-17</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6887991372647425E-17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.2945243112740431</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.6958799999999999E-17</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6679228478778716E-17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.34361169648638362</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.6669599999999999E-17</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6439611880502796E-17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.6366800000000001E-17</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6172260780002594E-17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.44178646691106466</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.6088499999999999E-17</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5880482840155086E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.49087385212340517</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.58567E-17</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.556768487786694E-17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.53996123733574564</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.5573099999999999E-17</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5237289672687627E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.58904862254808621</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.52574E-17</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4892661829242433E-17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.63813600776042678</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.4885700000000001E-17</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4537044669771624E-17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.68722339297276724</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.4515E-17</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4173509193205122E-17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.73631077818510771</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.4159900000000001E-17</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3804915298084923E-17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.3828600000000001E-17</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3433884778914367E-17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.83448554860978885</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.34448E-17</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3062785092691789E-17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.88357293382212931</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.3063000000000001E-17</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.269372255507994E-17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.93266031903446978</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.2684500000000001E-17</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2328543447657039E-17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.98174770424681035</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.23144E-17</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1968841472462046E-17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.0308350894591509</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.1986900000000001E-17</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1615970046570254E-17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.0799224746714913</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.16398E-17</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1271058056749988E-17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.1290098598838318</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.13268E-17</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0935027864509714E-17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.10483E-17</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0608614542010816E-17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.227184630308513</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.0718899999999999E-17</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0292385511766871E-17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.2762720155208536</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.0389300000000001E-17</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9867599453725234E-18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.3253594007331939</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.0081000000000001E-17</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6920274408730372E-18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.3744467859455345</v>
+      </c>
+      <c r="C29" s="1">
+        <v>9.7744300000000002E-18</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4083656406687389E-18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.4235341711578751</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9.4824699999999994E-18</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1358565707015166E-18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1.4726215563702154</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9.2110099999999995E-18</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8745015776939646E-18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.521708941582556</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8.9367699999999993E-18</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6242348162421573E-18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8.6917400000000003E-18</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3849352941176479E-18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1.6198837120072371</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8.4471999999999992E-18</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1564375249992349E-18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1.6689710972195777</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8.2167500000000006E-18</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>7.9385408658071963E-18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1.7180584824319181</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8.0008500000000001E-18</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7310176334386908E-18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>1.7671458676442586</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7.7739599999999999E-18</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5336201053042326E-18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1.8162332528565992</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7.5628300000000003E-18</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>7.346086511613508E-18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>1.8653206380689396</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7.3826599999999995E-18</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1681461264947293E-18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1.9144080232812801</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7.2089000000000002E-18</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9995235610832984E-18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1.9634954084936207</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7.0385599999999999E-18</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>6.839942355732218E-18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>2.012582793705961</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6.8980700000000003E-18</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6891279612869988E-18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>2.0616701789183018</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6.7641200000000003E-18</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5468101915403669E-18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2.1107575641306422</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6.63306E-18</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4127252209803189E-18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2.1598449493429825</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6.4878799999999997E-18</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2866171940831738E-18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2.2089323345553233</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6.3666499999999999E-18</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1682395048921571E-18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>2.2580197197676637</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6.2395200000000001E-18</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0573557985956062E-18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>2.3071071049800045</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6.13904E-18</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>5.953740740352127E-18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6.0401999999999996E-18</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8571805907354371E-18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>2.4052818754046852</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5.93E-18</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7674736218916649E-18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>2.454369260617026</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5.8332500000000001E-18</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6844304037979859E-18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>2.5034566458293663</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5.7445700000000002E-18</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6078739858520767E-18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>2.5525440310417071</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5.6632200000000003E-18</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5376399953667328E-18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>2.6016314162540475</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5.5798499999999996E-18</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4735766713496495E-18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>2.6507188014663878</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5.4981099999999998E-18</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4155448491688194E-18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>2.6998061866787286</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5.4355900000000001E-18</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3634179092950451E-18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>2.748893571891069</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5.3764399999999999E-18</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3170817012311336E-18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>2.7979809571034093</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5.3211600000000001E-18</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="1"/>
+        <v>5.276434451942418E-18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>2.8470683423157501</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5.2676799999999998E-18</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2413866665573091E-18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>2.8961557275280905</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5.23421E-18</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2118610277755796E-18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>2.9452431127404308</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5.2125100000000003E-18</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1877922992740862E-18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>2.9943304979527716</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5.18784E-18</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1691272374063925E-18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>3.043417883165112</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5.1641099999999999E-18</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1558245146280283E-18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>3.0925052683774528</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5.1452000000000002E-18</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1478546573192016E-18</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C66" s="1">
+        <f>(C2+C64)/2</f>
+        <v>1.12647E-17</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C68" s="1">
+        <f>(C2-C64)/(16/25)</f>
+        <v>1.91234375E-17</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C69" s="1">
+        <f>C2-C68*1</f>
+        <v>-1.7392375000000001E-18</v>
       </c>
     </row>
   </sheetData>

--- a/verification/Verify.xlsx
+++ b/verification/Verify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ChargeDistribution\verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92889F81-ABE5-44E4-9459-6BF94A1CB62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514BF44F-C2C2-4A5B-8519-593AAA6721ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" firstSheet="1" activeTab="2" xr2:uid="{9E2554C6-F1FA-4E84-AA2F-1B670389EA7A}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="5" xr2:uid="{9E2554C6-F1FA-4E84-AA2F-1B670389EA7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3 (2)" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3 (3)" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3277,6 +3278,666 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>动态刻调整曲线</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$A$1:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79855541800165908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79423558412096917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78708210071966267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77716385975338609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7645763793045065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74944088369076356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73190313600882106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71213203435596428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6903179852490936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66667106990588065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64141902104779935</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61480502970952688</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.58708540317633873</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55852709660483846</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52940514209886824</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47059485790113181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44147290339516154</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41291459682366138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38519497029047312</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3585809789522007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.33332893009411946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3096820147509064</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28786796564403577</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26809686399117894</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25055911630923644</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23542362069549355</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.22283614024661397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.21291789928033739</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20576441587903088</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20144458199834098</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD8D-4DF7-90DA-D7DA85BA08B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2065020799"/>
+        <c:axId val="37284687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2065020799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>模拟总时间</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37284687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="64"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37284687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>单刻内的预期位移</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>区块边长</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2065020799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3477,6 +4138,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5542,6 +6243,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6296,6 +7513,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>239484</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>691241</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62BE4076-B038-48B6-8F1B-524D374E4F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8009,7 +9267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F9E9FA-4D2C-494A-B466-BD644580AA12}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C64"/>
     </sheetView>
   </sheetViews>
@@ -11159,4 +12417,447 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E436C35-E985-4553-AA44-7B88433F5455}">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>0.5+0.3*COS(A1/0.16*PI())</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B2">
+        <f>0.5+0.3*COS(A2/0.16*PI())</f>
+        <v>0.79855541800165908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <f>0.5+0.3*COS(A3/0.16*PI())</f>
+        <v>0.79423558412096917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B33" si="0">0.5+0.3*COS(A4/0.16*PI())</f>
+        <v>0.78708210071966267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.02</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.77716385975338609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.7645763793045065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.03</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.74944088369076356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.73190313600882106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.04</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.71213203435596428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.6903179852490936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.05</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.66667106990588065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.64141902104779935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.06</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.61480502970952688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.58708540317633873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.55852709660483846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.52940514209886824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.08</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.47059485790113181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.09</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.44147290339516154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.41291459682366138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.38519497029047312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.105</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.3585809789522007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.11</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.33332893009411946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0.115</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.3096820147509064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0.12</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.28786796564403577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0.125</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.26809686399117894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>0.13</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.25055911630923644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.23542362069549355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.22283614024661397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.21291789928033739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>0.15</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.20576441587903088</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0.155</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.20144458199834098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>0.16</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="B34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0.17</v>
+      </c>
+      <c r="B35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="B36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>0.18</v>
+      </c>
+      <c r="B37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>0.185</v>
+      </c>
+      <c r="B38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0.19</v>
+      </c>
+      <c r="B39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="B40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>0.2</v>
+      </c>
+      <c r="B41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="B42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0.21</v>
+      </c>
+      <c r="B43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>0.215</v>
+      </c>
+      <c r="B44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>0.22</v>
+      </c>
+      <c r="B45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>0.23</v>
+      </c>
+      <c r="B47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="B48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0.24</v>
+      </c>
+      <c r="B49">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/verification/Verify.xlsx
+++ b/verification/Verify.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ChargeDistribution\verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514BF44F-C2C2-4A5B-8519-593AAA6721ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E308DB-55F6-4C55-808E-D6381FC9C4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="5" xr2:uid="{9E2554C6-F1FA-4E84-AA2F-1B670389EA7A}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="3" xr2:uid="{9E2554C6-F1FA-4E84-AA2F-1B670389EA7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3 (3)" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3 (3)" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>nan</t>
   </si>
@@ -45,40 +44,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Tick 34 statistics: </t>
+    <t>Averge cosOfAngle = 0.998879</t>
   </si>
   <si>
-    <t>dt, elapsed = 0.00108991, 0.092081</t>
+    <t>Averge cosOfAngle = 0.997307</t>
   </si>
   <si>
-    <t>dxEstm, dxElim = 0.00446823, 0.00435915</t>
+    <t>nan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vel, acc = 4.10354, 875.638</t>
-  </si>
-  <si>
-    <t>elim, brute = 0.826053, 0.00564463</t>
-  </si>
-  <si>
-    <t>stay, superforce = 0, 0.00409031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tick 34 finished in 18.196 seconds. </t>
-  </si>
-  <si>
-    <t>Group finished</t>
-  </si>
-  <si>
-    <t>Exporting point set... done</t>
-  </si>
-  <si>
-    <t>Distribution statistics:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nan 1.30166e-17 1.3076e-17 1.30206e-17 1.29704e-17 1.29522e-17 1.29558e-17 1.29581e-17 1.28551e-17 1.27542e-17 1.26385e-17 1.24934e-17 1.24201e-17 1.23303e-17 1.22531e-17 1.21736e-17 1.20634e-17 1.19104e-17 1.17409e-17 1.15409e-17 1.13229e-17 1.12065e-17 1.11486e-17 1.10195e-17 1.08601e-17 1.06711e-17 1.04459e-17 1.01993e-17 9.97111e-18 9.79463e-18 9.63864e-18 9.46291e-18 9.28657e-18 9.10404e-18 8.87836e-18 8.66871e-18 </t>
-  </si>
-  <si>
-    <t>8.49963e-18 8.31424e-18 8.16134e-18 8.01747e-18 7.87421e-18 7.74964e-18 7.5835e-18 7.37334e-18 7.28645e-18 7.20958e-18 7.06207e-18 6.91069e-18 6.81617e-18 6.77259e-18 6.68747e-18 6.57565e-18 6.50144e-18 6.43352e-18 6.37148e-18 6.30767e-18 6.16357e-18 6.07604e-18 5.98231e-18 5.93476e-18 5.87647e-18 5.86649e-18 5.80005e-18 5.74771e-18</t>
+    <t>Averge cosOfAngle = 0.998161</t>
   </si>
 </sst>
 </file>
@@ -638,193 +614,193 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="1">
-                  <c:v>6.1178574603174603E-18</c:v>
+                  <c:v>34897.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.99385746031746E-18</c:v>
+                  <c:v>34837.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9805574603174603E-18</c:v>
+                  <c:v>34190.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9212574603174624E-18</c:v>
+                  <c:v>33414.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8909574603174604E-18</c:v>
+                  <c:v>33741.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7784574603174604E-18</c:v>
+                  <c:v>33552.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6741574603174601E-18</c:v>
+                  <c:v>32671.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5541574603174608E-18</c:v>
+                  <c:v>31915.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4227574603174616E-18</c:v>
+                  <c:v>31930.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2513574603174626E-18</c:v>
+                  <c:v>31050.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0299574603174616E-18</c:v>
+                  <c:v>30264.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8673574603174622E-18</c:v>
+                  <c:v>29077.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7319574603174622E-18</c:v>
+                  <c:v>28059.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5441574603174607E-18</c:v>
+                  <c:v>26867.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3441574603174618E-18</c:v>
+                  <c:v>25202.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1252574603174606E-18</c:v>
+                  <c:v>24104.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8346574603174615E-18</c:v>
+                  <c:v>22780.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.5573574603174607E-18</c:v>
+                  <c:v>21228.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3127574603174613E-18</c:v>
+                  <c:v>20108.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0698574603174608E-18</c:v>
+                  <c:v>19324.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.817557460317461E-18</c:v>
+                  <c:v>18220.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5507574603174618E-18</c:v>
+                  <c:v>16741.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2632574603174608E-18</c:v>
+                  <c:v>15077.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9782574603174612E-18</c:v>
+                  <c:v>14135.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.688057460317461E-18</c:v>
+                  <c:v>12552.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3928574603174612E-18</c:v>
+                  <c:v>10486.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1158574603174618E-18</c:v>
+                  <c:v>8489.6666666666715</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.3185746031746085E-19</c:v>
+                  <c:v>6467.2666666666773</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.2975746031746151E-19</c:v>
+                  <c:v>5125.7666666666773</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1109746031746077E-19</c:v>
+                  <c:v>3756.3666666666686</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.5052539682538997E-20</c:v>
+                  <c:v>2435.9666666666744</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.8591253968253818E-19</c:v>
+                  <c:v>899.86666666666861</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7.2256253968253862E-19</c:v>
+                  <c:v>-1110.5333333333256</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.0313625396825381E-18</c:v>
+                  <c:v>-2816.0333333333256</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.315522539682538E-18</c:v>
+                  <c:v>-4475.3333333333285</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.5906225396825389E-18</c:v>
+                  <c:v>-6331.9333333333343</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.8706425396825384E-18</c:v>
+                  <c:v>-8039.2333333333227</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.129202539682539E-18</c:v>
+                  <c:v>-9838.2333333333227</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.3594725396825393E-18</c:v>
+                  <c:v>-11159.333333333328</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.594272539682539E-18</c:v>
+                  <c:v>-13039.733333333323</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.8301625396825389E-18</c:v>
+                  <c:v>-14974.133333333331</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3.0417725396825383E-18</c:v>
+                  <c:v>-16234.933333333334</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3.2427625396825385E-18</c:v>
+                  <c:v>-17914.433333333334</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.4375725396825389E-18</c:v>
+                  <c:v>-19519.833333333328</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.6094825396825385E-18</c:v>
+                  <c:v>-20961.233333333323</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.778982539682539E-18</c:v>
+                  <c:v>-22236.533333333326</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.939632539682539E-18</c:v>
+                  <c:v>-23369.133333333331</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-4.0897125396825385E-18</c:v>
+                  <c:v>-24620.333333333328</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-4.2300425396825384E-18</c:v>
+                  <c:v>-25966.633333333331</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-4.354532539682539E-18</c:v>
+                  <c:v>-27280.23333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.4680325396825385E-18</c:v>
+                  <c:v>-28109.833333333328</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-4.5702325396825386E-18</c:v>
+                  <c:v>-29000.333333333328</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-4.6704525396825385E-18</c:v>
+                  <c:v>-29886.433333333327</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.7603425396825386E-18</c:v>
+                  <c:v>-30873.333333333328</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.8366825396825384E-18</c:v>
+                  <c:v>-31982.833333333328</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-4.9014725396825385E-18</c:v>
+                  <c:v>-32931.933333333327</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-4.9625525396825387E-18</c:v>
+                  <c:v>-33316.23333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-5.0102325396825385E-18</c:v>
+                  <c:v>-33485.933333333327</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-5.0546425396825386E-18</c:v>
+                  <c:v>-34166.933333333327</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-5.0955425396825389E-18</c:v>
+                  <c:v>-34432.23333333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-5.1142725396825386E-18</c:v>
+                  <c:v>-34944.73333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-5.1435025396825385E-18</c:v>
+                  <c:v>-35414.933333333327</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-5.1549225396825385E-18</c:v>
+                  <c:v>-35179.73333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,196 +834,196 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>5.636389999999999E-18</c:v>
+                  <c:v>35038.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6296007214002705E-18</c:v>
+                  <c:v>34996.494351336172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6092492415679032E-18</c:v>
+                  <c:v>34869.979082449106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5753845890003908E-18</c:v>
+                  <c:v>34659.458979702969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5280883466119628E-18</c:v>
+                  <c:v>34365.441204464667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4674744551931949E-18</c:v>
+                  <c:v>33988.634071307664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3936889389176635E-18</c:v>
+                  <c:v>33529.945341620143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3069095535569253E-18</c:v>
+                  <c:v>32990.48003672831</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2073453582512905E-18</c:v>
+                  <c:v>32371.537775803219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0952362118680439E-18</c:v>
+                  <c:v>31674.609644964392</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9708521951604237E-18</c:v>
+                  <c:v>30901.374605122706</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8344929601194331E-18</c:v>
+                  <c:v>30053.695447216531</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.686487008085942E-18</c:v>
+                  <c:v>29133.61430458519</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5271908983621917E-18</c:v>
+                  <c:v>28143.347733290873</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3569883892291965E-18</c:v>
+                  <c:v>27085.28137224093</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1762895134394369E-18</c:v>
+                  <c:v>25961.964195974804</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9855295904120443E-18</c:v>
+                  <c:v>24776.102373961083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7851681775101849E-18</c:v>
+                  <c:v>23530.552751198218</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.5756879629271288E-18</c:v>
+                  <c:v>22228.315965824724</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3575936028481067E-18</c:v>
+                  <c:v>20872.529220319026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1314105056893558E-18</c:v>
+                  <c:v>19466.458723703938</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.8976835663432321E-18</c:v>
+                  <c:v>18013.491822963035</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6569758534786853E-18</c:v>
+                  <c:v>16517.128842625087</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.409867253059508E-18</c:v>
+                  <c:v>14980.974652175628</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1569530713482684E-18</c:v>
+                  <c:v>13408.729981610672</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.8988426007613747E-18</c:v>
+                  <c:v>11804.18250605398</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6361576520302786E-18</c:v>
+                  <c:v>10171.197720915929</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3695310562049578E-18</c:v>
+                  <c:v>8513.709629576495</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0996051401084855E-18</c:v>
+                  <c:v>6835.7112660265147</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.2703017891545626E-19</c:v>
+                  <c:v>5141.2450752990835</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.524628295821329E-19</c:v>
+                  <c:v>3434.3931748653808</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.7656454890231623E-19</c:v>
+                  <c:v>1719.2675204561053</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.4527072498811977E-34</c:v>
+                  <c:v>2.1463804583503332E-12</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.7656454890231555E-19</c:v>
+                  <c:v>-1719.2675204561012</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-5.5246282958213223E-19</c:v>
+                  <c:v>-3434.3931748653763</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.2703017891545559E-19</c:v>
+                  <c:v>-5141.245075299079</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.0996051401084847E-18</c:v>
+                  <c:v>-6835.7112660265102</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.3695310562049573E-18</c:v>
+                  <c:v>-8513.7096295764914</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.6361576520302778E-18</c:v>
+                  <c:v>-10171.197720915923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.8988426007613744E-18</c:v>
+                  <c:v>-11804.182506053976</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.1569530713482676E-18</c:v>
+                  <c:v>-13408.729981610668</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.4098672530595061E-18</c:v>
+                  <c:v>-14980.974652175615</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.6569758534786849E-18</c:v>
+                  <c:v>-16517.128842625083</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.8976835663432321E-18</c:v>
+                  <c:v>-18013.491822963035</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.1314105056893539E-18</c:v>
+                  <c:v>-19466.458723703927</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.3575936028481059E-18</c:v>
+                  <c:v>-20872.529220319022</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.5756879629271288E-18</c:v>
+                  <c:v>-22228.31596582472</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.7851681775101857E-18</c:v>
+                  <c:v>-23530.552751198222</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3.9855295904120436E-18</c:v>
+                  <c:v>-24776.102373961079</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-4.1762895134394361E-18</c:v>
+                  <c:v>-25961.964195974797</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-4.3569883892291965E-18</c:v>
+                  <c:v>-27085.28137224093</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.5271908983621909E-18</c:v>
+                  <c:v>-28143.347733290866</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-4.6864870080859428E-18</c:v>
+                  <c:v>-29133.614304585193</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-4.8344929601194323E-18</c:v>
+                  <c:v>-30053.695447216527</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.9708521951604237E-18</c:v>
+                  <c:v>-30901.374605122703</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-5.0952362118680439E-18</c:v>
+                  <c:v>-31674.609644964392</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-5.2073453582512905E-18</c:v>
+                  <c:v>-32371.537775803219</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-5.3069095535569253E-18</c:v>
+                  <c:v>-32990.480036728302</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-5.3936889389176635E-18</c:v>
+                  <c:v>-33529.945341620143</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-5.4674744551931949E-18</c:v>
+                  <c:v>-33988.634071307664</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-5.5280883466119628E-18</c:v>
+                  <c:v>-34365.441204464667</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-5.5753845890003908E-18</c:v>
+                  <c:v>-34659.458979702969</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-5.6092492415679024E-18</c:v>
+                  <c:v>-34869.979082449099</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-5.6296007214002705E-18</c:v>
+                  <c:v>-34996.494351336172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,198 +1266,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$64</c:f>
+              <c:f>'Sheet3 (3)'!$C$2:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3.3901800000000002E-17</c:v>
+                  <c:v>174466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4287100000000003E-17</c:v>
+                  <c:v>174204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4005399999999999E-17</c:v>
+                  <c:v>174340</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3858200000000001E-17</c:v>
+                  <c:v>172518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3014100000000001E-17</c:v>
+                  <c:v>170578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2152200000000001E-17</c:v>
+                  <c:v>168806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1341799999999998E-17</c:v>
+                  <c:v>165915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0204399999999999E-17</c:v>
+                  <c:v>162628</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9132399999999998E-17</c:v>
+                  <c:v>159315</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8758500000000003E-17</c:v>
+                  <c:v>156077</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7845799999999997E-17</c:v>
+                  <c:v>153375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.70081E-17</c:v>
+                  <c:v>150024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.63362E-17</c:v>
+                  <c:v>147363</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.56026E-17</c:v>
+                  <c:v>144581</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4917899999999999E-17</c:v>
+                  <c:v>140911</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.43123E-17</c:v>
+                  <c:v>136624</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3592500000000001E-17</c:v>
+                  <c:v>133281</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.30978E-17</c:v>
+                  <c:v>130642</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2749600000000001E-17</c:v>
+                  <c:v>126485</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1953100000000001E-17</c:v>
+                  <c:v>122361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1742399999999999E-17</c:v>
+                  <c:v>118586</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1304999999999999E-17</c:v>
+                  <c:v>115318</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.13167E-17</c:v>
+                  <c:v>112231</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1015000000000001E-17</c:v>
+                  <c:v>109063</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0659999999999999E-17</c:v>
+                  <c:v>106139</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0491499999999999E-17</c:v>
+                  <c:v>102960</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.04282E-17</c:v>
+                  <c:v>99938.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.01738E-17</c:v>
+                  <c:v>97201.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.01072E-17</c:v>
+                  <c:v>94019.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0035099999999999E-17</c:v>
+                  <c:v>91101.9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9794199999999999E-17</c:v>
+                  <c:v>88725.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9784699999999999E-17</c:v>
+                  <c:v>86510</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.9768500000000001E-17</c:v>
+                  <c:v>83942.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9807400000000001E-17</c:v>
+                  <c:v>81553.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.00378E-17</c:v>
+                  <c:v>79568.100000000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.01714E-17</c:v>
+                  <c:v>77341.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0007799999999999E-17</c:v>
+                  <c:v>75306.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.04713E-17</c:v>
+                  <c:v>73506.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0652299999999999E-17</c:v>
+                  <c:v>71896.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.07472E-17</c:v>
+                  <c:v>70192.3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1116800000000002E-17</c:v>
+                  <c:v>68523.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1406099999999999E-17</c:v>
+                  <c:v>67014.7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1576999999999999E-17</c:v>
+                  <c:v>65478.9</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.21709E-17</c:v>
+                  <c:v>64243.4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.27164E-17</c:v>
+                  <c:v>62941.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.3043300000000001E-17</c:v>
+                  <c:v>61967</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.3948300000000001E-17</c:v>
+                  <c:v>61068</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.4244600000000001E-17</c:v>
+                  <c:v>59909.9</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.4743799999999999E-17</c:v>
+                  <c:v>58879</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.5595800000000001E-17</c:v>
+                  <c:v>57915.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.60547E-17</c:v>
+                  <c:v>57034.2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.6914399999999999E-17</c:v>
+                  <c:v>56111.1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.7818299999999999E-17</c:v>
+                  <c:v>55261.2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.8870499999999997E-17</c:v>
+                  <c:v>54536.9</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.9211499999999999E-17</c:v>
+                  <c:v>53947.9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.9691899999999998E-17</c:v>
+                  <c:v>53330.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0627000000000002E-17</c:v>
+                  <c:v>52769.9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.1949499999999998E-17</c:v>
+                  <c:v>52292.2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.2651399999999999E-17</c:v>
+                  <c:v>51957.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.2767500000000001E-17</c:v>
+                  <c:v>51599.6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.3378499999999998E-17</c:v>
+                  <c:v>51302.2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.3875399999999998E-17</c:v>
+                  <c:v>51112.3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.3830300000000001E-17</c:v>
+                  <c:v>50994.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,7 +1465,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0254-4C3B-B1AE-68905EF9F42F}"/>
+              <c16:uniqueId val="{00000000-FDFC-4C3E-9E80-0124C1361CA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1510,198 +1486,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$64</c:f>
+              <c:f>'Sheet3 (3)'!$D$2:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3.3766871874213537E-17</c:v>
+                  <c:v>174259.65539192894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3410539592089367E-17</c:v>
+                  <c:v>173643.75487380585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2844491253479129E-17</c:v>
+                  <c:v>172627.58192622059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2105231944716631E-17</c:v>
+                  <c:v>171226.22890623775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1235150886538631E-17</c:v>
+                  <c:v>169460.0540571328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0277047431631192E-17</c:v>
+                  <c:v>167353.97265512458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9270002435515433E-17</c:v>
+                  <c:v>164936.62706324577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8246975692360111E-17</c:v>
+                  <c:v>162239.48500827883</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7233949865958356E-17</c:v>
+                  <c:v>159295.91548190705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6250170064496813E-17</c:v>
+                  <c:v>156140.28778029344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5309000900882867E-17</c:v>
+                  <c:v>152807.13223695991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4419025124599475E-17</c:v>
+                  <c:v>149330.39229412991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3585142667739242E-17</c:v>
+                  <c:v>145742.78785007828</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2809543793700854E-17</c:v>
+                  <c:v>142075.30033839235</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2092508809062937E-17</c:v>
+                  <c:v>138356.78152970684</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.143303254287643E-17</c:v>
+                  <c:v>134613.68110835517</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.082929390076149E-17</c:v>
+                  <c:v>130869.88290283701</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0278998439227641E-17</c:v>
+                  <c:v>127146.63624612463</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9779621842377389E-17</c:v>
+                  <c:v>123462.567146043</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9328578685616474E-17</c:v>
+                  <c:v>119833.75348962654</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8923336327698345E-17</c:v>
+                  <c:v>116273.84907558729</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8561489364362411E-17</c:v>
+                  <c:v>112794.24255342947</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8240806288972312E-17</c:v>
+                  <c:v>109404.23906537874</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.7959256959508547E-17</c:v>
+                  <c:v>106111.25430576445</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7715027120393864E-17</c:v>
+                  <c:v>102921.01265395676</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.750652446235099E-17</c:v>
+                  <c:v>99837.742876300937</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7332379403159998E-17</c:v>
+                  <c:v>96864.366550697567</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7191442827565747E-17</c:v>
+                  <c:v>94002.675802886049</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7082782345290657E-17</c:v>
+                  <c:v>91253.498142523371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7005678140937541E-17</c:v>
+                  <c:v>88616.847155871699</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6959619143995944E-17</c:v>
+                  <c:v>86092.058568844557</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.69443E-17</c:v>
+                  <c:v>83677.911764705888</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6959619143995944E-17</c:v>
+                  <c:v>81372.73725297823</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7005678140937541E-17</c:v>
+                  <c:v>79174.510868107929</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7082782345290657E-17</c:v>
+                  <c:v>77080.935654254063</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7191442827565747E-17</c:v>
+                  <c:v>75089.512489427507</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7332379403159998E-17</c:v>
+                  <c:v>73197.600538004801</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.750652446235099E-17</c:v>
+                  <c:v>71402.468611923512</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7715027120393864E-17</c:v>
+                  <c:v>69701.338481033163</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7959256959508547E-17</c:v>
+                  <c:v>68091.421112713229</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8240806288972312E-17</c:v>
+                  <c:v>66569.946748135975</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.8561489364362408E-17</c:v>
+                  <c:v>65134.189643584759</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.8923336327698345E-17</c:v>
+                  <c:v>63781.488224514876</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.9328578685616471E-17</c:v>
+                  <c:v>62509.261320728721</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9779621842377386E-17</c:v>
+                  <c:v>61315.021075262965</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0278998439227641E-17</c:v>
+                  <c:v>60196.383048699819</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0829293900761493E-17</c:v>
+                  <c:v>59151.073975374602</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.143303254287643E-17</c:v>
+                  <c:v>58176.937568687616</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2092508809062934E-17</c:v>
+                  <c:v>57271.938719461003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.2809543793700854E-17</c:v>
+                  <c:v>56434.166383827454</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3585142667739239E-17</c:v>
+                  <c:v>55661.835415175286</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.4419025124599475E-17</c:v>
+                  <c:v>54953.28755780065</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.5309000900882867E-17</c:v>
+                  <c:v>54306.991787690946</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.6250170064496807E-17</c:v>
+                  <c:v>53721.544157823562</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.7233949865958356E-17</c:v>
+                  <c:v>53195.667281060218</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.8246975692360104E-17</c:v>
+                  <c:v>52728.209562715114</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.9270002435515433E-17</c:v>
+                  <c:v>52318.144276766383</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.0277047431631192E-17</c:v>
+                  <c:v>51964.568564084533</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.1235150886538625E-17</c:v>
+                  <c:v>51666.702417624052</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.2105231944716625E-17</c:v>
+                  <c:v>51423.887707942646</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2844491253479129E-17</c:v>
+                  <c:v>51235.587292392724</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.3410539592089367E-17</c:v>
+                  <c:v>51101.38424260552</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.3766871874213537E-17</c:v>
+                  <c:v>51020.981217222405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +1685,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0254-4C3B-B1AE-68905EF9F42F}"/>
+              <c16:uniqueId val="{00000001-FDFC-4C3E-9E80-0124C1361CA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1975,198 +1951,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet3 (2)'!$C$2:$C$64</c:f>
+              <c:f>Sheet3!$C$2:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3.4639399999999998E-17</c:v>
+                  <c:v>362197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.83774E-17</c:v>
+                  <c:v>359840</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7644899999999999E-17</c:v>
+                  <c:v>355168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3831500000000001E-17</c:v>
+                  <c:v>346462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2879999999999998E-17</c:v>
+                  <c:v>334780</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3443000000000003E-17</c:v>
+                  <c:v>323287</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1834500000000001E-17</c:v>
+                  <c:v>312267</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9503200000000002E-17</c:v>
+                  <c:v>300795</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8326299999999997E-17</c:v>
+                  <c:v>289044</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6913699999999999E-17</c:v>
+                  <c:v>278384</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5160699999999999E-17</c:v>
+                  <c:v>268656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3604600000000001E-17</c:v>
+                  <c:v>259039</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2068499999999999E-17</c:v>
+                  <c:v>249633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0596999999999999E-17</c:v>
+                  <c:v>241394</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9150800000000001E-17</c:v>
+                  <c:v>234526</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7795600000000001E-17</c:v>
+                  <c:v>227753</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.65317E-17</c:v>
+                  <c:v>221007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.53464E-17</c:v>
+                  <c:v>215453</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.42195E-17</c:v>
+                  <c:v>210634</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.31807E-17</c:v>
+                  <c:v>206375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.22122E-17</c:v>
+                  <c:v>201876</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1292899999999999E-17</c:v>
+                  <c:v>197831</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.04544E-17</c:v>
+                  <c:v>194922</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.7247700000000001E-18</c:v>
+                  <c:v>192257</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.0911399999999998E-18</c:v>
+                  <c:v>189004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.5704799999999997E-18</c:v>
+                  <c:v>186638</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.1273900000000006E-18</c:v>
+                  <c:v>185660</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.7491400000000004E-18</c:v>
+                  <c:v>184343</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.4200700000000003E-18</c:v>
+                  <c:v>183197</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.1398599999999995E-18</c:v>
+                  <c:v>182147</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.8908400000000001E-18</c:v>
+                  <c:v>181640</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.6691600000000002E-18</c:v>
+                  <c:v>181349</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.4787999999999998E-18</c:v>
+                  <c:v>180785</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3129599999999997E-18</c:v>
+                  <c:v>181412</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.1686599999999997E-18</c:v>
+                  <c:v>182708</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.0393200000000002E-18</c:v>
+                  <c:v>184443</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.9254800000000003E-18</c:v>
+                  <c:v>186240</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8167200000000003E-18</c:v>
+                  <c:v>187335</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.7242699999999997E-18</c:v>
+                  <c:v>188697</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6432699999999999E-18</c:v>
+                  <c:v>191144</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.5679900000000002E-18</c:v>
+                  <c:v>194025</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.4996400000000001E-18</c:v>
+                  <c:v>196742</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.4331500000000002E-18</c:v>
+                  <c:v>200754</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.3758499999999998E-18</c:v>
+                  <c:v>205803</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.3246000000000002E-18</c:v>
+                  <c:v>211117</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.2814199999999997E-18</c:v>
+                  <c:v>216118</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.2411400000000003E-18</c:v>
+                  <c:v>221736</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.2018600000000003E-18</c:v>
+                  <c:v>228131</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.1664700000000002E-18</c:v>
+                  <c:v>234462</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.1325499999999997E-18</c:v>
+                  <c:v>240933</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.1042600000000001E-18</c:v>
+                  <c:v>248581</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.0759000000000001E-18</c:v>
+                  <c:v>257294</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.053E-18</c:v>
+                  <c:v>266713</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.0269700000000003E-18</c:v>
+                  <c:v>276621</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.0125000000000001E-18</c:v>
+                  <c:v>286839</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9944699999999999E-18</c:v>
+                  <c:v>297753</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9859700000000003E-18</c:v>
+                  <c:v>309217</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.97886E-18</c:v>
+                  <c:v>320239</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.9674000000000002E-18</c:v>
+                  <c:v>330722</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.95486E-18</c:v>
+                  <c:v>339798</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9441400000000003E-18</c:v>
+                  <c:v>346382</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.9447799999999998E-18</c:v>
+                  <c:v>351223</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.9470899999999999E-18</c:v>
+                  <c:v>354608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2174,7 +2150,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAE0-4F5E-9156-B5501645A3A6}"/>
+              <c16:uniqueId val="{00000000-0254-4C3B-B1AE-68905EF9F42F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2195,198 +2171,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet3 (2)'!$D$2:$D$64</c:f>
+              <c:f>Sheet3!$D$2:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3.4473301593911331E-17</c:v>
+                  <c:v>355428.69478971424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3984815301317017E-17</c:v>
+                  <c:v>351677.95594666636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3201955846962478E-17</c:v>
+                  <c:v>345719.75457907794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2167074716310991E-17</c:v>
+                  <c:v>337938.34171372879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0931488242212745E-17</c:v>
+                  <c:v>328779.90453241486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9549784756754613E-17</c:v>
+                  <c:v>318694.94724884367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8074836702812283E-17</c:v>
+                  <c:v>308094.83332957723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6554144444490314E-17</c:v>
+                  <c:v>297326.49620290525</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5027693732869084E-17</c:v>
+                  <c:v>286663.42831176281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3527167318341929E-17</c:v>
+                  <c:v>276308.20286782744</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2076170275905176E-17</c:v>
+                  <c:v>266401.4952330261</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0691090192141533E-17</c:v>
+                  <c:v>257033.64707293539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9382264944389619E-17</c:v>
+                  <c:v>248256.23486981654</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8155219671062456E-17</c:v>
+                  <c:v>240092.3132454876</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7011824269405371E-17</c:v>
+                  <c:v>232544.8326953855</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.595129520852548E-17</c:v>
+                  <c:v>225603.21283173253</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4971015754439951E-17</c:v>
+                  <c:v>219248.28489051276</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4067179218853793E-17</c:v>
+                  <c:v>213455.89765457681</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3235275553669124E-17</c:v>
+                  <c:v>208199.48027933991</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2470447569746026E-17</c:v>
+                  <c:v>203451.81869260615</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1767743297949983E-17</c:v>
+                  <c:v>199186.25441751137</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1122288345797361E-17</c:v>
+                  <c:v>195377.46826843586</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0529398298688246E-17</c:v>
+                  <c:v>192001.97149894989</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.9846472708512736E-18</c:v>
+                  <c:v>189038.39491824075</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.4839051259823283E-18</c:v>
+                  <c:v>186467.64174724527</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.023352857622451E-18</c:v>
+                  <c:v>184272.95140446114</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.5994831751852904E-18</c:v>
+                  <c:v>182439.9077241669</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.2090914328803793E-18</c:v>
+                  <c:v>180956.41516678108</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8492605836502114E-18</c:v>
+                  <c:v>179812.65943085964</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5173427515036301E-18</c:v>
+                  <c:v>179001.06376934514</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.2109392135398246E-18</c:v>
+                  <c:v>178516.24867521212</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.9278799999999997E-18</c:v>
+                  <c:v>178355</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.6662039023360097E-18</c:v>
+                  <c:v>178516.24867521212</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.4241393828886E-18</c:v>
+                  <c:v>179001.06376934514</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.2000866726823619E-18</c:v>
+                  <c:v>179812.65943085964</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.9926012015070082E-18</c:v>
+                  <c:v>180956.41516678108</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.8003784086143099E-18</c:v>
+                  <c:v>182439.9077241669</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.6222399195946509E-18</c:v>
+                  <c:v>184272.95140446114</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.4571210355200421E-18</c:v>
+                  <c:v>186467.64174724527</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.3040594571694911E-18</c:v>
+                  <c:v>189038.39491824075</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.1621851549997376E-18</c:v>
+                  <c:v>192001.97149894989</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.0307112908599373E-18</c:v>
+                  <c:v>195377.46826843583</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9089260977032355E-18</c:v>
+                  <c:v>199186.25441751137</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.7961856269182218E-18</c:v>
+                  <c:v>203451.81869260612</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.6919072781367576E-18</c:v>
+                  <c:v>208199.48027933986</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.5955640326130331E-18</c:v>
+                  <c:v>213455.89765457681</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.5066793179340355E-18</c:v>
+                  <c:v>219248.28489051279</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.4248224385333422E-18</c:v>
+                  <c:v>225603.21283173253</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.3496045129968067E-18</c:v>
+                  <c:v>232544.83269538544</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.2806748653251969E-18</c:v>
+                  <c:v>240092.3132454876</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.2177178230761004E-18</c:v>
+                  <c:v>248256.23486981652</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.1604498806112161E-18</c:v>
+                  <c:v>257033.64707293539</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.1086171905209758E-18</c:v>
+                  <c:v>266401.4952330261</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.0619933507004899E-18</c:v>
+                  <c:v>276308.20286782744</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.0203774585353569E-18</c:v>
+                  <c:v>286663.42831176281</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.9835924072554545E-18</c:v>
+                  <c:v>297326.4962029052</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.9514834027655276E-18</c:v>
+                  <c:v>308094.83332957717</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.9239166822001441E-18</c:v>
+                  <c:v>318694.94724884367</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.9007784181140654E-18</c:v>
+                  <c:v>328779.9045324148</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.8819737946426963E-18</c:v>
+                  <c:v>337938.34171372873</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.8674262441848346E-18</c:v>
+                  <c:v>345719.75457907794</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.8570768352034861E-18</c:v>
+                  <c:v>351677.95594666636</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.8508838036401225E-18</c:v>
+                  <c:v>355428.69478971424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,7 +2370,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FAE0-4F5E-9156-B5501645A3A6}"/>
+              <c16:uniqueId val="{00000001-0254-4C3B-B1AE-68905EF9F42F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2594,691 +2570,6 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet3 (3)'!$C$2:$C$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>1.73842E-17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7462799999999999E-17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7330499999999999E-17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.72601E-17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7189499999999999E-17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6958799999999999E-17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6669599999999999E-17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6366800000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6088499999999999E-17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.58567E-17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5573099999999999E-17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.52574E-17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4885700000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4515E-17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4159900000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3828600000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.34448E-17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3063000000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2684500000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.23144E-17</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1986900000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.16398E-17</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.13268E-17</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.10483E-17</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0718899999999999E-17</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.0389300000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0081000000000001E-17</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.7744300000000002E-18</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.4824699999999994E-18</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.2110099999999995E-18</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.9367699999999993E-18</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.6917400000000003E-18</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.4471999999999992E-18</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.2167500000000006E-18</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.0008500000000001E-18</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.7739599999999999E-18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.5628300000000003E-18</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.3826599999999995E-18</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.2089000000000002E-18</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.0385599999999999E-18</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.8980700000000003E-18</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.7641200000000003E-18</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.63306E-18</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.4878799999999997E-18</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.3666499999999999E-18</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.2395200000000001E-18</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.13904E-18</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.0401999999999996E-18</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.93E-18</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.8332500000000001E-18</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.7445700000000002E-18</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.6632200000000003E-18</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.5798499999999996E-18</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.4981099999999998E-18</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.4355900000000001E-18</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.3764399999999999E-18</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.3211600000000001E-18</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.2676799999999998E-18</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.23421E-18</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.2125100000000003E-18</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.18784E-18</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.1641099999999999E-18</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.1452000000000002E-18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FDFC-4C3E-9E80-0124C1361CA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet3 (3)'!$D$2:$D$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>1.7363746328326132E-17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7302695898662769E-17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7201968925333668E-17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7063061420854349E-17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6887991372647425E-17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6679228478778716E-17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6439611880502796E-17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6172260780002594E-17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5880482840155086E-17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.556768487786694E-17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5237289672687627E-17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4892661829242433E-17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4537044669771624E-17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4173509193205122E-17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3804915298084923E-17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3433884778914367E-17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3062785092691789E-17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.269372255507994E-17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2328543447657039E-17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1968841472462046E-17</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1615970046570254E-17</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1271058056749988E-17</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0935027864509714E-17</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.0608614542010816E-17</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0292385511766871E-17</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.9867599453725234E-18</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.6920274408730372E-18</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.4083656406687389E-18</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.1358565707015166E-18</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.8745015776939646E-18</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.6242348162421573E-18</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.3849352941176479E-18</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.1564375249992349E-18</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.9385408658071963E-18</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.7310176334386908E-18</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.5336201053042326E-18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.346086511613508E-18</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.1681461264947293E-18</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.9995235610832984E-18</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.839942355732218E-18</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.6891279612869988E-18</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.5468101915403669E-18</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.4127252209803189E-18</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.2866171940831738E-18</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.1682395048921571E-18</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.0573557985956062E-18</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.953740740352127E-18</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.8571805907354371E-18</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.7674736218916649E-18</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.6844304037979859E-18</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.6078739858520767E-18</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.5376399953667328E-18</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.4735766713496495E-18</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.4155448491688194E-18</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.3634179092950451E-18</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.3170817012311336E-18</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.276434451942418E-18</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.2413866665573091E-18</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.2118610277755796E-18</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.1877922992740862E-18</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.1691272374063925E-18</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.1558245146280283E-18</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.1478546573192016E-18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FDFC-4C3E-9E80-0124C1361CA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1414306863"/>
-        <c:axId val="1417548207"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1414306863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1417548207"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1417548207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1414306863"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4138,46 +3429,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6243,522 +5494,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7360,6 +6095,49 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212271</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D38F906-7BC4-4553-A4B8-82AAC7592671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -7443,93 +6221,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212271</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>166006</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>59871</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B13B810-F495-42CD-8177-ED86BED438E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212271</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>166006</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>59871</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D38F906-7BC4-4553-A4B8-82AAC7592671}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7870,7 +6562,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8151,10 +6843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C2C37E-122A-456E-9E33-26D723516DB8}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B64"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8167,14 +6859,14 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>$E$66*COS(PI()/64*A1)</f>
-        <v>5.636389999999999E-18</v>
+        <v>35038.699999999997</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -8182,15 +6874,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.5800599999999999E-17</v>
+        <v>127625</v>
       </c>
       <c r="C2" s="1">
         <f>B2-$B$66</f>
-        <v>6.1178574603174603E-18</v>
+        <v>34897.666666666672</v>
       </c>
       <c r="E2" s="1">
         <f>$E$66*COS(PI()/64*A2)</f>
-        <v>5.6296007214002705E-18</v>
+        <v>34996.494351336172</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -8198,15 +6890,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1.5676599999999999E-17</v>
+        <v>127565</v>
       </c>
       <c r="C3" s="1">
         <f>B3-$B$66</f>
-        <v>5.99385746031746E-18</v>
+        <v>34837.666666666672</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E64" si="0">$E$66*COS(PI()/64*A3)</f>
-        <v>5.6092492415679032E-18</v>
+        <v>34869.979082449106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -8214,15 +6906,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.5663299999999999E-17</v>
+        <v>126918</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C64" si="1">B4-$B$66</f>
-        <v>5.9805574603174603E-18</v>
+        <v>34190.666666666672</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>5.5753845890003908E-18</v>
+        <v>34659.458979702969</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -8230,15 +6922,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1.5604000000000001E-17</v>
+        <v>126142</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>5.9212574603174624E-18</v>
+        <v>33414.666666666672</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>5.5280883466119628E-18</v>
+        <v>34365.441204464667</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -8246,15 +6938,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1.5573699999999999E-17</v>
+        <v>126469</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>5.8909574603174604E-18</v>
+        <v>33741.666666666672</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>5.4674744551931949E-18</v>
+        <v>33988.634071307664</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -8262,15 +6954,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1.5461199999999999E-17</v>
+        <v>126280</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>5.7784574603174604E-18</v>
+        <v>33552.666666666672</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>5.3936889389176635E-18</v>
+        <v>33529.945341620143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -8278,15 +6970,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1.5356899999999999E-17</v>
+        <v>125399</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>5.6741574603174601E-18</v>
+        <v>32671.666666666672</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>5.3069095535569253E-18</v>
+        <v>32990.48003672831</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -8294,15 +6986,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1.5236899999999999E-17</v>
+        <v>124643</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>5.5541574603174608E-18</v>
+        <v>31915.666666666672</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>5.2073453582512905E-18</v>
+        <v>32371.537775803219</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -8310,15 +7002,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1.51055E-17</v>
+        <v>124658</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>5.4227574603174616E-18</v>
+        <v>31930.666666666672</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>5.0952362118680439E-18</v>
+        <v>31674.609644964392</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -8326,15 +7018,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1.4934100000000001E-17</v>
+        <v>123778</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>5.2513574603174626E-18</v>
+        <v>31050.666666666672</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>4.9708521951604237E-18</v>
+        <v>30901.374605122706</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -8342,15 +7034,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1.47127E-17</v>
+        <v>122992</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>5.0299574603174616E-18</v>
+        <v>30264.666666666672</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>4.8344929601194331E-18</v>
+        <v>30053.695447216531</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -8358,15 +7050,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1.4550100000000001E-17</v>
+        <v>121805</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>4.8673574603174622E-18</v>
+        <v>29077.666666666672</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>4.686487008085942E-18</v>
+        <v>29133.61430458519</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -8374,15 +7066,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1.4414700000000001E-17</v>
+        <v>120787</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>4.7319574603174622E-18</v>
+        <v>28059.666666666672</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>4.5271908983621917E-18</v>
+        <v>28143.347733290873</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -8390,15 +7082,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1.4226899999999999E-17</v>
+        <v>119595</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>4.5441574603174607E-18</v>
+        <v>26867.666666666672</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>4.3569883892291965E-18</v>
+        <v>27085.28137224093</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -8406,15 +7098,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1.40269E-17</v>
+        <v>117930</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>4.3441574603174618E-18</v>
+        <v>25202.666666666672</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>4.1762895134394369E-18</v>
+        <v>25961.964195974804</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -8422,15 +7114,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1.3807999999999999E-17</v>
+        <v>116832</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>4.1252574603174606E-18</v>
+        <v>24104.666666666672</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>3.9855295904120443E-18</v>
+        <v>24776.102373961083</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -8438,15 +7130,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1.35174E-17</v>
+        <v>115508</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>3.8346574603174615E-18</v>
+        <v>22780.666666666672</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>3.7851681775101849E-18</v>
+        <v>23530.552751198218</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -8454,15 +7146,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1.3240099999999999E-17</v>
+        <v>113956</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>3.5573574603174607E-18</v>
+        <v>21228.666666666672</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>3.5756879629271288E-18</v>
+        <v>22228.315965824724</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -8470,15 +7162,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1.29955E-17</v>
+        <v>112836</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>3.3127574603174613E-18</v>
+        <v>20108.666666666672</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>3.3575936028481067E-18</v>
+        <v>20872.529220319026</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -8486,15 +7178,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1.2752599999999999E-17</v>
+        <v>112052</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>3.0698574603174608E-18</v>
+        <v>19324.666666666672</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>3.1314105056893558E-18</v>
+        <v>19466.458723703938</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -8502,15 +7194,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1.25003E-17</v>
+        <v>110948</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>2.817557460317461E-18</v>
+        <v>18220.666666666672</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>2.8976835663432321E-18</v>
+        <v>18013.491822963035</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -8518,15 +7210,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1.22335E-17</v>
+        <v>109469</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>2.5507574603174618E-18</v>
+        <v>16741.666666666672</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>2.6569758534786853E-18</v>
+        <v>16517.128842625087</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -8534,15 +7226,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1.1945999999999999E-17</v>
+        <v>107805</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>2.2632574603174608E-18</v>
+        <v>15077.666666666672</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>2.409867253059508E-18</v>
+        <v>14980.974652175628</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -8550,15 +7242,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1.1661E-17</v>
+        <v>106863</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>1.9782574603174612E-18</v>
+        <v>14135.666666666672</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>2.1569530713482684E-18</v>
+        <v>13408.729981610672</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -8566,15 +7258,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1.13708E-17</v>
+        <v>105280</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>1.688057460317461E-18</v>
+        <v>12552.666666666672</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>1.8988426007613747E-18</v>
+        <v>11804.18250605398</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -8582,15 +7274,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1.10756E-17</v>
+        <v>103214</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>1.3928574603174612E-18</v>
+        <v>10486.666666666672</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>1.6361576520302786E-18</v>
+        <v>10171.197720915929</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -8598,15 +7290,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1.07986E-17</v>
+        <v>101217</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>1.1158574603174618E-18</v>
+        <v>8489.6666666666715</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>1.3695310562049578E-18</v>
+        <v>8513.709629576495</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -8614,15 +7306,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1.05146E-17</v>
+        <v>99194.6</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>8.3185746031746085E-19</v>
+        <v>6467.2666666666773</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>1.0996051401084855E-18</v>
+        <v>6835.7112660265147</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -8630,15 +7322,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1.02125E-17</v>
+        <v>97853.1</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>5.2975746031746151E-19</v>
+        <v>5125.7666666666773</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>8.2703017891545626E-19</v>
+        <v>5141.2450752990835</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -8646,15 +7338,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>9.8938399999999994E-18</v>
+        <v>96483.7</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>2.1109746031746077E-19</v>
+        <v>3756.3666666666686</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>5.524628295821329E-19</v>
+        <v>3434.3931748653808</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -8662,15 +7354,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>9.5976899999999997E-18</v>
+        <v>95163.3</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>-8.5052539682538997E-20</v>
+        <v>2435.9666666666744</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>2.7656454890231623E-19</v>
+        <v>1719.2675204561053</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -8678,15 +7370,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>9.2968300000000005E-18</v>
+        <v>93627.199999999997</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>-3.8591253968253818E-19</v>
+        <v>899.86666666666861</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>3.4527072498811977E-34</v>
+        <v>2.1463804583503332E-12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -8694,15 +7386,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>8.96018E-18</v>
+        <v>91616.8</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>-7.2256253968253862E-19</v>
+        <v>-1110.5333333333256</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>-2.7656454890231555E-19</v>
+        <v>-1719.2675204561012</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -8710,15 +7402,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>8.6513800000000006E-18</v>
+        <v>89911.3</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>-1.0313625396825381E-18</v>
+        <v>-2816.0333333333256</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>-5.5246282958213223E-19</v>
+        <v>-3434.3931748653763</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -8726,15 +7418,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>8.3672200000000007E-18</v>
+        <v>88252</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>-1.315522539682538E-18</v>
+        <v>-4475.3333333333285</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>-8.2703017891545559E-19</v>
+        <v>-5141.245075299079</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -8742,15 +7434,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>8.0921199999999997E-18</v>
+        <v>86395.4</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>-1.5906225396825389E-18</v>
+        <v>-6331.9333333333343</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0996051401084847E-18</v>
+        <v>-6835.7112660265102</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -8758,15 +7450,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>7.8121000000000002E-18</v>
+        <v>84688.1</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>-1.8706425396825384E-18</v>
+        <v>-8039.2333333333227</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3695310562049573E-18</v>
+        <v>-8513.7096295764914</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -8774,15 +7466,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>7.5535399999999996E-18</v>
+        <v>82889.100000000006</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>-2.129202539682539E-18</v>
+        <v>-9838.2333333333227</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6361576520302778E-18</v>
+        <v>-10171.197720915923</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -8790,15 +7482,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>7.3232699999999994E-18</v>
+        <v>81568</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>-2.3594725396825393E-18</v>
+        <v>-11159.333333333328</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="0"/>
-        <v>-1.8988426007613744E-18</v>
+        <v>-11804.182506053976</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -8806,15 +7498,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>7.0884699999999997E-18</v>
+        <v>79687.600000000006</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>-2.594272539682539E-18</v>
+        <v>-13039.733333333323</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1569530713482676E-18</v>
+        <v>-13408.729981610668</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -8822,15 +7514,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>6.8525799999999998E-18</v>
+        <v>77753.2</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>-2.8301625396825389E-18</v>
+        <v>-14974.133333333331</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4098672530595061E-18</v>
+        <v>-14980.974652175615</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -8838,15 +7530,15 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>6.6409700000000003E-18</v>
+        <v>76492.399999999994</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>-3.0417725396825383E-18</v>
+        <v>-16234.933333333334</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="0"/>
-        <v>-2.6569758534786849E-18</v>
+        <v>-16517.128842625083</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -8854,15 +7546,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>6.4399800000000001E-18</v>
+        <v>74812.899999999994</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>-3.2427625396825385E-18</v>
+        <v>-17914.433333333334</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
-        <v>-2.8976835663432321E-18</v>
+        <v>-18013.491822963035</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -8870,15 +7562,15 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>6.2451699999999997E-18</v>
+        <v>73207.5</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>-3.4375725396825389E-18</v>
+        <v>-19519.833333333328</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1314105056893539E-18</v>
+        <v>-19466.458723703927</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -8886,15 +7578,15 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>6.0732600000000001E-18</v>
+        <v>71766.100000000006</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
-        <v>-3.6094825396825385E-18</v>
+        <v>-20961.233333333323</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>-3.3575936028481059E-18</v>
+        <v>-20872.529220319022</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -8902,15 +7594,15 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>5.9037599999999996E-18</v>
+        <v>70490.8</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>-3.778982539682539E-18</v>
+        <v>-22236.533333333326</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
-        <v>-3.5756879629271288E-18</v>
+        <v>-22228.31596582472</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -8918,15 +7610,15 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>5.7431099999999996E-18</v>
+        <v>69358.2</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>-3.939632539682539E-18</v>
+        <v>-23369.133333333331</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>-3.7851681775101857E-18</v>
+        <v>-23530.552751198222</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -8934,15 +7626,15 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>5.5930300000000002E-18</v>
+        <v>68107</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>-4.0897125396825385E-18</v>
+        <v>-24620.333333333328</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="0"/>
-        <v>-3.9855295904120436E-18</v>
+        <v>-24776.102373961079</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -8950,15 +7642,15 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>5.4527000000000003E-18</v>
+        <v>66760.7</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>-4.2300425396825384E-18</v>
+        <v>-25966.633333333331</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="0"/>
-        <v>-4.1762895134394361E-18</v>
+        <v>-25961.964195974797</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -8966,15 +7658,15 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>5.3282099999999996E-18</v>
+        <v>65447.1</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
-        <v>-4.354532539682539E-18</v>
+        <v>-27280.23333333333</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
-        <v>-4.3569883892291965E-18</v>
+        <v>-27085.28137224093</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -8982,15 +7674,15 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>5.2147100000000002E-18</v>
+        <v>64617.5</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
-        <v>-4.4680325396825385E-18</v>
+        <v>-28109.833333333328</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
-        <v>-4.5271908983621909E-18</v>
+        <v>-28143.347733290866</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -8998,15 +7690,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>5.1125100000000001E-18</v>
+        <v>63727</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>-4.5702325396825386E-18</v>
+        <v>-29000.333333333328</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="0"/>
-        <v>-4.6864870080859428E-18</v>
+        <v>-29133.614304585193</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -9014,15 +7706,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>5.0122900000000002E-18</v>
+        <v>62840.9</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>-4.6704525396825385E-18</v>
+        <v>-29886.433333333327</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
-        <v>-4.8344929601194323E-18</v>
+        <v>-30053.695447216527</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -9030,15 +7722,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4.9224000000000001E-18</v>
+        <v>61854</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
-        <v>-4.7603425396825386E-18</v>
+        <v>-30873.333333333328</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="0"/>
-        <v>-4.9708521951604237E-18</v>
+        <v>-30901.374605122703</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -9046,15 +7738,15 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4.8460600000000002E-18</v>
+        <v>60744.5</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>-4.8366825396825384E-18</v>
+        <v>-31982.833333333328</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="0"/>
-        <v>-5.0952362118680439E-18</v>
+        <v>-31674.609644964392</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -9062,15 +7754,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4.7812700000000001E-18</v>
+        <v>59795.4</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
-        <v>-4.9014725396825385E-18</v>
+        <v>-32931.933333333327</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="0"/>
-        <v>-5.2073453582512905E-18</v>
+        <v>-32371.537775803219</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -9078,15 +7770,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4.72019E-18</v>
+        <v>59411.1</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
-        <v>-4.9625525396825387E-18</v>
+        <v>-33316.23333333333</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="0"/>
-        <v>-5.3069095535569253E-18</v>
+        <v>-32990.480036728302</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -9094,15 +7786,15 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4.6725100000000001E-18</v>
+        <v>59241.4</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>-5.0102325396825385E-18</v>
+        <v>-33485.933333333327</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="0"/>
-        <v>-5.3936889389176635E-18</v>
+        <v>-33529.945341620143</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -9110,15 +7802,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4.6281E-18</v>
+        <v>58560.4</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>-5.0546425396825386E-18</v>
+        <v>-34166.933333333327</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>-5.4674744551931949E-18</v>
+        <v>-33988.634071307664</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -9126,15 +7818,15 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4.5871999999999998E-18</v>
+        <v>58295.1</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>-5.0955425396825389E-18</v>
+        <v>-34432.23333333333</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>-5.5280883466119628E-18</v>
+        <v>-34365.441204464667</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -9142,15 +7834,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4.56847E-18</v>
+        <v>57782.6</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1142725396825386E-18</v>
+        <v>-34944.73333333333</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="0"/>
-        <v>-5.5753845890003908E-18</v>
+        <v>-34659.458979702969</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -9158,15 +7850,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4.5392400000000002E-18</v>
+        <v>57312.4</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1435025396825385E-18</v>
+        <v>-35414.933333333327</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="0"/>
-        <v>-5.6092492415679024E-18</v>
+        <v>-34869.979082449099</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -9174,85 +7866,30 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4.5278200000000001E-18</v>
+        <v>57547.6</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1549225396825385E-18</v>
+        <v>-35179.73333333333</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="0"/>
-        <v>-5.6296007214002705E-18</v>
+        <v>-34996.494351336172</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
         <f>AVERAGE(B1:B64)</f>
-        <v>9.6827425396825387E-18</v>
+        <v>92727.333333333328</v>
       </c>
       <c r="E66" s="1">
         <f>(C2-C64)/2</f>
-        <v>5.636389999999999E-18</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
+        <v>35038.699999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9264,8 +7901,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F9E9FA-4D2C-494A-B466-BD644580AA12}">
-  <dimension ref="A1:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C2417-B0D5-432A-818E-FCEA0859508F}">
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C64"/>
@@ -9285,8 +7922,8 @@
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <f>1/SQRT(1+3*SIN(B1)^2)*$C$66</f>
-        <v>3.38886E-17</v>
+        <f>9/(17-8*COS(B1))*$C$68+$C$69</f>
+        <v>174466</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -9298,11 +7935,11 @@
         <v>4.9087385212340517E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>3.3901800000000002E-17</v>
+        <v>174466</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D64" si="1">1/SQRT(1+3*SIN(B2)^2)*$C$66</f>
-        <v>3.3766871874213537E-17</v>
+        <f t="shared" ref="D2:D64" si="1">9/(17-8*COS(B2))*$C$68+$C$69</f>
+        <v>174259.65539192894</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -9314,11 +7951,11 @@
         <v>9.8174770424681035E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>3.4287100000000003E-17</v>
+        <v>174204</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>3.3410539592089367E-17</v>
+        <v>173643.75487380585</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -9330,11 +7967,11 @@
         <v>0.14726215563702155</v>
       </c>
       <c r="C4" s="1">
-        <v>3.4005399999999999E-17</v>
+        <v>174340</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>3.2844491253479129E-17</v>
+        <v>172627.58192622059</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -9346,11 +7983,11 @@
         <v>0.19634954084936207</v>
       </c>
       <c r="C5" s="1">
-        <v>3.3858200000000001E-17</v>
+        <v>172518</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>3.2105231944716631E-17</v>
+        <v>171226.22890623775</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -9362,11 +7999,11 @@
         <v>0.24543692606170259</v>
       </c>
       <c r="C6" s="1">
-        <v>3.3014100000000001E-17</v>
+        <v>170578</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>3.1235150886538631E-17</v>
+        <v>169460.0540571328</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -9378,11 +8015,11 @@
         <v>0.2945243112740431</v>
       </c>
       <c r="C7" s="1">
-        <v>3.2152200000000001E-17</v>
+        <v>168806</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>3.0277047431631192E-17</v>
+        <v>167353.97265512458</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -9394,11 +8031,11 @@
         <v>0.34361169648638362</v>
       </c>
       <c r="C8" s="1">
-        <v>3.1341799999999998E-17</v>
+        <v>165915</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>2.9270002435515433E-17</v>
+        <v>164936.62706324577</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -9410,11 +8047,11 @@
         <v>0.39269908169872414</v>
       </c>
       <c r="C9" s="1">
-        <v>3.0204399999999999E-17</v>
+        <v>162628</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>2.8246975692360111E-17</v>
+        <v>162239.48500827883</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -9426,11 +8063,11 @@
         <v>0.44178646691106466</v>
       </c>
       <c r="C10" s="1">
-        <v>2.9132399999999998E-17</v>
+        <v>159315</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>2.7233949865958356E-17</v>
+        <v>159295.91548190705</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -9442,11 +8079,11 @@
         <v>0.49087385212340517</v>
       </c>
       <c r="C11" s="1">
-        <v>2.8758500000000003E-17</v>
+        <v>156077</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>2.6250170064496813E-17</v>
+        <v>156140.28778029344</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -9458,11 +8095,11 @@
         <v>0.53996123733574564</v>
       </c>
       <c r="C12" s="1">
-        <v>2.7845799999999997E-17</v>
+        <v>153375</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>2.5309000900882867E-17</v>
+        <v>152807.13223695991</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -9474,11 +8111,11 @@
         <v>0.58904862254808621</v>
       </c>
       <c r="C13" s="1">
-        <v>2.70081E-17</v>
+        <v>150024</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>2.4419025124599475E-17</v>
+        <v>149330.39229412991</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -9490,11 +8127,11 @@
         <v>0.63813600776042678</v>
       </c>
       <c r="C14" s="1">
-        <v>2.63362E-17</v>
+        <v>147363</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>2.3585142667739242E-17</v>
+        <v>145742.78785007828</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -9506,11 +8143,11 @@
         <v>0.68722339297276724</v>
       </c>
       <c r="C15" s="1">
-        <v>2.56026E-17</v>
+        <v>144581</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>2.2809543793700854E-17</v>
+        <v>142075.30033839235</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -9522,11 +8159,11 @@
         <v>0.73631077818510771</v>
       </c>
       <c r="C16" s="1">
-        <v>2.4917899999999999E-17</v>
+        <v>140911</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>2.2092508809062937E-17</v>
+        <v>138356.78152970684</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -9538,11 +8175,11 @@
         <v>0.78539816339744828</v>
       </c>
       <c r="C17" s="1">
-        <v>2.43123E-17</v>
+        <v>136624</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>2.143303254287643E-17</v>
+        <v>134613.68110835517</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -9554,11 +8191,11 @@
         <v>0.83448554860978885</v>
       </c>
       <c r="C18" s="1">
-        <v>2.3592500000000001E-17</v>
+        <v>133281</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>2.082929390076149E-17</v>
+        <v>130869.88290283701</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -9570,11 +8207,11 @@
         <v>0.88357293382212931</v>
       </c>
       <c r="C19" s="1">
-        <v>2.30978E-17</v>
+        <v>130642</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>2.0278998439227641E-17</v>
+        <v>127146.63624612463</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -9586,11 +8223,11 @@
         <v>0.93266031903446978</v>
       </c>
       <c r="C20" s="1">
-        <v>2.2749600000000001E-17</v>
+        <v>126485</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>1.9779621842377389E-17</v>
+        <v>123462.567146043</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -9602,11 +8239,11 @@
         <v>0.98174770424681035</v>
       </c>
       <c r="C21" s="1">
-        <v>2.1953100000000001E-17</v>
+        <v>122361</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>1.9328578685616474E-17</v>
+        <v>119833.75348962654</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -9618,11 +8255,11 @@
         <v>1.0308350894591509</v>
       </c>
       <c r="C22" s="1">
-        <v>2.1742399999999999E-17</v>
+        <v>118586</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>1.8923336327698345E-17</v>
+        <v>116273.84907558729</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -9634,11 +8271,11 @@
         <v>1.0799224746714913</v>
       </c>
       <c r="C23" s="1">
-        <v>2.1304999999999999E-17</v>
+        <v>115318</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>1.8561489364362411E-17</v>
+        <v>112794.24255342947</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -9650,11 +8287,11 @@
         <v>1.1290098598838318</v>
       </c>
       <c r="C24" s="1">
-        <v>2.13167E-17</v>
+        <v>112231</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>1.8240806288972312E-17</v>
+        <v>109404.23906537874</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -9666,11 +8303,11 @@
         <v>1.1780972450961724</v>
       </c>
       <c r="C25" s="1">
-        <v>2.1015000000000001E-17</v>
+        <v>109063</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>1.7959256959508547E-17</v>
+        <v>106111.25430576445</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -9682,11 +8319,11 @@
         <v>1.227184630308513</v>
       </c>
       <c r="C26" s="1">
-        <v>2.0659999999999999E-17</v>
+        <v>106139</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>1.7715027120393864E-17</v>
+        <v>102921.01265395676</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -9698,11 +8335,11 @@
         <v>1.2762720155208536</v>
       </c>
       <c r="C27" s="1">
-        <v>2.0491499999999999E-17</v>
+        <v>102960</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>1.750652446235099E-17</v>
+        <v>99837.742876300937</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -9714,11 +8351,11 @@
         <v>1.3253594007331939</v>
       </c>
       <c r="C28" s="1">
-        <v>2.04282E-17</v>
+        <v>99938.5</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>1.7332379403159998E-17</v>
+        <v>96864.366550697567</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -9730,11 +8367,11 @@
         <v>1.3744467859455345</v>
       </c>
       <c r="C29" s="1">
-        <v>2.01738E-17</v>
+        <v>97201.1</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>1.7191442827565747E-17</v>
+        <v>94002.675802886049</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -9746,11 +8383,11 @@
         <v>1.4235341711578751</v>
       </c>
       <c r="C30" s="1">
-        <v>2.01072E-17</v>
+        <v>94019.9</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>1.7082782345290657E-17</v>
+        <v>91253.498142523371</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -9762,11 +8399,11 @@
         <v>1.4726215563702154</v>
       </c>
       <c r="C31" s="1">
-        <v>2.0035099999999999E-17</v>
+        <v>91101.9</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>1.7005678140937541E-17</v>
+        <v>88616.847155871699</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -9778,11 +8415,11 @@
         <v>1.521708941582556</v>
       </c>
       <c r="C32" s="1">
-        <v>1.9794199999999999E-17</v>
+        <v>88725.4</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>1.6959619143995944E-17</v>
+        <v>86092.058568844557</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -9794,11 +8431,11 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="C33" s="1">
-        <v>1.9784699999999999E-17</v>
+        <v>86510</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>1.69443E-17</v>
+        <v>83677.911764705888</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -9810,11 +8447,11 @@
         <v>1.6198837120072371</v>
       </c>
       <c r="C34" s="1">
-        <v>1.9768500000000001E-17</v>
+        <v>83942.8</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>1.6959619143995944E-17</v>
+        <v>81372.73725297823</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -9826,11 +8463,11 @@
         <v>1.6689710972195777</v>
       </c>
       <c r="C35" s="1">
-        <v>1.9807400000000001E-17</v>
+        <v>81553.600000000006</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>1.7005678140937541E-17</v>
+        <v>79174.510868107929</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -9842,11 +8479,11 @@
         <v>1.7180584824319181</v>
       </c>
       <c r="C36" s="1">
-        <v>2.00378E-17</v>
+        <v>79568.100000000006</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>1.7082782345290657E-17</v>
+        <v>77080.935654254063</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -9858,11 +8495,11 @@
         <v>1.7671458676442586</v>
       </c>
       <c r="C37" s="1">
-        <v>2.01714E-17</v>
+        <v>77341.8</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>1.7191442827565747E-17</v>
+        <v>75089.512489427507</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -9874,11 +8511,11 @@
         <v>1.8162332528565992</v>
       </c>
       <c r="C38" s="1">
-        <v>2.0007799999999999E-17</v>
+        <v>75306.600000000006</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>1.7332379403159998E-17</v>
+        <v>73197.600538004801</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -9890,11 +8527,11 @@
         <v>1.8653206380689396</v>
       </c>
       <c r="C39" s="1">
-        <v>2.04713E-17</v>
+        <v>73506.399999999994</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>1.750652446235099E-17</v>
+        <v>71402.468611923512</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -9906,11 +8543,11 @@
         <v>1.9144080232812801</v>
       </c>
       <c r="C40" s="1">
-        <v>2.0652299999999999E-17</v>
+        <v>71896.399999999994</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>1.7715027120393864E-17</v>
+        <v>69701.338481033163</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -9922,11 +8559,11 @@
         <v>1.9634954084936207</v>
       </c>
       <c r="C41" s="1">
-        <v>2.07472E-17</v>
+        <v>70192.3</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
-        <v>1.7959256959508547E-17</v>
+        <v>68091.421112713229</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -9938,11 +8575,11 @@
         <v>2.012582793705961</v>
       </c>
       <c r="C42" s="1">
-        <v>2.1116800000000002E-17</v>
+        <v>68523.5</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>1.8240806288972312E-17</v>
+        <v>66569.946748135975</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -9954,11 +8591,11 @@
         <v>2.0616701789183018</v>
       </c>
       <c r="C43" s="1">
-        <v>2.1406099999999999E-17</v>
+        <v>67014.7</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>1.8561489364362408E-17</v>
+        <v>65134.189643584759</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -9970,11 +8607,11 @@
         <v>2.1107575641306422</v>
       </c>
       <c r="C44" s="1">
-        <v>2.1576999999999999E-17</v>
+        <v>65478.9</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>1.8923336327698345E-17</v>
+        <v>63781.488224514876</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -9986,11 +8623,11 @@
         <v>2.1598449493429825</v>
       </c>
       <c r="C45" s="1">
-        <v>2.21709E-17</v>
+        <v>64243.4</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
-        <v>1.9328578685616471E-17</v>
+        <v>62509.261320728721</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -10002,11 +8639,11 @@
         <v>2.2089323345553233</v>
       </c>
       <c r="C46" s="1">
-        <v>2.27164E-17</v>
+        <v>62941.599999999999</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>1.9779621842377386E-17</v>
+        <v>61315.021075262965</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -10018,11 +8655,11 @@
         <v>2.2580197197676637</v>
       </c>
       <c r="C47" s="1">
-        <v>2.3043300000000001E-17</v>
+        <v>61967</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
-        <v>2.0278998439227641E-17</v>
+        <v>60196.383048699819</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -10034,11 +8671,11 @@
         <v>2.3071071049800045</v>
       </c>
       <c r="C48" s="1">
-        <v>2.3948300000000001E-17</v>
+        <v>61068</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>2.0829293900761493E-17</v>
+        <v>59151.073975374602</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -10050,11 +8687,11 @@
         <v>2.3561944901923448</v>
       </c>
       <c r="C49" s="1">
-        <v>2.4244600000000001E-17</v>
+        <v>59909.9</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
-        <v>2.143303254287643E-17</v>
+        <v>58176.937568687616</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -10066,11 +8703,11 @@
         <v>2.4052818754046852</v>
       </c>
       <c r="C50" s="1">
-        <v>2.4743799999999999E-17</v>
+        <v>58879</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
-        <v>2.2092508809062934E-17</v>
+        <v>57271.938719461003</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -10082,11 +8719,11 @@
         <v>2.454369260617026</v>
       </c>
       <c r="C51" s="1">
-        <v>2.5595800000000001E-17</v>
+        <v>57915.5</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>2.2809543793700854E-17</v>
+        <v>56434.166383827454</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -10098,11 +8735,11 @@
         <v>2.5034566458293663</v>
       </c>
       <c r="C52" s="1">
-        <v>2.60547E-17</v>
+        <v>57034.2</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>2.3585142667739239E-17</v>
+        <v>55661.835415175286</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -10114,11 +8751,11 @@
         <v>2.5525440310417071</v>
       </c>
       <c r="C53" s="1">
-        <v>2.6914399999999999E-17</v>
+        <v>56111.1</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="1"/>
-        <v>2.4419025124599475E-17</v>
+        <v>54953.28755780065</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -10130,11 +8767,11 @@
         <v>2.6016314162540475</v>
       </c>
       <c r="C54" s="1">
-        <v>2.7818299999999999E-17</v>
+        <v>55261.2</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="1"/>
-        <v>2.5309000900882867E-17</v>
+        <v>54306.991787690946</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -10146,11 +8783,11 @@
         <v>2.6507188014663878</v>
       </c>
       <c r="C55" s="1">
-        <v>2.8870499999999997E-17</v>
+        <v>54536.9</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="1"/>
-        <v>2.6250170064496807E-17</v>
+        <v>53721.544157823562</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -10162,11 +8799,11 @@
         <v>2.6998061866787286</v>
       </c>
       <c r="C56" s="1">
-        <v>2.9211499999999999E-17</v>
+        <v>53947.9</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="1"/>
-        <v>2.7233949865958356E-17</v>
+        <v>53195.667281060218</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -10178,11 +8815,11 @@
         <v>2.748893571891069</v>
       </c>
       <c r="C57" s="1">
-        <v>2.9691899999999998E-17</v>
+        <v>53330.400000000001</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="1"/>
-        <v>2.8246975692360104E-17</v>
+        <v>52728.209562715114</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -10194,11 +8831,11 @@
         <v>2.7979809571034093</v>
       </c>
       <c r="C58" s="1">
-        <v>3.0627000000000002E-17</v>
+        <v>52769.9</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
-        <v>2.9270002435515433E-17</v>
+        <v>52318.144276766383</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -10210,11 +8847,11 @@
         <v>2.8470683423157501</v>
       </c>
       <c r="C59" s="1">
-        <v>3.1949499999999998E-17</v>
+        <v>52292.2</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
-        <v>3.0277047431631192E-17</v>
+        <v>51964.568564084533</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -10226,11 +8863,11 @@
         <v>2.8961557275280905</v>
       </c>
       <c r="C60" s="1">
-        <v>3.2651399999999999E-17</v>
+        <v>51957.599999999999</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
-        <v>3.1235150886538625E-17</v>
+        <v>51666.702417624052</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -10242,11 +8879,11 @@
         <v>2.9452431127404308</v>
       </c>
       <c r="C61" s="1">
-        <v>3.2767500000000001E-17</v>
+        <v>51599.6</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
-        <v>3.2105231944716625E-17</v>
+        <v>51423.887707942646</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -10258,11 +8895,11 @@
         <v>2.9943304979527716</v>
       </c>
       <c r="C62" s="1">
-        <v>3.3378499999999998E-17</v>
+        <v>51302.2</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
-        <v>3.2844491253479129E-17</v>
+        <v>51235.587292392724</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -10274,11 +8911,11 @@
         <v>3.043417883165112</v>
       </c>
       <c r="C63" s="1">
-        <v>3.3875399999999998E-17</v>
+        <v>51112.3</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
-        <v>3.3410539592089367E-17</v>
+        <v>51101.38424260552</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -10290,17 +8927,34 @@
         <v>3.0925052683774528</v>
       </c>
       <c r="C64" s="1">
-        <v>3.3830300000000001E-17</v>
+        <v>50994.2</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
-        <v>3.3766871874213537E-17</v>
+        <v>51020.981217222405</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C66" s="1">
-        <f>(C2+C63)/2</f>
-        <v>3.38886E-17</v>
+        <f>(C2+C64)/2</f>
+        <v>112730.1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C68" s="1">
+        <f>(C2-C64)/(16/25)</f>
+        <v>192924.6875</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C69" s="1">
+        <f>C2-C68*1</f>
+        <v>-18458.6875</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10312,11 +8966,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A438852-BB01-4038-879D-F9004F28792F}">
-  <dimension ref="A1:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F9E9FA-4D2C-494A-B466-BD644580AA12}">
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10333,8 +8987,8 @@
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <f>1/(5-4*COS(B1))*$C$2</f>
-        <v>3.4639399999999998E-17</v>
+        <f>1/SQRT(1+3*SIN(B1)^2)*$C$66</f>
+        <v>356710</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -10346,11 +9000,11 @@
         <v>4.9087385212340517E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>3.4639399999999998E-17</v>
+        <v>362197</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D64" si="1">1/(5-4*COS(B2))*$C$2</f>
-        <v>3.4473301593911331E-17</v>
+        <f t="shared" ref="D2:D64" si="1">1/SQRT(1+3*SIN(B2)^2)*$C$66</f>
+        <v>355428.69478971424</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -10362,11 +9016,11 @@
         <v>9.8174770424681035E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>3.83774E-17</v>
+        <v>359840</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>3.3984815301317017E-17</v>
+        <v>351677.95594666636</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -10378,11 +9032,11 @@
         <v>0.14726215563702155</v>
       </c>
       <c r="C4" s="1">
-        <v>3.7644899999999999E-17</v>
+        <v>355168</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>3.3201955846962478E-17</v>
+        <v>345719.75457907794</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -10394,11 +9048,11 @@
         <v>0.19634954084936207</v>
       </c>
       <c r="C5" s="1">
-        <v>3.3831500000000001E-17</v>
+        <v>346462</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>3.2167074716310991E-17</v>
+        <v>337938.34171372879</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -10410,11 +9064,11 @@
         <v>0.24543692606170259</v>
       </c>
       <c r="C6" s="1">
-        <v>3.2879999999999998E-17</v>
+        <v>334780</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>3.0931488242212745E-17</v>
+        <v>328779.90453241486</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -10426,11 +9080,11 @@
         <v>0.2945243112740431</v>
       </c>
       <c r="C7" s="1">
-        <v>3.3443000000000003E-17</v>
+        <v>323287</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>2.9549784756754613E-17</v>
+        <v>318694.94724884367</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -10442,11 +9096,11 @@
         <v>0.34361169648638362</v>
       </c>
       <c r="C8" s="1">
-        <v>3.1834500000000001E-17</v>
+        <v>312267</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>2.8074836702812283E-17</v>
+        <v>308094.83332957723</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -10458,11 +9112,11 @@
         <v>0.39269908169872414</v>
       </c>
       <c r="C9" s="1">
-        <v>2.9503200000000002E-17</v>
+        <v>300795</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>2.6554144444490314E-17</v>
+        <v>297326.49620290525</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -10474,11 +9128,11 @@
         <v>0.44178646691106466</v>
       </c>
       <c r="C10" s="1">
-        <v>2.8326299999999997E-17</v>
+        <v>289044</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>2.5027693732869084E-17</v>
+        <v>286663.42831176281</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -10490,11 +9144,11 @@
         <v>0.49087385212340517</v>
       </c>
       <c r="C11" s="1">
-        <v>2.6913699999999999E-17</v>
+        <v>278384</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>2.3527167318341929E-17</v>
+        <v>276308.20286782744</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -10506,11 +9160,11 @@
         <v>0.53996123733574564</v>
       </c>
       <c r="C12" s="1">
-        <v>2.5160699999999999E-17</v>
+        <v>268656</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>2.2076170275905176E-17</v>
+        <v>266401.4952330261</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -10522,11 +9176,11 @@
         <v>0.58904862254808621</v>
       </c>
       <c r="C13" s="1">
-        <v>2.3604600000000001E-17</v>
+        <v>259039</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>2.0691090192141533E-17</v>
+        <v>257033.64707293539</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -10538,11 +9192,11 @@
         <v>0.63813600776042678</v>
       </c>
       <c r="C14" s="1">
-        <v>2.2068499999999999E-17</v>
+        <v>249633</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>1.9382264944389619E-17</v>
+        <v>248256.23486981654</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -10554,11 +9208,11 @@
         <v>0.68722339297276724</v>
       </c>
       <c r="C15" s="1">
-        <v>2.0596999999999999E-17</v>
+        <v>241394</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>1.8155219671062456E-17</v>
+        <v>240092.3132454876</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -10570,11 +9224,11 @@
         <v>0.73631077818510771</v>
       </c>
       <c r="C16" s="1">
-        <v>1.9150800000000001E-17</v>
+        <v>234526</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>1.7011824269405371E-17</v>
+        <v>232544.8326953855</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -10586,11 +9240,11 @@
         <v>0.78539816339744828</v>
       </c>
       <c r="C17" s="1">
-        <v>1.7795600000000001E-17</v>
+        <v>227753</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>1.595129520852548E-17</v>
+        <v>225603.21283173253</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -10602,11 +9256,11 @@
         <v>0.83448554860978885</v>
       </c>
       <c r="C18" s="1">
-        <v>1.65317E-17</v>
+        <v>221007</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>1.4971015754439951E-17</v>
+        <v>219248.28489051276</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -10618,11 +9272,11 @@
         <v>0.88357293382212931</v>
       </c>
       <c r="C19" s="1">
-        <v>1.53464E-17</v>
+        <v>215453</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>1.4067179218853793E-17</v>
+        <v>213455.89765457681</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -10634,11 +9288,11 @@
         <v>0.93266031903446978</v>
       </c>
       <c r="C20" s="1">
-        <v>1.42195E-17</v>
+        <v>210634</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>1.3235275553669124E-17</v>
+        <v>208199.48027933991</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -10650,11 +9304,11 @@
         <v>0.98174770424681035</v>
       </c>
       <c r="C21" s="1">
-        <v>1.31807E-17</v>
+        <v>206375</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>1.2470447569746026E-17</v>
+        <v>203451.81869260615</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -10666,11 +9320,11 @@
         <v>1.0308350894591509</v>
       </c>
       <c r="C22" s="1">
-        <v>1.22122E-17</v>
+        <v>201876</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>1.1767743297949983E-17</v>
+        <v>199186.25441751137</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -10682,11 +9336,11 @@
         <v>1.0799224746714913</v>
       </c>
       <c r="C23" s="1">
-        <v>1.1292899999999999E-17</v>
+        <v>197831</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>1.1122288345797361E-17</v>
+        <v>195377.46826843586</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -10698,11 +9352,11 @@
         <v>1.1290098598838318</v>
       </c>
       <c r="C24" s="1">
-        <v>1.04544E-17</v>
+        <v>194922</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>1.0529398298688246E-17</v>
+        <v>192001.97149894989</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -10714,11 +9368,11 @@
         <v>1.1780972450961724</v>
       </c>
       <c r="C25" s="1">
-        <v>9.7247700000000001E-18</v>
+        <v>192257</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>9.9846472708512736E-18</v>
+        <v>189038.39491824075</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -10730,11 +9384,11 @@
         <v>1.227184630308513</v>
       </c>
       <c r="C26" s="1">
-        <v>9.0911399999999998E-18</v>
+        <v>189004</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>9.4839051259823283E-18</v>
+        <v>186467.64174724527</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -10746,11 +9400,11 @@
         <v>1.2762720155208536</v>
       </c>
       <c r="C27" s="1">
-        <v>8.5704799999999997E-18</v>
+        <v>186638</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>9.023352857622451E-18</v>
+        <v>184272.95140446114</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -10762,11 +9416,11 @@
         <v>1.3253594007331939</v>
       </c>
       <c r="C28" s="1">
-        <v>8.1273900000000006E-18</v>
+        <v>185660</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>8.5994831751852904E-18</v>
+        <v>182439.9077241669</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -10778,11 +9432,11 @@
         <v>1.3744467859455345</v>
       </c>
       <c r="C29" s="1">
-        <v>7.7491400000000004E-18</v>
+        <v>184343</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>8.2090914328803793E-18</v>
+        <v>180956.41516678108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -10794,11 +9448,11 @@
         <v>1.4235341711578751</v>
       </c>
       <c r="C30" s="1">
-        <v>7.4200700000000003E-18</v>
+        <v>183197</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>7.8492605836502114E-18</v>
+        <v>179812.65943085964</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -10810,11 +9464,11 @@
         <v>1.4726215563702154</v>
       </c>
       <c r="C31" s="1">
-        <v>7.1398599999999995E-18</v>
+        <v>182147</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>7.5173427515036301E-18</v>
+        <v>179001.06376934514</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -10826,11 +9480,11 @@
         <v>1.521708941582556</v>
       </c>
       <c r="C32" s="1">
-        <v>6.8908400000000001E-18</v>
+        <v>181640</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>7.2109392135398246E-18</v>
+        <v>178516.24867521212</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -10842,11 +9496,11 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="C33" s="1">
-        <v>6.6691600000000002E-18</v>
+        <v>181349</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>6.9278799999999997E-18</v>
+        <v>178355</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -10858,11 +9512,11 @@
         <v>1.6198837120072371</v>
       </c>
       <c r="C34" s="1">
-        <v>6.4787999999999998E-18</v>
+        <v>180785</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>6.6662039023360097E-18</v>
+        <v>178516.24867521212</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -10874,11 +9528,11 @@
         <v>1.6689710972195777</v>
       </c>
       <c r="C35" s="1">
-        <v>6.3129599999999997E-18</v>
+        <v>181412</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>6.4241393828886E-18</v>
+        <v>179001.06376934514</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -10890,11 +9544,11 @@
         <v>1.7180584824319181</v>
       </c>
       <c r="C36" s="1">
-        <v>6.1686599999999997E-18</v>
+        <v>182708</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>6.2000866726823619E-18</v>
+        <v>179812.65943085964</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -10906,11 +9560,11 @@
         <v>1.7671458676442586</v>
       </c>
       <c r="C37" s="1">
-        <v>6.0393200000000002E-18</v>
+        <v>184443</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>5.9926012015070082E-18</v>
+        <v>180956.41516678108</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -10922,11 +9576,11 @@
         <v>1.8162332528565992</v>
       </c>
       <c r="C38" s="1">
-        <v>5.9254800000000003E-18</v>
+        <v>186240</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>5.8003784086143099E-18</v>
+        <v>182439.9077241669</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -10938,11 +9592,11 @@
         <v>1.8653206380689396</v>
       </c>
       <c r="C39" s="1">
-        <v>5.8167200000000003E-18</v>
+        <v>187335</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>5.6222399195946509E-18</v>
+        <v>184272.95140446114</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -10954,11 +9608,11 @@
         <v>1.9144080232812801</v>
       </c>
       <c r="C40" s="1">
-        <v>5.7242699999999997E-18</v>
+        <v>188697</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>5.4571210355200421E-18</v>
+        <v>186467.64174724527</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -10970,11 +9624,11 @@
         <v>1.9634954084936207</v>
       </c>
       <c r="C41" s="1">
-        <v>5.6432699999999999E-18</v>
+        <v>191144</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
-        <v>5.3040594571694911E-18</v>
+        <v>189038.39491824075</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -10986,11 +9640,11 @@
         <v>2.012582793705961</v>
       </c>
       <c r="C42" s="1">
-        <v>5.5679900000000002E-18</v>
+        <v>194025</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>5.1621851549997376E-18</v>
+        <v>192001.97149894989</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -11002,11 +9656,11 @@
         <v>2.0616701789183018</v>
       </c>
       <c r="C43" s="1">
-        <v>5.4996400000000001E-18</v>
+        <v>196742</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>5.0307112908599373E-18</v>
+        <v>195377.46826843583</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -11018,11 +9672,11 @@
         <v>2.1107575641306422</v>
       </c>
       <c r="C44" s="1">
-        <v>5.4331500000000002E-18</v>
+        <v>200754</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>4.9089260977032355E-18</v>
+        <v>199186.25441751137</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -11034,11 +9688,11 @@
         <v>2.1598449493429825</v>
       </c>
       <c r="C45" s="1">
-        <v>5.3758499999999998E-18</v>
+        <v>205803</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
-        <v>4.7961856269182218E-18</v>
+        <v>203451.81869260612</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -11050,11 +9704,11 @@
         <v>2.2089323345553233</v>
       </c>
       <c r="C46" s="1">
-        <v>5.3246000000000002E-18</v>
+        <v>211117</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>4.6919072781367576E-18</v>
+        <v>208199.48027933986</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -11066,11 +9720,11 @@
         <v>2.2580197197676637</v>
       </c>
       <c r="C47" s="1">
-        <v>5.2814199999999997E-18</v>
+        <v>216118</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
-        <v>4.5955640326130331E-18</v>
+        <v>213455.89765457681</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -11082,11 +9736,11 @@
         <v>2.3071071049800045</v>
       </c>
       <c r="C48" s="1">
-        <v>5.2411400000000003E-18</v>
+        <v>221736</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>4.5066793179340355E-18</v>
+        <v>219248.28489051279</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -11098,11 +9752,11 @@
         <v>2.3561944901923448</v>
       </c>
       <c r="C49" s="1">
-        <v>5.2018600000000003E-18</v>
+        <v>228131</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
-        <v>4.4248224385333422E-18</v>
+        <v>225603.21283173253</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -11114,11 +9768,11 @@
         <v>2.4052818754046852</v>
       </c>
       <c r="C50" s="1">
-        <v>5.1664700000000002E-18</v>
+        <v>234462</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
-        <v>4.3496045129968067E-18</v>
+        <v>232544.83269538544</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -11130,11 +9784,11 @@
         <v>2.454369260617026</v>
       </c>
       <c r="C51" s="1">
-        <v>5.1325499999999997E-18</v>
+        <v>240933</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>4.2806748653251969E-18</v>
+        <v>240092.3132454876</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -11146,11 +9800,11 @@
         <v>2.5034566458293663</v>
       </c>
       <c r="C52" s="1">
-        <v>5.1042600000000001E-18</v>
+        <v>248581</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>4.2177178230761004E-18</v>
+        <v>248256.23486981652</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -11162,11 +9816,11 @@
         <v>2.5525440310417071</v>
       </c>
       <c r="C53" s="1">
-        <v>5.0759000000000001E-18</v>
+        <v>257294</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="1"/>
-        <v>4.1604498806112161E-18</v>
+        <v>257033.64707293539</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -11178,11 +9832,11 @@
         <v>2.6016314162540475</v>
       </c>
       <c r="C54" s="1">
-        <v>5.053E-18</v>
+        <v>266713</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="1"/>
-        <v>4.1086171905209758E-18</v>
+        <v>266401.4952330261</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -11194,11 +9848,11 @@
         <v>2.6507188014663878</v>
       </c>
       <c r="C55" s="1">
-        <v>5.0269700000000003E-18</v>
+        <v>276621</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="1"/>
-        <v>4.0619933507004899E-18</v>
+        <v>276308.20286782744</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -11210,11 +9864,11 @@
         <v>2.6998061866787286</v>
       </c>
       <c r="C56" s="1">
-        <v>5.0125000000000001E-18</v>
+        <v>286839</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="1"/>
-        <v>4.0203774585353569E-18</v>
+        <v>286663.42831176281</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -11226,11 +9880,11 @@
         <v>2.748893571891069</v>
       </c>
       <c r="C57" s="1">
-        <v>4.9944699999999999E-18</v>
+        <v>297753</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="1"/>
-        <v>3.9835924072554545E-18</v>
+        <v>297326.4962029052</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -11242,11 +9896,11 @@
         <v>2.7979809571034093</v>
       </c>
       <c r="C58" s="1">
-        <v>4.9859700000000003E-18</v>
+        <v>309217</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
-        <v>3.9514834027655276E-18</v>
+        <v>308094.83332957717</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -11258,11 +9912,11 @@
         <v>2.8470683423157501</v>
       </c>
       <c r="C59" s="1">
-        <v>4.97886E-18</v>
+        <v>320239</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
-        <v>3.9239166822001441E-18</v>
+        <v>318694.94724884367</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -11274,11 +9928,11 @@
         <v>2.8961557275280905</v>
       </c>
       <c r="C60" s="1">
-        <v>4.9674000000000002E-18</v>
+        <v>330722</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
-        <v>3.9007784181140654E-18</v>
+        <v>328779.9045324148</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -11290,11 +9944,11 @@
         <v>2.9452431127404308</v>
       </c>
       <c r="C61" s="1">
-        <v>4.95486E-18</v>
+        <v>339798</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
-        <v>3.8819737946426963E-18</v>
+        <v>337938.34171372873</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -11306,11 +9960,11 @@
         <v>2.9943304979527716</v>
       </c>
       <c r="C62" s="1">
-        <v>4.9441400000000003E-18</v>
+        <v>346382</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
-        <v>3.8674262441848346E-18</v>
+        <v>345719.75457907794</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -11322,11 +9976,11 @@
         <v>3.043417883165112</v>
       </c>
       <c r="C63" s="1">
-        <v>4.9447799999999998E-18</v>
+        <v>351223</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
-        <v>3.8570768352034861E-18</v>
+        <v>351677.95594666636</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -11338,17 +9992,22 @@
         <v>3.0925052683774528</v>
       </c>
       <c r="C64" s="1">
-        <v>4.9470899999999999E-18</v>
+        <v>354608</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
-        <v>3.8508838036401225E-18</v>
+        <v>355428.69478971424</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C66" s="1">
-        <f>(C2+C64)/2</f>
-        <v>1.9793244999999998E-17</v>
+        <f>(C2+C63)/2</f>
+        <v>356710</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11360,1070 +10019,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C2417-B0D5-432A-818E-FCEA0859508F}">
-  <dimension ref="A1:D69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <f>A1/64*PI()</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <f>9/(17-8*COS(B1))*$C$68+$C$69</f>
-        <v>1.73842E-17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B64" si="0">A2/64*PI()</f>
-        <v>4.9087385212340517E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.73842E-17</v>
-      </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:D64" si="1">9/(17-8*COS(B2))*$C$68+$C$69</f>
-        <v>1.7363746328326132E-17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
-        <v>9.8174770424681035E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.7462799999999999E-17</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7302695898662769E-17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.14726215563702155</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.7330499999999999E-17</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7201968925333668E-17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.19634954084936207</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.72601E-17</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7063061420854349E-17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.24543692606170259</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.7189499999999999E-17</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6887991372647425E-17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.2945243112740431</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.6958799999999999E-17</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6679228478778716E-17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.34361169648638362</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.6669599999999999E-17</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6439611880502796E-17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.39269908169872414</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.6366800000000001E-17</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6172260780002594E-17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.44178646691106466</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.6088499999999999E-17</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5880482840155086E-17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.49087385212340517</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.58567E-17</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>1.556768487786694E-17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.53996123733574564</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.5573099999999999E-17</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5237289672687627E-17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.58904862254808621</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.52574E-17</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4892661829242433E-17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.63813600776042678</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.4885700000000001E-17</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4537044669771624E-17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.68722339297276724</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.4515E-17</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4173509193205122E-17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.73631077818510771</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.4159900000000001E-17</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3804915298084923E-17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.3828600000000001E-17</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3433884778914367E-17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.83448554860978885</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.34448E-17</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3062785092691789E-17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0.88357293382212931</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.3063000000000001E-17</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="1"/>
-        <v>1.269372255507994E-17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.93266031903446978</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.2684500000000001E-17</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2328543447657039E-17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0.98174770424681035</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.23144E-17</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1968841472462046E-17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>1.0308350894591509</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.1986900000000001E-17</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1615970046570254E-17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>1.0799224746714913</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.16398E-17</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1271058056749988E-17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>1.1290098598838318</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.13268E-17</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0935027864509714E-17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>1.1780972450961724</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.10483E-17</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0608614542010816E-17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>1.227184630308513</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.0718899999999999E-17</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0292385511766871E-17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>1.2762720155208536</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1.0389300000000001E-17</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="1"/>
-        <v>9.9867599453725234E-18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>1.3253594007331939</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.0081000000000001E-17</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="1"/>
-        <v>9.6920274408730372E-18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>1.3744467859455345</v>
-      </c>
-      <c r="C29" s="1">
-        <v>9.7744300000000002E-18</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="1"/>
-        <v>9.4083656406687389E-18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>1.4235341711578751</v>
-      </c>
-      <c r="C30" s="1">
-        <v>9.4824699999999994E-18</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="1"/>
-        <v>9.1358565707015166E-18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>1.4726215563702154</v>
-      </c>
-      <c r="C31" s="1">
-        <v>9.2110099999999995E-18</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="1"/>
-        <v>8.8745015776939646E-18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>1.521708941582556</v>
-      </c>
-      <c r="C32" s="1">
-        <v>8.9367699999999993E-18</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="1"/>
-        <v>8.6242348162421573E-18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="C33" s="1">
-        <v>8.6917400000000003E-18</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="1"/>
-        <v>8.3849352941176479E-18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>1.6198837120072371</v>
-      </c>
-      <c r="C34" s="1">
-        <v>8.4471999999999992E-18</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="1"/>
-        <v>8.1564375249992349E-18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>1.6689710972195777</v>
-      </c>
-      <c r="C35" s="1">
-        <v>8.2167500000000006E-18</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9385408658071963E-18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>1.7180584824319181</v>
-      </c>
-      <c r="C36" s="1">
-        <v>8.0008500000000001E-18</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="1"/>
-        <v>7.7310176334386908E-18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>1.7671458676442586</v>
-      </c>
-      <c r="C37" s="1">
-        <v>7.7739599999999999E-18</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="1"/>
-        <v>7.5336201053042326E-18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>1.8162332528565992</v>
-      </c>
-      <c r="C38" s="1">
-        <v>7.5628300000000003E-18</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="1"/>
-        <v>7.346086511613508E-18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>1.8653206380689396</v>
-      </c>
-      <c r="C39" s="1">
-        <v>7.3826599999999995E-18</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="1"/>
-        <v>7.1681461264947293E-18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>1.9144080232812801</v>
-      </c>
-      <c r="C40" s="1">
-        <v>7.2089000000000002E-18</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9995235610832984E-18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>1.9634954084936207</v>
-      </c>
-      <c r="C41" s="1">
-        <v>7.0385599999999999E-18</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="1"/>
-        <v>6.839942355732218E-18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>2.012582793705961</v>
-      </c>
-      <c r="C42" s="1">
-        <v>6.8980700000000003E-18</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6891279612869988E-18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>2.0616701789183018</v>
-      </c>
-      <c r="C43" s="1">
-        <v>6.7641200000000003E-18</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5468101915403669E-18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>2.1107575641306422</v>
-      </c>
-      <c r="C44" s="1">
-        <v>6.63306E-18</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="1"/>
-        <v>6.4127252209803189E-18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>2.1598449493429825</v>
-      </c>
-      <c r="C45" s="1">
-        <v>6.4878799999999997E-18</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="1"/>
-        <v>6.2866171940831738E-18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>2.2089323345553233</v>
-      </c>
-      <c r="C46" s="1">
-        <v>6.3666499999999999E-18</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="1"/>
-        <v>6.1682395048921571E-18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>2.2580197197676637</v>
-      </c>
-      <c r="C47" s="1">
-        <v>6.2395200000000001E-18</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="1"/>
-        <v>6.0573557985956062E-18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>2.3071071049800045</v>
-      </c>
-      <c r="C48" s="1">
-        <v>6.13904E-18</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="1"/>
-        <v>5.953740740352127E-18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>2.3561944901923448</v>
-      </c>
-      <c r="C49" s="1">
-        <v>6.0401999999999996E-18</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8571805907354371E-18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>2.4052818754046852</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5.93E-18</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="1"/>
-        <v>5.7674736218916649E-18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>2.454369260617026</v>
-      </c>
-      <c r="C51" s="1">
-        <v>5.8332500000000001E-18</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="1"/>
-        <v>5.6844304037979859E-18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>2.5034566458293663</v>
-      </c>
-      <c r="C52" s="1">
-        <v>5.7445700000000002E-18</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="1"/>
-        <v>5.6078739858520767E-18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>2.5525440310417071</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5.6632200000000003E-18</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="1"/>
-        <v>5.5376399953667328E-18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>2.6016314162540475</v>
-      </c>
-      <c r="C54" s="1">
-        <v>5.5798499999999996E-18</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4735766713496495E-18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>2.6507188014663878</v>
-      </c>
-      <c r="C55" s="1">
-        <v>5.4981099999999998E-18</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4155448491688194E-18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>2.6998061866787286</v>
-      </c>
-      <c r="C56" s="1">
-        <v>5.4355900000000001E-18</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3634179092950451E-18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>2.748893571891069</v>
-      </c>
-      <c r="C57" s="1">
-        <v>5.3764399999999999E-18</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3170817012311336E-18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>2.7979809571034093</v>
-      </c>
-      <c r="C58" s="1">
-        <v>5.3211600000000001E-18</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="1"/>
-        <v>5.276434451942418E-18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>2.8470683423157501</v>
-      </c>
-      <c r="C59" s="1">
-        <v>5.2676799999999998E-18</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2413866665573091E-18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>2.8961557275280905</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5.23421E-18</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="1"/>
-        <v>5.2118610277755796E-18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>2.9452431127404308</v>
-      </c>
-      <c r="C61" s="1">
-        <v>5.2125100000000003E-18</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1877922992740862E-18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>2.9943304979527716</v>
-      </c>
-      <c r="C62" s="1">
-        <v>5.18784E-18</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1691272374063925E-18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>3.043417883165112</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5.1641099999999999E-18</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1558245146280283E-18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>3.0925052683774528</v>
-      </c>
-      <c r="C64" s="1">
-        <v>5.1452000000000002E-18</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1478546573192016E-18</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C66" s="1">
-        <f>(C2+C64)/2</f>
-        <v>1.12647E-17</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C68" s="1">
-        <f>(C2-C64)/(16/25)</f>
-        <v>1.91234375E-17</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C69" s="1">
-        <f>C2-C68*1</f>
-        <v>-1.7392375000000001E-18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E436C35-E985-4553-AA44-7B88433F5455}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>

--- a/verification/Verify.xlsx
+++ b/verification/Verify.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ChargeDistribution\verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E308DB-55F6-4C55-808E-D6381FC9C4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0D3015-D438-4AEB-9E5F-E931A8130313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="3" xr2:uid="{9E2554C6-F1FA-4E84-AA2F-1B670389EA7A}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="5" xr2:uid="{9E2554C6-F1FA-4E84-AA2F-1B670389EA7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3 (3)" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Sphere16" sheetId="1" r:id="rId1"/>
+    <sheet name="SphereUniform" sheetId="2" r:id="rId2"/>
+    <sheet name="SphereCharge" sheetId="5" r:id="rId3"/>
+    <sheet name="Ellipse" sheetId="3" r:id="rId4"/>
+    <sheet name="TwoSphere" sheetId="8" r:id="rId5"/>
+    <sheet name="DynTickDemo" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>nan</t>
   </si>
@@ -50,11 +51,29 @@
     <t>Averge cosOfAngle = 0.997307</t>
   </si>
   <si>
-    <t>nan</t>
+    <t>0, 64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0, 48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Averge cosOfAngle = 0.606875</t>
+  </si>
+  <si>
+    <t>Averge cosOfAngle = 0.825609</t>
+  </si>
+  <si>
+    <t>Averge cosOfAngle = 0.963718</t>
+  </si>
+  <si>
     <t>Averge cosOfAngle = 0.998161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -213,7 +232,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$16</c:f>
+              <c:f>Sphere16!$C$1:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -301,7 +320,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$16</c:f>
+              <c:f>Sphere16!$E$1:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -609,198 +628,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$1:$C$64</c:f>
+              <c:f>SphereUniform!$C$1:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="1">
-                  <c:v>34897.666666666672</c:v>
+                  <c:v>57737.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34837.666666666672</c:v>
+                  <c:v>57582.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34190.666666666672</c:v>
+                  <c:v>56776.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33414.666666666672</c:v>
+                  <c:v>55811.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33741.666666666672</c:v>
+                  <c:v>55887.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33552.666666666672</c:v>
+                  <c:v>55352.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32671.666666666672</c:v>
+                  <c:v>54091.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31915.666666666672</c:v>
+                  <c:v>52932.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31930.666666666672</c:v>
+                  <c:v>52451.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31050.666666666672</c:v>
+                  <c:v>51008.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30264.666666666672</c:v>
+                  <c:v>49615.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29077.666666666672</c:v>
+                  <c:v>47772.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28059.666666666672</c:v>
+                  <c:v>46075.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26867.666666666672</c:v>
+                  <c:v>44107.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25202.666666666672</c:v>
+                  <c:v>41697.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24104.666666666672</c:v>
+                  <c:v>39815.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22780.666666666672</c:v>
+                  <c:v>37634.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21228.666666666672</c:v>
+                  <c:v>35252.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20108.666666666672</c:v>
+                  <c:v>33286.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19324.666666666672</c:v>
+                  <c:v>31560.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18220.666666666672</c:v>
+                  <c:v>29426.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16741.666666666672</c:v>
+                  <c:v>26892.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15077.666666666672</c:v>
+                  <c:v>24233.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14135.666666666672</c:v>
+                  <c:v>22216.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12552.666666666672</c:v>
+                  <c:v>19439.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10486.666666666672</c:v>
+                  <c:v>16269.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8489.6666666666715</c:v>
+                  <c:v>13170.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6467.2666666666773</c:v>
+                  <c:v>10173.24920634921</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5125.7666666666773</c:v>
+                  <c:v>7784.4492063492071</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3756.3666666666686</c:v>
+                  <c:v>5321.9492063492071</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2435.9666666666744</c:v>
+                  <c:v>2870.0492063492129</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>899.86666666666861</c:v>
+                  <c:v>126.44920634920709</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1110.5333333333256</c:v>
+                  <c:v>-3014.4507936507871</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2816.0333333333256</c:v>
+                  <c:v>-5780.0507936507929</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-4475.3333333333285</c:v>
+                  <c:v>-8550.3507936507958</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6331.9333333333343</c:v>
+                  <c:v>-11478.650793650784</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-8039.2333333333227</c:v>
+                  <c:v>-14235.150793650784</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-9838.2333333333227</c:v>
+                  <c:v>-17006.75079365079</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-11159.333333333328</c:v>
+                  <c:v>-19346.650793650784</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-13039.733333333323</c:v>
+                  <c:v>-22277.650793650784</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-14974.133333333331</c:v>
+                  <c:v>-25087.25079365079</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-16234.933333333334</c:v>
+                  <c:v>-27235.850793650789</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-17914.433333333334</c:v>
+                  <c:v>-29837.25079365079</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-19519.833333333328</c:v>
+                  <c:v>-32250.850793650789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-20961.233333333323</c:v>
+                  <c:v>-34448.550793650793</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-22236.533333333326</c:v>
+                  <c:v>-36488.450793650787</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-23369.133333333331</c:v>
+                  <c:v>-38355.850793650789</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-24620.333333333328</c:v>
+                  <c:v>-40353.550793650793</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-25966.633333333331</c:v>
+                  <c:v>-42375.450793650787</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-27280.23333333333</c:v>
+                  <c:v>-44260.550793650793</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-28109.833333333328</c:v>
+                  <c:v>-45632.350793650789</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-29000.333333333328</c:v>
+                  <c:v>-47108.450793650787</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-29886.433333333327</c:v>
+                  <c:v>-48503.650793650791</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-30873.333333333328</c:v>
+                  <c:v>-49996.650793650791</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-31982.833333333328</c:v>
+                  <c:v>-51502.150793650791</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-32931.933333333327</c:v>
+                  <c:v>-52783.050793650793</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-33316.23333333333</c:v>
+                  <c:v>-53425.550793650793</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-33485.933333333327</c:v>
+                  <c:v>-53925.75079365079</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-34166.933333333327</c:v>
+                  <c:v>-54855.550793650793</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-34432.23333333333</c:v>
+                  <c:v>-55321.450793650787</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-34944.73333333333</c:v>
+                  <c:v>-55996.050793650793</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-35414.933333333327</c:v>
+                  <c:v>-56560.25079365079</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-35179.73333333333</c:v>
+                  <c:v>-56373.650793650791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,201 +848,201 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$1:$E$64</c:f>
+              <c:f>SphereUniform!$E$1:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>35038.699999999997</c:v>
+                  <c:v>57055.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34996.494351336172</c:v>
+                  <c:v>56986.724211741399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34869.979082449106</c:v>
+                  <c:v>56780.712413409194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34659.458979702969</c:v>
+                  <c:v>56437.91090547006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34365.441204464667</c:v>
+                  <c:v>55959.145526782493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33988.634071307664</c:v>
+                  <c:v>55345.569665078641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33529.945341620143</c:v>
+                  <c:v>54598.661478352253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32990.48003672831</c:v>
+                  <c:v>53720.220333846584</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32371.537775803219</c:v>
+                  <c:v>52712.362473221096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31674.609644964392</c:v>
+                  <c:v>51577.515914339965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30901.374605122706</c:v>
+                  <c:v>50318.414601964352</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30053.695447216531</c:v>
+                  <c:v>48938.091821440023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29133.61430458519</c:v>
+                  <c:v>47439.872891247251</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28143.347733290873</c:v>
+                  <c:v>45827.367152017359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27085.28137224093</c:v>
+                  <c:v>44104.459271314969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25961.964195974804</c:v>
+                  <c:v>42275.299885133601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24776.102373961083</c:v>
+                  <c:v>40344.295598650002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23530.552751198218</c:v>
+                  <c:v>38316.098370326312</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22228.315965824724</c:v>
+                  <c:v>36195.594304934668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20872.529220319026</c:v>
+                  <c:v>33987.891882502809</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19466.458723703938</c:v>
+                  <c:v>31698.309651538264</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18013.491822963035</c:v>
+                  <c:v>29332.363416179149</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16517.128842625087</c:v>
+                  <c:v>26895.752948138874</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14980.974652175628</c:v>
+                  <c:v>24394.348255456793</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13408.729981610672</c:v>
+                  <c:v>21834.175441134765</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11804.18250605398</c:v>
+                  <c:v>19221.40218572714</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10171.197720915929</c:v>
+                  <c:v>16562.322888858111</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8513.709629576495</c:v>
+                  <c:v>13863.343505461682</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6835.7112660265147</c:v>
+                  <c:v>11130.966113275108</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5141.2450752990835</c:v>
+                  <c:v>8371.7732487641697</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3434.3931748653808</c:v>
+                  <c:v>5592.4120492162374</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1719.2675204561053</c:v>
+                  <c:v>2799.5782392042884</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.1463804583503332E-12</c:v>
+                  <c:v>3.4950698205808012E-12</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1719.2675204561012</c:v>
+                  <c:v>-2799.5782392042815</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3434.3931748653763</c:v>
+                  <c:v>-5592.412049216231</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-5141.245075299079</c:v>
+                  <c:v>-8371.7732487641624</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6835.7112660265102</c:v>
+                  <c:v>-11130.966113275101</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-8513.7096295764914</c:v>
+                  <c:v>-13863.343505461677</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-10171.197720915923</c:v>
+                  <c:v>-16562.322888858103</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-11804.182506053976</c:v>
+                  <c:v>-19221.402185727133</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-13408.729981610668</c:v>
+                  <c:v>-21834.175441134757</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-14980.974652175615</c:v>
+                  <c:v>-24394.348255456774</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-16517.128842625083</c:v>
+                  <c:v>-26895.75294813887</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-18013.491822963035</c:v>
+                  <c:v>-29332.363416179149</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-19466.458723703927</c:v>
+                  <c:v>-31698.309651538246</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-20872.529220319022</c:v>
+                  <c:v>-33987.891882502809</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-22228.31596582472</c:v>
+                  <c:v>-36195.594304934661</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-23530.552751198222</c:v>
+                  <c:v>-38316.098370326319</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-24776.102373961079</c:v>
+                  <c:v>-40344.295598649995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-25961.964195974797</c:v>
+                  <c:v>-42275.299885133587</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-27085.28137224093</c:v>
+                  <c:v>-44104.459271314969</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-28143.347733290866</c:v>
+                  <c:v>-45827.367152017352</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-29133.614304585193</c:v>
+                  <c:v>-47439.872891247258</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-30053.695447216527</c:v>
+                  <c:v>-48938.091821440015</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-30901.374605122703</c:v>
+                  <c:v>-50318.414601964345</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-31674.609644964392</c:v>
+                  <c:v>-51577.515914339965</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-32371.537775803219</c:v>
+                  <c:v>-52712.362473221096</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-32990.480036728302</c:v>
+                  <c:v>-53720.220333846577</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-33529.945341620143</c:v>
+                  <c:v>-54598.661478352253</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-33988.634071307664</c:v>
+                  <c:v>-55345.569665078641</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-34365.441204464667</c:v>
+                  <c:v>-55959.145526782493</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-34659.458979702969</c:v>
+                  <c:v>-56437.91090547006</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-34869.979082449099</c:v>
+                  <c:v>-56780.712413409186</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-34996.494351336172</c:v>
+                  <c:v>-56986.724211741399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,198 +1285,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet3 (3)'!$C$2:$C$64</c:f>
+              <c:f>SphereCharge!$C$2:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>174466</c:v>
+                  <c:v>237583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174204</c:v>
+                  <c:v>236627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174340</c:v>
+                  <c:v>235581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>172518</c:v>
+                  <c:v>232078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170578</c:v>
+                  <c:v>228184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168806</c:v>
+                  <c:v>223990</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>165915</c:v>
+                  <c:v>218393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>162628</c:v>
+                  <c:v>212194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159315</c:v>
+                  <c:v>205848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156077</c:v>
+                  <c:v>199463</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>153375</c:v>
+                  <c:v>193489</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150024</c:v>
+                  <c:v>186717</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>147363</c:v>
+                  <c:v>180737</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>144581</c:v>
+                  <c:v>174331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140911</c:v>
+                  <c:v>167071</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>136624</c:v>
+                  <c:v>159483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133281</c:v>
+                  <c:v>153162</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130642</c:v>
+                  <c:v>147192</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>126485</c:v>
+                  <c:v>139829</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>122361</c:v>
+                  <c:v>132940</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>118586</c:v>
+                  <c:v>126595</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115318</c:v>
+                  <c:v>120951</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>112231</c:v>
+                  <c:v>115480</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>109063</c:v>
+                  <c:v>110113</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>106139</c:v>
+                  <c:v>105059</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>102960</c:v>
+                  <c:v>99874.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>99938.5</c:v>
+                  <c:v>95150.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97201.1</c:v>
+                  <c:v>90681.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>94019.9</c:v>
+                  <c:v>85953.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>91101.9</c:v>
+                  <c:v>81789</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>88725.4</c:v>
+                  <c:v>78223.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>86510</c:v>
+                  <c:v>74784.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83942.8</c:v>
+                  <c:v>71110.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>81553.600000000006</c:v>
+                  <c:v>67858.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>79568.100000000006</c:v>
+                  <c:v>64989.1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>77341.8</c:v>
+                  <c:v>61926.3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>75306.600000000006</c:v>
+                  <c:v>59262.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>73506.399999999994</c:v>
+                  <c:v>56845.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>71896.399999999994</c:v>
+                  <c:v>54634.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>70192.3</c:v>
+                  <c:v>52361.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>68523.5</c:v>
+                  <c:v>50238.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>67014.7</c:v>
+                  <c:v>48304.9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>65478.9</c:v>
+                  <c:v>46409.7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>64243.4</c:v>
+                  <c:v>44860</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62941.599999999999</c:v>
+                  <c:v>43273.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>61967</c:v>
+                  <c:v>42054.7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>61068</c:v>
+                  <c:v>40852.1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>59909.9</c:v>
+                  <c:v>39438.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>58879</c:v>
+                  <c:v>38210.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>57915.5</c:v>
+                  <c:v>37077.1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>57034.2</c:v>
+                  <c:v>36040.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>56111.1</c:v>
+                  <c:v>34982.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>55261.2</c:v>
+                  <c:v>34035.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54536.9</c:v>
+                  <c:v>33236.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>53947.9</c:v>
+                  <c:v>32570.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>53330.400000000001</c:v>
+                  <c:v>31886.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>52769.9</c:v>
+                  <c:v>31279.8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52292.2</c:v>
+                  <c:v>30768.1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51957.599999999999</c:v>
+                  <c:v>30402.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51599.6</c:v>
+                  <c:v>30019.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>51302.2</c:v>
+                  <c:v>29707.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51112.3</c:v>
+                  <c:v>29509.1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>50994.2</c:v>
+                  <c:v>29388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,198 +1505,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet3 (3)'!$D$2:$D$64</c:f>
+              <c:f>SphereCharge!$D$2:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>174259.65539192894</c:v>
+                  <c:v>237158.96651903394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173643.75487380585</c:v>
+                  <c:v>235894.65507294924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172627.58192622059</c:v>
+                  <c:v>233813.09887213504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171226.22890623775</c:v>
+                  <c:v>230951.59964573573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>169460.0540571328</c:v>
+                  <c:v>227360.18389999331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167353.97265512458</c:v>
+                  <c:v>223099.60453971321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164936.62706324577</c:v>
+                  <c:v>218239.027962614</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>162239.48500827883</c:v>
+                  <c:v>212853.55848554135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159295.91548190705</c:v>
+                  <c:v>207021.74887127182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156140.28778029344</c:v>
+                  <c:v>200823.22986153825</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>152807.13223695991</c:v>
+                  <c:v>194336.56642398299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>149330.39229412991</c:v>
+                  <c:v>187637.41796197154</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>145742.78785007828</c:v>
+                  <c:v>180797.04801455262</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>142075.30033839235</c:v>
+                  <c:v>173881.1993561511</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>138356.78152970684</c:v>
+                  <c:v>166949.32529917467</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134613.68110835517</c:v>
+                  <c:v>160054.14875814374</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>130869.88290283701</c:v>
+                  <c:v>153241.50763459946</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127146.63624612463</c:v>
+                  <c:v>146550.43795279384</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>123462.567146043</c:v>
+                  <c:v>140013.44404039191</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119833.75348962654</c:v>
+                  <c:v>133656.90677706781</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116273.84907558729</c:v>
+                  <c:v>127501.58535029486</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>112794.24255342947</c:v>
+                  <c:v>121563.17398208493</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>109404.23906537874</c:v>
+                  <c:v>115852.88182446768</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>106111.25430576445</c:v>
+                  <c:v>110378.01098144526</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>102921.01265395676</c:v>
+                  <c:v>105142.51392897405</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>99837.742876300937</c:v>
+                  <c:v>100147.51718585938</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>96864.366550697567</c:v>
+                  <c:v>95391.802799792262</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>94002.675802886049</c:v>
+                  <c:v>90872.243026449796</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>91253.498142523371</c:v>
+                  <c:v>86584.186541931165</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>88616.847155871699</c:v>
+                  <c:v>82521.796730329792</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86092.058568844557</c:v>
+                  <c:v>78678.344140827219</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>83677.911764705888</c:v>
+                  <c:v>75046.456229308038</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>81372.73725297823</c:v>
+                  <c:v>71618.328099687496</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>79174.510868107929</c:v>
+                  <c:v>68385.8982398183</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>77080.935654254063</c:v>
+                  <c:v>65340.993291511943</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>75089.512489427507</c:v>
+                  <c:v>62475.445774237785</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>73197.600538004801</c:v>
+                  <c:v>59781.188453524243</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>71402.468611923512</c:v>
+                  <c:v>57250.328751242749</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>69701.338481033163</c:v>
+                  <c:v>54875.206268154943</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68091.421112713229</c:v>
+                  <c:v>52648.436152714392</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>66569.946748135975</c:v>
+                  <c:v>50562.940720318511</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>65134.189643584759</c:v>
+                  <c:v>48611.971414648244</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>63781.488224514876</c:v>
+                  <c:v>46789.122913802916</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62509.261320728721</c:v>
+                  <c:v>45088.340922008007</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>61315.021075262965</c:v>
+                  <c:v>43503.924953842492</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60196.383048699819</c:v>
+                  <c:v>42030.527211867302</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>59151.073975374602</c:v>
+                  <c:v>40663.148478871837</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>58176.937568687616</c:v>
+                  <c:v>39397.131790769155</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>57271.938719461003</c:v>
+                  <c:v>38228.154523223333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>56434.166383827454</c:v>
+                  <c:v>37152.219412033279</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>55661.835415175286</c:v>
+                  <c:v>36165.644931803115</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>54953.28755780065</c:v>
+                  <c:v>35265.05537728854</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>54306.991787690946</c:v>
+                  <c:v>34447.370924961157</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53721.544157823562</c:v>
+                  <c:v>33709.797896917895</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>53195.667281060218</c:v>
+                  <c:v>33049.819403601148</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>52728.209562715114</c:v>
+                  <c:v>32465.186504413599</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>52318.144276766383</c:v>
+                  <c:v>31953.909994907393</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51964.568564084533</c:v>
+                  <c:v>31514.252904676614</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51666.702417624052</c:v>
+                  <c:v>31144.723770400487</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51423.887707942646</c:v>
+                  <c:v>30844.070732838547</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>51235.587292392724</c:v>
+                  <c:v>30611.276494228136</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51101.38424260552</c:v>
+                  <c:v>30445.554162864915</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>51020.981217222405</c:v>
+                  <c:v>30346.344004101615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1951,7 +1970,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$64</c:f>
+              <c:f>Ellipse!$C$2:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
@@ -2171,7 +2190,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$64</c:f>
+              <c:f>Ellipse!$D$2:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="63"/>
@@ -2604,6 +2623,1259 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>双球形导体</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>模拟结果</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TwoSphere!$B$2:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6875E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.109375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.140625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.171875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.203125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.234375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.296875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.328125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.421875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.453125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.484375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.515625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.546875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.609375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.640625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.734375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.765625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.796875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.828125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.859375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.890625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.921875</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.953125</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.984375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TwoSphere!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>371315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>370297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>369780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>369136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>369495</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>369529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>368125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>366043</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364078</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>363401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>363830</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>364190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>363639</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>362180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>360753</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>359915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>359247</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>357727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>355242</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>352996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>351584</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>350467</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>349128</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>347259</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>344740</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>341861</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>338862</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>335336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>331255</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>327015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>322750</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>318456</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>313935</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>309167</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>303829</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>297679</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>290652</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>282851</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>274459</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>265470</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>255640</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>244727</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>232831</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220052</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>206440</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>191782</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>175710</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>158298</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>140077</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>121690</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103851</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87013.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71830</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58505.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46649.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37794.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>63891</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18858.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13988.1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14767.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9562.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8800.8799999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC3B-4FA1-9164-9FAEE61365DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>电像法结果</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TwoSphere!$B$2:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6875E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.109375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.140625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.171875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.203125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.234375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.296875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.328125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.421875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.453125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.484375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.515625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.546875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.609375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.640625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.734375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.765625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.796875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.828125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.859375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.890625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.921875</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.953125</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.984375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TwoSphere!$F$2:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>371315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>371234.23744022736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>371098.6862092521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370908.34630707436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>370662.0002076673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>370358.02454299532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>369994.79594502284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>369570.69104571413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>369082.46310899802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>368528.4887668388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>367904.30375713855</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>367207.06718583492</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>366432.31479082984</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>365575.58231002541</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>364631.18795529689</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>363593.44993851957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>362455.87478755089</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361210.34566221276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>359849.15156433592</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>358362.95812771539</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>356740.80761811079</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>354970.93061726372</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>353041.15186490695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>350936.04936470202</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>348639.79527830152</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>346133.72087329562</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>343397.53404923901</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>340408.1018116239</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>337140.26195589802</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>333565.19969942892</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>329650.44768150395</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>325360.69764734816</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320655.3653960707</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>315490.61999070965</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>309815.7311801514</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>303576.72197721124</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>296712.71608055307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>289157.15540071588</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>280838.20590212313</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>271678.35176107328</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>261596.8304177938</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>250509.63257644066</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>238333.56062518788</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>224991.50458234281</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>210418.93556848922</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>194573.64601470067</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>177449.95413285244</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159099.40185807581</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>139653.07615924801</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>119352.85887367817</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98585.517435855392</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>77915.98392217941</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>58113.734781539468</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40172.19008334016</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25383.631952345826</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15744.681319780309</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13869.934743831462</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18184.846982539551</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26347.060297292133</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41145.886231111843</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>73016.253348635131</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>163907.006295598</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>650617.49974041583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC3B-4FA1-9164-9FAEE61365DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1414306863"/>
+        <c:axId val="1417548207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1414306863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>phi / pi</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48277361399317731"/>
+              <c:y val="0.85895952089671501"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_ ;[Red]\-#,##0.00\ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1417548207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="4"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1417548207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>电荷面密度（相对单位）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1414306863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>动态刻调整曲线</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN"/>
@@ -2662,7 +3934,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet4!$A$1:$A$41</c:f>
+              <c:f>DynTickDemo!$A$1:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2794,7 +4066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$1:$B$41</c:f>
+              <c:f>DynTickDemo!$B$1:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3429,6 +4701,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5494,6 +6806,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6133,6 +7961,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>250419</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A93ED22-C8C6-4EAB-9881-A70CBCA4774E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325100" y="326572"/>
+          <a:ext cx="1807076" cy="674932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6222,6 +8094,49 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>62592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105624F6-C491-4063-B555-0AA1FA7C7751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6845,8 +8760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C2C37E-122A-456E-9E33-26D723516DB8}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B64"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -6859,14 +8774,14 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>$E$66*COS(PI()/64*A1)</f>
-        <v>35038.699999999997</v>
+        <v>57055.45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -6874,15 +8789,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>127625</v>
+        <v>149651</v>
       </c>
       <c r="C2" s="1">
         <f>B2-$B$66</f>
-        <v>34897.666666666672</v>
+        <v>57737.24920634921</v>
       </c>
       <c r="E2" s="1">
         <f>$E$66*COS(PI()/64*A2)</f>
-        <v>34996.494351336172</v>
+        <v>56986.724211741399</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -6890,15 +8805,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>127565</v>
+        <v>149496</v>
       </c>
       <c r="C3" s="1">
         <f>B3-$B$66</f>
-        <v>34837.666666666672</v>
+        <v>57582.24920634921</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E64" si="0">$E$66*COS(PI()/64*A3)</f>
-        <v>34869.979082449106</v>
+        <v>56780.712413409194</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -6906,15 +8821,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>126918</v>
+        <v>148690</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C64" si="1">B4-$B$66</f>
-        <v>34190.666666666672</v>
+        <v>56776.24920634921</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>34659.458979702969</v>
+        <v>56437.91090547006</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -6922,15 +8837,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>126142</v>
+        <v>147725</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>33414.666666666672</v>
+        <v>55811.24920634921</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>34365.441204464667</v>
+        <v>55959.145526782493</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -6938,15 +8853,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>126469</v>
+        <v>147801</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>33741.666666666672</v>
+        <v>55887.24920634921</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>33988.634071307664</v>
+        <v>55345.569665078641</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -6954,15 +8869,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>126280</v>
+        <v>147266</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>33552.666666666672</v>
+        <v>55352.24920634921</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>33529.945341620143</v>
+        <v>54598.661478352253</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -6970,15 +8885,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>125399</v>
+        <v>146005</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>32671.666666666672</v>
+        <v>54091.24920634921</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>32990.48003672831</v>
+        <v>53720.220333846584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6986,15 +8901,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>124643</v>
+        <v>144846</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>31915.666666666672</v>
+        <v>52932.24920634921</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>32371.537775803219</v>
+        <v>52712.362473221096</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -7002,15 +8917,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>124658</v>
+        <v>144365</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>31930.666666666672</v>
+        <v>52451.24920634921</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>31674.609644964392</v>
+        <v>51577.515914339965</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -7018,15 +8933,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>123778</v>
+        <v>142922</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>31050.666666666672</v>
+        <v>51008.24920634921</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>30901.374605122706</v>
+        <v>50318.414601964352</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -7034,15 +8949,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>122992</v>
+        <v>141529</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>30264.666666666672</v>
+        <v>49615.24920634921</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>30053.695447216531</v>
+        <v>48938.091821440023</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -7050,15 +8965,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>121805</v>
+        <v>139686</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>29077.666666666672</v>
+        <v>47772.24920634921</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>29133.61430458519</v>
+        <v>47439.872891247251</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -7066,15 +8981,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>120787</v>
+        <v>137989</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>28059.666666666672</v>
+        <v>46075.24920634921</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>28143.347733290873</v>
+        <v>45827.367152017359</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -7082,15 +8997,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>119595</v>
+        <v>136021</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>26867.666666666672</v>
+        <v>44107.24920634921</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>27085.28137224093</v>
+        <v>44104.459271314969</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -7098,15 +9013,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>117930</v>
+        <v>133611</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>25202.666666666672</v>
+        <v>41697.24920634921</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>25961.964195974804</v>
+        <v>42275.299885133601</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -7114,15 +9029,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>116832</v>
+        <v>131729</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>24104.666666666672</v>
+        <v>39815.24920634921</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>24776.102373961083</v>
+        <v>40344.295598650002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -7130,15 +9045,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>115508</v>
+        <v>129548</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>22780.666666666672</v>
+        <v>37634.24920634921</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>23530.552751198218</v>
+        <v>38316.098370326312</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -7146,15 +9061,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>113956</v>
+        <v>127166</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>21228.666666666672</v>
+        <v>35252.24920634921</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>22228.315965824724</v>
+        <v>36195.594304934668</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -7162,15 +9077,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>112836</v>
+        <v>125200</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>20108.666666666672</v>
+        <v>33286.24920634921</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>20872.529220319026</v>
+        <v>33987.891882502809</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -7178,15 +9093,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>112052</v>
+        <v>123474</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>19324.666666666672</v>
+        <v>31560.24920634921</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>19466.458723703938</v>
+        <v>31698.309651538264</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -7194,15 +9109,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>110948</v>
+        <v>121340</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>18220.666666666672</v>
+        <v>29426.24920634921</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>18013.491822963035</v>
+        <v>29332.363416179149</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -7210,15 +9125,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>109469</v>
+        <v>118806</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>16741.666666666672</v>
+        <v>26892.24920634921</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>16517.128842625087</v>
+        <v>26895.752948138874</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -7226,15 +9141,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>107805</v>
+        <v>116147</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>15077.666666666672</v>
+        <v>24233.24920634921</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>14980.974652175628</v>
+        <v>24394.348255456793</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -7242,15 +9157,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>106863</v>
+        <v>114130</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>14135.666666666672</v>
+        <v>22216.24920634921</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>13408.729981610672</v>
+        <v>21834.175441134765</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -7258,15 +9173,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>105280</v>
+        <v>111353</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>12552.666666666672</v>
+        <v>19439.24920634921</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>11804.18250605398</v>
+        <v>19221.40218572714</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -7274,15 +9189,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>103214</v>
+        <v>108183</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>10486.666666666672</v>
+        <v>16269.24920634921</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>10171.197720915929</v>
+        <v>16562.322888858111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -7290,15 +9205,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>101217</v>
+        <v>105084</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>8489.6666666666715</v>
+        <v>13170.24920634921</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>8513.709629576495</v>
+        <v>13863.343505461682</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -7306,15 +9221,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>99194.6</v>
+        <v>102087</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>6467.2666666666773</v>
+        <v>10173.24920634921</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>6835.7112660265147</v>
+        <v>11130.966113275108</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -7322,15 +9237,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>97853.1</v>
+        <v>99698.2</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>5125.7666666666773</v>
+        <v>7784.4492063492071</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>5141.2450752990835</v>
+        <v>8371.7732487641697</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -7338,15 +9253,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>96483.7</v>
+        <v>97235.7</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>3756.3666666666686</v>
+        <v>5321.9492063492071</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>3434.3931748653808</v>
+        <v>5592.4120492162374</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -7354,15 +9269,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>95163.3</v>
+        <v>94783.8</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>2435.9666666666744</v>
+        <v>2870.0492063492129</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>1719.2675204561053</v>
+        <v>2799.5782392042884</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -7370,15 +9285,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>93627.199999999997</v>
+        <v>92040.2</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>899.86666666666861</v>
+        <v>126.44920634920709</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>2.1463804583503332E-12</v>
+        <v>3.4950698205808012E-12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -7386,15 +9301,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>91616.8</v>
+        <v>88899.3</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>-1110.5333333333256</v>
+        <v>-3014.4507936507871</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>-1719.2675204561012</v>
+        <v>-2799.5782392042815</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -7402,15 +9317,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>89911.3</v>
+        <v>86133.7</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>-2816.0333333333256</v>
+        <v>-5780.0507936507929</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>-3434.3931748653763</v>
+        <v>-5592.412049216231</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -7418,15 +9333,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>88252</v>
+        <v>83363.399999999994</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>-4475.3333333333285</v>
+        <v>-8550.3507936507958</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>-5141.245075299079</v>
+        <v>-8371.7732487641624</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -7434,15 +9349,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>86395.4</v>
+        <v>80435.100000000006</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>-6331.9333333333343</v>
+        <v>-11478.650793650784</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>-6835.7112660265102</v>
+        <v>-11130.966113275101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -7450,15 +9365,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>84688.1</v>
+        <v>77678.600000000006</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>-8039.2333333333227</v>
+        <v>-14235.150793650784</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>-8513.7096295764914</v>
+        <v>-13863.343505461677</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -7466,15 +9381,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>82889.100000000006</v>
+        <v>74907</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>-9838.2333333333227</v>
+        <v>-17006.75079365079</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="0"/>
-        <v>-10171.197720915923</v>
+        <v>-16562.322888858103</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -7482,15 +9397,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>81568</v>
+        <v>72567.100000000006</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>-11159.333333333328</v>
+        <v>-19346.650793650784</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="0"/>
-        <v>-11804.182506053976</v>
+        <v>-19221.402185727133</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -7498,15 +9413,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>79687.600000000006</v>
+        <v>69636.100000000006</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>-13039.733333333323</v>
+        <v>-22277.650793650784</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
-        <v>-13408.729981610668</v>
+        <v>-21834.175441134757</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -7514,15 +9429,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>77753.2</v>
+        <v>66826.5</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>-14974.133333333331</v>
+        <v>-25087.25079365079</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
-        <v>-14980.974652175615</v>
+        <v>-24394.348255456774</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -7530,15 +9445,15 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>76492.399999999994</v>
+        <v>64677.9</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>-16234.933333333334</v>
+        <v>-27235.850793650789</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="0"/>
-        <v>-16517.128842625083</v>
+        <v>-26895.75294813887</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -7546,15 +9461,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>74812.899999999994</v>
+        <v>62076.5</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>-17914.433333333334</v>
+        <v>-29837.25079365079</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
-        <v>-18013.491822963035</v>
+        <v>-29332.363416179149</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -7562,15 +9477,15 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>73207.5</v>
+        <v>59662.9</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>-19519.833333333328</v>
+        <v>-32250.850793650789</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>-19466.458723703927</v>
+        <v>-31698.309651538246</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -7578,15 +9493,15 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>71766.100000000006</v>
+        <v>57465.2</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
-        <v>-20961.233333333323</v>
+        <v>-34448.550793650793</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>-20872.529220319022</v>
+        <v>-33987.891882502809</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -7594,15 +9509,15 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>70490.8</v>
+        <v>55425.3</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>-22236.533333333326</v>
+        <v>-36488.450793650787</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
-        <v>-22228.31596582472</v>
+        <v>-36195.594304934661</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -7610,15 +9525,15 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>69358.2</v>
+        <v>53557.9</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>-23369.133333333331</v>
+        <v>-38355.850793650789</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>-23530.552751198222</v>
+        <v>-38316.098370326319</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -7626,15 +9541,15 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>68107</v>
+        <v>51560.2</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>-24620.333333333328</v>
+        <v>-40353.550793650793</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="0"/>
-        <v>-24776.102373961079</v>
+        <v>-40344.295598649995</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -7642,15 +9557,15 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>66760.7</v>
+        <v>49538.3</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>-25966.633333333331</v>
+        <v>-42375.450793650787</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="0"/>
-        <v>-25961.964195974797</v>
+        <v>-42275.299885133587</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -7658,15 +9573,15 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>65447.1</v>
+        <v>47653.2</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
-        <v>-27280.23333333333</v>
+        <v>-44260.550793650793</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
-        <v>-27085.28137224093</v>
+        <v>-44104.459271314969</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -7674,15 +9589,15 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>64617.5</v>
+        <v>46281.4</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
-        <v>-28109.833333333328</v>
+        <v>-45632.350793650789</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
-        <v>-28143.347733290866</v>
+        <v>-45827.367152017352</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -7690,15 +9605,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>63727</v>
+        <v>44805.3</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>-29000.333333333328</v>
+        <v>-47108.450793650787</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="0"/>
-        <v>-29133.614304585193</v>
+        <v>-47439.872891247258</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -7706,15 +9621,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>62840.9</v>
+        <v>43410.1</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>-29886.433333333327</v>
+        <v>-48503.650793650791</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
-        <v>-30053.695447216527</v>
+        <v>-48938.091821440015</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -7722,15 +9637,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>61854</v>
+        <v>41917.1</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
-        <v>-30873.333333333328</v>
+        <v>-49996.650793650791</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="0"/>
-        <v>-30901.374605122703</v>
+        <v>-50318.414601964345</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -7738,15 +9653,15 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>60744.5</v>
+        <v>40411.599999999999</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>-31982.833333333328</v>
+        <v>-51502.150793650791</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="0"/>
-        <v>-31674.609644964392</v>
+        <v>-51577.515914339965</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -7754,15 +9669,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>59795.4</v>
+        <v>39130.699999999997</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
-        <v>-32931.933333333327</v>
+        <v>-52783.050793650793</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="0"/>
-        <v>-32371.537775803219</v>
+        <v>-52712.362473221096</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -7770,15 +9685,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>59411.1</v>
+        <v>38488.199999999997</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
-        <v>-33316.23333333333</v>
+        <v>-53425.550793650793</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="0"/>
-        <v>-32990.480036728302</v>
+        <v>-53720.220333846577</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -7786,15 +9701,15 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>59241.4</v>
+        <v>37988</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>-33485.933333333327</v>
+        <v>-53925.75079365079</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="0"/>
-        <v>-33529.945341620143</v>
+        <v>-54598.661478352253</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -7802,15 +9717,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>58560.4</v>
+        <v>37058.199999999997</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>-34166.933333333327</v>
+        <v>-54855.550793650793</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>-33988.634071307664</v>
+        <v>-55345.569665078641</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -7818,15 +9733,15 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>58295.1</v>
+        <v>36592.300000000003</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>-34432.23333333333</v>
+        <v>-55321.450793650787</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>-34365.441204464667</v>
+        <v>-55959.145526782493</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -7834,15 +9749,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>57782.6</v>
+        <v>35917.699999999997</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>-34944.73333333333</v>
+        <v>-55996.050793650793</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="0"/>
-        <v>-34659.458979702969</v>
+        <v>-56437.91090547006</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -7850,15 +9765,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>57312.4</v>
+        <v>35353.5</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>-35414.933333333327</v>
+        <v>-56560.25079365079</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="0"/>
-        <v>-34869.979082449099</v>
+        <v>-56780.712413409186</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -7866,30 +9781,30 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>57547.6</v>
+        <v>35540.1</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
-        <v>-35179.73333333333</v>
+        <v>-56373.650793650791</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="0"/>
-        <v>-34996.494351336172</v>
+        <v>-56986.724211741399</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
         <f>AVERAGE(B1:B64)</f>
-        <v>92727.333333333328</v>
+        <v>91913.75079365079</v>
       </c>
       <c r="E66" s="1">
         <f>(C2-C64)/2</f>
-        <v>35038.699999999997</v>
+        <v>57055.45</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7904,11 +9819,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C2417-B0D5-432A-818E-FCEA0859508F}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -7922,8 +9840,8 @@
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <f>9/(17-8*COS(B1))*$C$68+$C$69</f>
-        <v>174466</v>
+        <f>60/(17-8*COS(B1))^(3/2)*$C$68+$C$69</f>
+        <v>237583</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -7935,11 +9853,11 @@
         <v>4.9087385212340517E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>174466</v>
+        <v>237583</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D64" si="1">9/(17-8*COS(B2))*$C$68+$C$69</f>
-        <v>174259.65539192894</v>
+        <f t="shared" ref="D2:D64" si="1">60/(17-8*COS(B2))^(3/2)*$C$68+$C$69</f>
+        <v>237158.96651903394</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -7951,11 +9869,11 @@
         <v>9.8174770424681035E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>174204</v>
+        <v>236627</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>173643.75487380585</v>
+        <v>235894.65507294924</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -7967,11 +9885,11 @@
         <v>0.14726215563702155</v>
       </c>
       <c r="C4" s="1">
-        <v>174340</v>
+        <v>235581</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>172627.58192622059</v>
+        <v>233813.09887213504</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -7983,11 +9901,11 @@
         <v>0.19634954084936207</v>
       </c>
       <c r="C5" s="1">
-        <v>172518</v>
+        <v>232078</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>171226.22890623775</v>
+        <v>230951.59964573573</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -7999,11 +9917,11 @@
         <v>0.24543692606170259</v>
       </c>
       <c r="C6" s="1">
-        <v>170578</v>
+        <v>228184</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>169460.0540571328</v>
+        <v>227360.18389999331</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -8015,11 +9933,11 @@
         <v>0.2945243112740431</v>
       </c>
       <c r="C7" s="1">
-        <v>168806</v>
+        <v>223990</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>167353.97265512458</v>
+        <v>223099.60453971321</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -8031,11 +9949,11 @@
         <v>0.34361169648638362</v>
       </c>
       <c r="C8" s="1">
-        <v>165915</v>
+        <v>218393</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>164936.62706324577</v>
+        <v>218239.027962614</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -8047,11 +9965,11 @@
         <v>0.39269908169872414</v>
       </c>
       <c r="C9" s="1">
-        <v>162628</v>
+        <v>212194</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>162239.48500827883</v>
+        <v>212853.55848554135</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -8063,11 +9981,11 @@
         <v>0.44178646691106466</v>
       </c>
       <c r="C10" s="1">
-        <v>159315</v>
+        <v>205848</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>159295.91548190705</v>
+        <v>207021.74887127182</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -8079,11 +9997,11 @@
         <v>0.49087385212340517</v>
       </c>
       <c r="C11" s="1">
-        <v>156077</v>
+        <v>199463</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>156140.28778029344</v>
+        <v>200823.22986153825</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -8095,11 +10013,11 @@
         <v>0.53996123733574564</v>
       </c>
       <c r="C12" s="1">
-        <v>153375</v>
+        <v>193489</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>152807.13223695991</v>
+        <v>194336.56642398299</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -8111,11 +10029,11 @@
         <v>0.58904862254808621</v>
       </c>
       <c r="C13" s="1">
-        <v>150024</v>
+        <v>186717</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>149330.39229412991</v>
+        <v>187637.41796197154</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -8127,11 +10045,11 @@
         <v>0.63813600776042678</v>
       </c>
       <c r="C14" s="1">
-        <v>147363</v>
+        <v>180737</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>145742.78785007828</v>
+        <v>180797.04801455262</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -8143,11 +10061,11 @@
         <v>0.68722339297276724</v>
       </c>
       <c r="C15" s="1">
-        <v>144581</v>
+        <v>174331</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>142075.30033839235</v>
+        <v>173881.1993561511</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -8159,11 +10077,11 @@
         <v>0.73631077818510771</v>
       </c>
       <c r="C16" s="1">
-        <v>140911</v>
+        <v>167071</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>138356.78152970684</v>
+        <v>166949.32529917467</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -8175,11 +10093,11 @@
         <v>0.78539816339744828</v>
       </c>
       <c r="C17" s="1">
-        <v>136624</v>
+        <v>159483</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>134613.68110835517</v>
+        <v>160054.14875814374</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -8191,11 +10109,11 @@
         <v>0.83448554860978885</v>
       </c>
       <c r="C18" s="1">
-        <v>133281</v>
+        <v>153162</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>130869.88290283701</v>
+        <v>153241.50763459946</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -8207,11 +10125,11 @@
         <v>0.88357293382212931</v>
       </c>
       <c r="C19" s="1">
-        <v>130642</v>
+        <v>147192</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>127146.63624612463</v>
+        <v>146550.43795279384</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -8223,11 +10141,11 @@
         <v>0.93266031903446978</v>
       </c>
       <c r="C20" s="1">
-        <v>126485</v>
+        <v>139829</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>123462.567146043</v>
+        <v>140013.44404039191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -8239,11 +10157,11 @@
         <v>0.98174770424681035</v>
       </c>
       <c r="C21" s="1">
-        <v>122361</v>
+        <v>132940</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>119833.75348962654</v>
+        <v>133656.90677706781</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -8255,11 +10173,11 @@
         <v>1.0308350894591509</v>
       </c>
       <c r="C22" s="1">
-        <v>118586</v>
+        <v>126595</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>116273.84907558729</v>
+        <v>127501.58535029486</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -8271,11 +10189,11 @@
         <v>1.0799224746714913</v>
       </c>
       <c r="C23" s="1">
-        <v>115318</v>
+        <v>120951</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>112794.24255342947</v>
+        <v>121563.17398208493</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -8287,11 +10205,11 @@
         <v>1.1290098598838318</v>
       </c>
       <c r="C24" s="1">
-        <v>112231</v>
+        <v>115480</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>109404.23906537874</v>
+        <v>115852.88182446768</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -8303,11 +10221,11 @@
         <v>1.1780972450961724</v>
       </c>
       <c r="C25" s="1">
-        <v>109063</v>
+        <v>110113</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>106111.25430576445</v>
+        <v>110378.01098144526</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -8319,11 +10237,11 @@
         <v>1.227184630308513</v>
       </c>
       <c r="C26" s="1">
-        <v>106139</v>
+        <v>105059</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>102921.01265395676</v>
+        <v>105142.51392897405</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -8335,11 +10253,11 @@
         <v>1.2762720155208536</v>
       </c>
       <c r="C27" s="1">
-        <v>102960</v>
+        <v>99874.6</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>99837.742876300937</v>
+        <v>100147.51718585938</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -8351,11 +10269,11 @@
         <v>1.3253594007331939</v>
       </c>
       <c r="C28" s="1">
-        <v>99938.5</v>
+        <v>95150.5</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>96864.366550697567</v>
+        <v>95391.802799792262</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -8367,11 +10285,11 @@
         <v>1.3744467859455345</v>
       </c>
       <c r="C29" s="1">
-        <v>97201.1</v>
+        <v>90681.5</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>94002.675802886049</v>
+        <v>90872.243026449796</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -8383,11 +10301,11 @@
         <v>1.4235341711578751</v>
       </c>
       <c r="C30" s="1">
-        <v>94019.9</v>
+        <v>85953.9</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>91253.498142523371</v>
+        <v>86584.186541931165</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -8399,11 +10317,11 @@
         <v>1.4726215563702154</v>
       </c>
       <c r="C31" s="1">
-        <v>91101.9</v>
+        <v>81789</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>88616.847155871699</v>
+        <v>82521.796730329792</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -8415,11 +10333,11 @@
         <v>1.521708941582556</v>
       </c>
       <c r="C32" s="1">
-        <v>88725.4</v>
+        <v>78223.399999999994</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>86092.058568844557</v>
+        <v>78678.344140827219</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -8431,11 +10349,11 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="C33" s="1">
-        <v>86510</v>
+        <v>74784.2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>83677.911764705888</v>
+        <v>75046.456229308038</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -8447,11 +10365,11 @@
         <v>1.6198837120072371</v>
       </c>
       <c r="C34" s="1">
-        <v>83942.8</v>
+        <v>71110.600000000006</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>81372.73725297823</v>
+        <v>71618.328099687496</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -8463,11 +10381,11 @@
         <v>1.6689710972195777</v>
       </c>
       <c r="C35" s="1">
-        <v>81553.600000000006</v>
+        <v>67858.600000000006</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>79174.510868107929</v>
+        <v>68385.8982398183</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -8479,11 +10397,11 @@
         <v>1.7180584824319181</v>
       </c>
       <c r="C36" s="1">
-        <v>79568.100000000006</v>
+        <v>64989.1</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>77080.935654254063</v>
+        <v>65340.993291511943</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -8495,11 +10413,11 @@
         <v>1.7671458676442586</v>
       </c>
       <c r="C37" s="1">
-        <v>77341.8</v>
+        <v>61926.3</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>75089.512489427507</v>
+        <v>62475.445774237785</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -8511,11 +10429,11 @@
         <v>1.8162332528565992</v>
       </c>
       <c r="C38" s="1">
-        <v>75306.600000000006</v>
+        <v>59262.7</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>73197.600538004801</v>
+        <v>59781.188453524243</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -8527,11 +10445,11 @@
         <v>1.8653206380689396</v>
       </c>
       <c r="C39" s="1">
-        <v>73506.399999999994</v>
+        <v>56845.5</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>71402.468611923512</v>
+        <v>57250.328751242749</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -8543,11 +10461,11 @@
         <v>1.9144080232812801</v>
       </c>
       <c r="C40" s="1">
-        <v>71896.399999999994</v>
+        <v>54634.6</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>69701.338481033163</v>
+        <v>54875.206268154943</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -8559,11 +10477,11 @@
         <v>1.9634954084936207</v>
       </c>
       <c r="C41" s="1">
-        <v>70192.3</v>
+        <v>52361.2</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
-        <v>68091.421112713229</v>
+        <v>52648.436152714392</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -8575,11 +10493,11 @@
         <v>2.012582793705961</v>
       </c>
       <c r="C42" s="1">
-        <v>68523.5</v>
+        <v>50238.5</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>66569.946748135975</v>
+        <v>50562.940720318511</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -8591,11 +10509,11 @@
         <v>2.0616701789183018</v>
       </c>
       <c r="C43" s="1">
-        <v>67014.7</v>
+        <v>48304.9</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>65134.189643584759</v>
+        <v>48611.971414648244</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -8607,11 +10525,11 @@
         <v>2.1107575641306422</v>
       </c>
       <c r="C44" s="1">
-        <v>65478.9</v>
+        <v>46409.7</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>63781.488224514876</v>
+        <v>46789.122913802916</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -8623,11 +10541,11 @@
         <v>2.1598449493429825</v>
       </c>
       <c r="C45" s="1">
-        <v>64243.4</v>
+        <v>44860</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
-        <v>62509.261320728721</v>
+        <v>45088.340922008007</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -8639,11 +10557,11 @@
         <v>2.2089323345553233</v>
       </c>
       <c r="C46" s="1">
-        <v>62941.599999999999</v>
+        <v>43273.599999999999</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>61315.021075262965</v>
+        <v>43503.924953842492</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -8655,11 +10573,11 @@
         <v>2.2580197197676637</v>
       </c>
       <c r="C47" s="1">
-        <v>61967</v>
+        <v>42054.7</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
-        <v>60196.383048699819</v>
+        <v>42030.527211867302</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -8671,11 +10589,11 @@
         <v>2.3071071049800045</v>
       </c>
       <c r="C48" s="1">
-        <v>61068</v>
+        <v>40852.1</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>59151.073975374602</v>
+        <v>40663.148478871837</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -8687,11 +10605,11 @@
         <v>2.3561944901923448</v>
       </c>
       <c r="C49" s="1">
-        <v>59909.9</v>
+        <v>39438.300000000003</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
-        <v>58176.937568687616</v>
+        <v>39397.131790769155</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -8703,11 +10621,11 @@
         <v>2.4052818754046852</v>
       </c>
       <c r="C50" s="1">
-        <v>58879</v>
+        <v>38210.5</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
-        <v>57271.938719461003</v>
+        <v>38228.154523223333</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -8719,11 +10637,11 @@
         <v>2.454369260617026</v>
       </c>
       <c r="C51" s="1">
-        <v>57915.5</v>
+        <v>37077.1</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>56434.166383827454</v>
+        <v>37152.219412033279</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -8735,11 +10653,11 @@
         <v>2.5034566458293663</v>
       </c>
       <c r="C52" s="1">
-        <v>57034.2</v>
+        <v>36040.400000000001</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>55661.835415175286</v>
+        <v>36165.644931803115</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -8751,11 +10669,11 @@
         <v>2.5525440310417071</v>
       </c>
       <c r="C53" s="1">
-        <v>56111.1</v>
+        <v>34982.699999999997</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="1"/>
-        <v>54953.28755780065</v>
+        <v>35265.05537728854</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -8767,11 +10685,11 @@
         <v>2.6016314162540475</v>
       </c>
       <c r="C54" s="1">
-        <v>55261.2</v>
+        <v>34035.199999999997</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="1"/>
-        <v>54306.991787690946</v>
+        <v>34447.370924961157</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -8783,11 +10701,11 @@
         <v>2.6507188014663878</v>
       </c>
       <c r="C55" s="1">
-        <v>54536.9</v>
+        <v>33236.199999999997</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="1"/>
-        <v>53721.544157823562</v>
+        <v>33709.797896917895</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -8799,11 +10717,11 @@
         <v>2.6998061866787286</v>
       </c>
       <c r="C56" s="1">
-        <v>53947.9</v>
+        <v>32570.5</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="1"/>
-        <v>53195.667281060218</v>
+        <v>33049.819403601148</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -8815,11 +10733,11 @@
         <v>2.748893571891069</v>
       </c>
       <c r="C57" s="1">
-        <v>53330.400000000001</v>
+        <v>31886.799999999999</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="1"/>
-        <v>52728.209562715114</v>
+        <v>32465.186504413599</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -8831,11 +10749,11 @@
         <v>2.7979809571034093</v>
       </c>
       <c r="C58" s="1">
-        <v>52769.9</v>
+        <v>31279.8</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
-        <v>52318.144276766383</v>
+        <v>31953.909994907393</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -8847,11 +10765,11 @@
         <v>2.8470683423157501</v>
       </c>
       <c r="C59" s="1">
-        <v>52292.2</v>
+        <v>30768.1</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
-        <v>51964.568564084533</v>
+        <v>31514.252904676614</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -8863,11 +10781,11 @@
         <v>2.8961557275280905</v>
       </c>
       <c r="C60" s="1">
-        <v>51957.599999999999</v>
+        <v>30402.2</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
-        <v>51666.702417624052</v>
+        <v>31144.723770400487</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -8879,11 +10797,11 @@
         <v>2.9452431127404308</v>
       </c>
       <c r="C61" s="1">
-        <v>51599.6</v>
+        <v>30019.200000000001</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
-        <v>51423.887707942646</v>
+        <v>30844.070732838547</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -8895,11 +10813,11 @@
         <v>2.9943304979527716</v>
       </c>
       <c r="C62" s="1">
-        <v>51302.2</v>
+        <v>29707.200000000001</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
-        <v>51235.587292392724</v>
+        <v>30611.276494228136</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -8911,11 +10829,11 @@
         <v>3.043417883165112</v>
       </c>
       <c r="C63" s="1">
-        <v>51112.3</v>
+        <v>29509.1</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
-        <v>51101.38424260552</v>
+        <v>30445.554162864915</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -8927,29 +10845,29 @@
         <v>3.0925052683774528</v>
       </c>
       <c r="C64" s="1">
-        <v>50994.2</v>
+        <v>29388</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
-        <v>51020.981217222405</v>
+        <v>30346.344004101615</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C66" s="1">
         <f>(C2+C64)/2</f>
-        <v>112730.1</v>
+        <v>133485.5</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C68" s="1">
-        <f>(C2-C64)/(16/25)</f>
-        <v>192924.6875</v>
+        <f>(C2-C64)/1.75</f>
+        <v>118968.57142857143</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C69" s="1">
-        <f>C2-C68*1</f>
-        <v>-18458.6875</v>
+        <f>C2-C68*20/9</f>
+        <v>-26791.603174603195</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.35">
@@ -8969,9 +10887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F9E9FA-4D2C-494A-B466-BD644580AA12}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
-    </sheetView>
+    <sheetView topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -10019,10 +11935,1545 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF39121-676B-41FB-8657-5E74DA5E6745}">
+  <dimension ref="A1:M69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>A1/64</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>A1/64*PI()</f>
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0.914991</v>
+      </c>
+      <c r="F1" s="1">
+        <f>E1/$E$2*$D$2</f>
+        <v>371341.78557258792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B64" si="0">A2/64</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C64" si="1">A2/64*PI()</f>
+        <v>4.9087385212340517E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>371315</v>
+      </c>
+      <c r="E2">
+        <v>0.91492499999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F65" si="2">E2/$E$2*$D$2</f>
+        <v>371315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>9.8174770424681035E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>370297</v>
+      </c>
+      <c r="E3">
+        <v>0.91472600000000004</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="2"/>
+        <v>371234.23744022736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.14726215563702155</v>
+      </c>
+      <c r="D4" s="1">
+        <v>369780</v>
+      </c>
+      <c r="E4">
+        <v>0.91439199999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="2"/>
+        <v>371098.6862092521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.19634954084936207</v>
+      </c>
+      <c r="D5" s="1">
+        <v>369136</v>
+      </c>
+      <c r="E5">
+        <v>0.91392300000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>370908.34630707436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.24543692606170259</v>
+      </c>
+      <c r="D6" s="1">
+        <v>368802</v>
+      </c>
+      <c r="E6">
+        <v>0.91331600000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>370662.0002076673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.2945243112740431</v>
+      </c>
+      <c r="D7" s="1">
+        <v>369495</v>
+      </c>
+      <c r="E7">
+        <v>0.91256700000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>370358.02454299532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.109375</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.34361169648638362</v>
+      </c>
+      <c r="D8" s="1">
+        <v>369529</v>
+      </c>
+      <c r="E8">
+        <v>0.91167200000000004</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>369994.79594502284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="D9" s="1">
+        <v>368125</v>
+      </c>
+      <c r="E9">
+        <v>0.91062699999999996</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>369570.69104571413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.140625</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.44178646691106466</v>
+      </c>
+      <c r="D10" s="1">
+        <v>366043</v>
+      </c>
+      <c r="E10">
+        <v>0.90942400000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>369082.46310899802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.49087385212340517</v>
+      </c>
+      <c r="D11" s="1">
+        <v>364078</v>
+      </c>
+      <c r="E11">
+        <v>0.90805899999999995</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>368528.4887668388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.171875</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.53996123733574564</v>
+      </c>
+      <c r="D12" s="1">
+        <v>363401</v>
+      </c>
+      <c r="E12">
+        <v>0.90652100000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>367904.30375713855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.58904862254808621</v>
+      </c>
+      <c r="D13" s="1">
+        <v>363830</v>
+      </c>
+      <c r="E13">
+        <v>0.90480300000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>367207.06718583492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.203125</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.63813600776042678</v>
+      </c>
+      <c r="D14" s="1">
+        <v>364190</v>
+      </c>
+      <c r="E14">
+        <v>0.90289399999999997</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>366432.31479082984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.68722339297276724</v>
+      </c>
+      <c r="D15" s="1">
+        <v>363639</v>
+      </c>
+      <c r="E15">
+        <v>0.900783</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>365575.58231002541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.234375</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.73631077818510771</v>
+      </c>
+      <c r="D16" s="1">
+        <v>362180</v>
+      </c>
+      <c r="E16">
+        <v>0.89845600000000003</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>364631.18795529689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="D17" s="1">
+        <v>360753</v>
+      </c>
+      <c r="E17">
+        <v>0.895899</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>363593.44993851957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.265625</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.83448554860978885</v>
+      </c>
+      <c r="D18" s="1">
+        <v>359915</v>
+      </c>
+      <c r="E18">
+        <v>0.893096</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>362455.87478755089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.28125</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.88357293382212931</v>
+      </c>
+      <c r="D19" s="1">
+        <v>359247</v>
+      </c>
+      <c r="E19">
+        <v>0.89002700000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>361210.34566221276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.296875</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.93266031903446978</v>
+      </c>
+      <c r="D20" s="1">
+        <v>357727</v>
+      </c>
+      <c r="E20">
+        <v>0.88667300000000004</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>359849.15156433592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.98174770424681035</v>
+      </c>
+      <c r="D21" s="1">
+        <v>355242</v>
+      </c>
+      <c r="E21">
+        <v>0.88301099999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>358362.95812771539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.328125</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1.0308350894591509</v>
+      </c>
+      <c r="D22" s="1">
+        <v>352996</v>
+      </c>
+      <c r="E22">
+        <v>0.87901399999999996</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>356740.80761811079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.34375</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1.0799224746714913</v>
+      </c>
+      <c r="D23" s="1">
+        <v>351584</v>
+      </c>
+      <c r="E23">
+        <v>0.87465300000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>354970.93061726372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.359375</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1.1290098598838318</v>
+      </c>
+      <c r="D24" s="1">
+        <v>350467</v>
+      </c>
+      <c r="E24">
+        <v>0.86989799999999995</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>353041.15186490695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="D25" s="1">
+        <v>349128</v>
+      </c>
+      <c r="E25">
+        <v>0.86471100000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>350936.04936470202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.390625</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1.227184630308513</v>
+      </c>
+      <c r="D26" s="1">
+        <v>347259</v>
+      </c>
+      <c r="E26">
+        <v>0.85905299999999996</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>348639.79527830152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.40625</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1.2762720155208536</v>
+      </c>
+      <c r="D27" s="1">
+        <v>344740</v>
+      </c>
+      <c r="E27">
+        <v>0.85287800000000002</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>346133.72087329562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.421875</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1.3253594007331939</v>
+      </c>
+      <c r="D28" s="1">
+        <v>341861</v>
+      </c>
+      <c r="E28">
+        <v>0.846136</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>343397.53404923901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1.3744467859455345</v>
+      </c>
+      <c r="D29" s="1">
+        <v>338862</v>
+      </c>
+      <c r="E29">
+        <v>0.83877000000000002</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>340408.1018116239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.453125</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1.4235341711578751</v>
+      </c>
+      <c r="D30" s="1">
+        <v>335336</v>
+      </c>
+      <c r="E30">
+        <v>0.83071799999999996</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>337140.26195589802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1.4726215563702154</v>
+      </c>
+      <c r="D31" s="1">
+        <v>331255</v>
+      </c>
+      <c r="E31">
+        <v>0.821909</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>333565.19969942892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.484375</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>1.521708941582556</v>
+      </c>
+      <c r="D32" s="1">
+        <v>327015</v>
+      </c>
+      <c r="E32">
+        <v>0.81226299999999996</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>329650.44768150395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D33" s="1">
+        <v>322750</v>
+      </c>
+      <c r="E33">
+        <v>0.80169299999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>325360.69764734816</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.515625</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>1.6198837120072371</v>
+      </c>
+      <c r="D34" s="1">
+        <v>318456</v>
+      </c>
+      <c r="E34">
+        <v>0.790099</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>320655.3653960707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.53125</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>1.6689710972195777</v>
+      </c>
+      <c r="D35" s="1">
+        <v>313935</v>
+      </c>
+      <c r="E35">
+        <v>0.77737299999999998</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>315490.61999070965</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.546875</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>1.7180584824319181</v>
+      </c>
+      <c r="D36" s="1">
+        <v>309167</v>
+      </c>
+      <c r="E36">
+        <v>0.76339000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>309815.7311801514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>1.7671458676442586</v>
+      </c>
+      <c r="D37" s="1">
+        <v>303829</v>
+      </c>
+      <c r="E37">
+        <v>0.74801700000000004</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>303576.72197721124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.578125</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>1.8162332528565992</v>
+      </c>
+      <c r="D38" s="1">
+        <v>297679</v>
+      </c>
+      <c r="E38">
+        <v>0.73110399999999998</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>296712.71608055307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.59375</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>1.8653206380689396</v>
+      </c>
+      <c r="D39" s="1">
+        <v>290652</v>
+      </c>
+      <c r="E39">
+        <v>0.71248699999999998</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>289157.15540071588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.609375</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>1.9144080232812801</v>
+      </c>
+      <c r="D40" s="1">
+        <v>282851</v>
+      </c>
+      <c r="E40">
+        <v>0.69198899999999997</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="2"/>
+        <v>280838.20590212313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>1.9634954084936207</v>
+      </c>
+      <c r="D41" s="1">
+        <v>274459</v>
+      </c>
+      <c r="E41">
+        <v>0.66941899999999999</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>271678.35176107328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.640625</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>2.012582793705961</v>
+      </c>
+      <c r="D42" s="1">
+        <v>265470</v>
+      </c>
+      <c r="E42">
+        <v>0.64457799999999998</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>261596.8304177938</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.65625</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>2.0616701789183018</v>
+      </c>
+      <c r="D43" s="1">
+        <v>255640</v>
+      </c>
+      <c r="E43">
+        <v>0.617259</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>250509.63257644066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.671875</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>2.1107575641306422</v>
+      </c>
+      <c r="D44" s="1">
+        <v>244727</v>
+      </c>
+      <c r="E44">
+        <v>0.58725700000000003</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>238333.56062518788</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>2.1598449493429825</v>
+      </c>
+      <c r="D45" s="1">
+        <v>232831</v>
+      </c>
+      <c r="E45">
+        <v>0.55438200000000004</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>224991.50458234281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.703125</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>2.2089323345553233</v>
+      </c>
+      <c r="D46" s="1">
+        <v>220052</v>
+      </c>
+      <c r="E46">
+        <v>0.51847500000000002</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>210418.93556848922</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.71875</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>2.2580197197676637</v>
+      </c>
+      <c r="D47" s="1">
+        <v>206440</v>
+      </c>
+      <c r="E47">
+        <v>0.47943200000000002</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>194573.64601470067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.734375</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>2.3071071049800045</v>
+      </c>
+      <c r="D48" s="1">
+        <v>191782</v>
+      </c>
+      <c r="E48">
+        <v>0.43723899999999999</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>177449.95413285244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="D49" s="1">
+        <v>175710</v>
+      </c>
+      <c r="E49">
+        <v>0.39202300000000001</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>159099.40185807581</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.765625</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>2.4052818754046852</v>
+      </c>
+      <c r="D50" s="1">
+        <v>158298</v>
+      </c>
+      <c r="E50">
+        <v>0.344107</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>139653.07615924801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.78125</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>2.454369260617026</v>
+      </c>
+      <c r="D51" s="1">
+        <v>140077</v>
+      </c>
+      <c r="E51">
+        <v>0.29408699999999999</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>119352.85887367817</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.796875</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>2.5034566458293663</v>
+      </c>
+      <c r="D52" s="1">
+        <v>121690</v>
+      </c>
+      <c r="E52">
+        <v>0.24291599999999999</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>98585.517435855392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>2.5525440310417071</v>
+      </c>
+      <c r="D53" s="1">
+        <v>103851</v>
+      </c>
+      <c r="E53">
+        <v>0.19198599999999999</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>77915.98392217941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.828125</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>2.6016314162540475</v>
+      </c>
+      <c r="D54" s="1">
+        <v>87013.8</v>
+      </c>
+      <c r="E54">
+        <v>0.14319299999999999</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>58113.734781539468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.84375</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>2.6507188014663878</v>
+      </c>
+      <c r="D55" s="1">
+        <v>71830</v>
+      </c>
+      <c r="E55">
+        <v>9.8984799999999998E-2</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>40172.19008334016</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.859375</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>2.6998061866787286</v>
+      </c>
+      <c r="D56" s="1">
+        <v>58505.1</v>
+      </c>
+      <c r="E56">
+        <v>6.2545600000000007E-2</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>25383.631952345826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>2.748893571891069</v>
+      </c>
+      <c r="D57" s="1">
+        <v>46649.3</v>
+      </c>
+      <c r="E57">
+        <v>3.8795099999999999E-2</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>15744.681319780309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.890625</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>2.7979809571034093</v>
+      </c>
+      <c r="D58" s="1">
+        <v>37794.300000000003</v>
+      </c>
+      <c r="E58">
+        <v>3.4175700000000003E-2</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>13869.934743831462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.90625</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>2.8470683423157501</v>
+      </c>
+      <c r="D59" s="1">
+        <v>63891</v>
+      </c>
+      <c r="E59">
+        <v>4.4807699999999999E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>18184.846982539551</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.921875</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>2.8961557275280905</v>
+      </c>
+      <c r="D60" s="1">
+        <v>18858.8</v>
+      </c>
+      <c r="E60">
+        <v>6.4919500000000005E-2</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>26347.060297292133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>2.9452431127404308</v>
+      </c>
+      <c r="D61" s="1">
+        <v>13988.1</v>
+      </c>
+      <c r="E61">
+        <v>0.101384</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>41145.886231111843</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.953125</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>2.9943304979527716</v>
+      </c>
+      <c r="D62" s="1">
+        <v>14767.8</v>
+      </c>
+      <c r="E62">
+        <v>0.17991299999999999</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>73016.253348635131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.96875</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>3.043417883165112</v>
+      </c>
+      <c r="D63" s="1">
+        <v>9562.61</v>
+      </c>
+      <c r="E63">
+        <v>0.40386899999999998</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="2"/>
+        <v>163907.006295598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.984375</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>3.0925052683774528</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8800.8799999999992</v>
+      </c>
+      <c r="E64">
+        <v>1.6031299999999999</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="2"/>
+        <v>650617.49974041583</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>0.89628799999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>8</v>
+      </c>
+      <c r="M68">
+        <v>0.99870899999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="H69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+      <c r="M69">
+        <v>0.99999400000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E436C35-E985-4553-AA44-7B88433F5455}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
